--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3316,6 +3316,26 @@
       <c r="A148" s="1">
         <v>146</v>
       </c>
+      <c r="B148" s="2">
+        <v>45140</v>
+      </c>
+      <c r="C148">
+        <v>1944.2</v>
+      </c>
+      <c r="D148">
+        <v>24.41</v>
+      </c>
+      <c r="E148">
+        <v>929</v>
+      </c>
+      <c r="F148">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3336,6 +3336,26 @@
       <c r="A149" s="1">
         <v>147</v>
       </c>
+      <c r="B149" s="2">
+        <v>45141</v>
+      </c>
+      <c r="C149">
+        <v>1935.65</v>
+      </c>
+      <c r="D149">
+        <v>23.555</v>
+      </c>
+      <c r="E149">
+        <v>921</v>
+      </c>
+      <c r="F149">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F150"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3356,6 +3356,26 @@
       <c r="A150" s="1">
         <v>148</v>
       </c>
+      <c r="B150" s="2">
+        <v>45142</v>
+      </c>
+      <c r="C150">
+        <v>1942.45</v>
+      </c>
+      <c r="D150">
+        <v>23.45</v>
+      </c>
+      <c r="E150">
+        <v>919</v>
+      </c>
+      <c r="F150">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3376,6 +3376,26 @@
       <c r="A151" s="1">
         <v>149</v>
       </c>
+      <c r="B151" s="2">
+        <v>45145</v>
+      </c>
+      <c r="C151">
+        <v>1931.7</v>
+      </c>
+      <c r="D151">
+        <v>23.395</v>
+      </c>
+      <c r="E151">
+        <v>930</v>
+      </c>
+      <c r="F151">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3396,6 +3396,26 @@
       <c r="A152" s="1">
         <v>150</v>
       </c>
+      <c r="B152" s="2">
+        <v>45146</v>
+      </c>
+      <c r="C152">
+        <v>1926.4</v>
+      </c>
+      <c r="D152">
+        <v>23.04</v>
+      </c>
+      <c r="E152">
+        <v>906</v>
+      </c>
+      <c r="F152">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3416,6 +3416,26 @@
       <c r="A153" s="1">
         <v>151</v>
       </c>
+      <c r="B153" s="2">
+        <v>45147</v>
+      </c>
+      <c r="C153">
+        <v>1922.75</v>
+      </c>
+      <c r="D153">
+        <v>22.705</v>
+      </c>
+      <c r="E153">
+        <v>894</v>
+      </c>
+      <c r="F153">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3436,6 +3436,26 @@
       <c r="A154" s="1">
         <v>152</v>
       </c>
+      <c r="B154" s="2">
+        <v>45148</v>
+      </c>
+      <c r="C154">
+        <v>1920.9</v>
+      </c>
+      <c r="D154">
+        <v>22.8</v>
+      </c>
+      <c r="E154">
+        <v>901</v>
+      </c>
+      <c r="F154">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3456,6 +3456,26 @@
       <c r="A155" s="1">
         <v>153</v>
       </c>
+      <c r="B155" s="2">
+        <v>45149</v>
+      </c>
+      <c r="C155">
+        <v>1915.8</v>
+      </c>
+      <c r="D155">
+        <v>22.69</v>
+      </c>
+      <c r="E155">
+        <v>911</v>
+      </c>
+      <c r="F155">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F156"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3476,6 +3476,26 @@
       <c r="A156" s="1">
         <v>154</v>
       </c>
+      <c r="B156" s="2">
+        <v>45152</v>
+      </c>
+      <c r="C156">
+        <v>1903.75</v>
+      </c>
+      <c r="D156">
+        <v>22.725</v>
+      </c>
+      <c r="E156">
+        <v>902</v>
+      </c>
+      <c r="F156">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3496,6 +3496,23 @@
       <c r="A157" s="1">
         <v>155</v>
       </c>
+      <c r="B157" s="2">
+        <v>45153</v>
+      </c>
+      <c r="D157">
+        <v>1902.7088</v>
+      </c>
+      <c r="E157">
+        <v>890</v>
+      </c>
+      <c r="F157">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F158"/>
+  <dimension ref="A1:F159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3499,8 +3499,11 @@
       <c r="B157" s="2">
         <v>45153</v>
       </c>
+      <c r="C157">
+        <v>1903.85</v>
+      </c>
       <c r="D157">
-        <v>1902.7088</v>
+        <v>22.41</v>
       </c>
       <c r="E157">
         <v>890</v>
@@ -3512,6 +3515,26 @@
     <row r="158" spans="1:6">
       <c r="A158" s="1">
         <v>156</v>
+      </c>
+      <c r="B158" s="2">
+        <v>45154</v>
+      </c>
+      <c r="C158">
+        <v>1904.2</v>
+      </c>
+      <c r="D158">
+        <v>22.695</v>
+      </c>
+      <c r="E158">
+        <v>887</v>
+      </c>
+      <c r="F158">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F159"/>
+  <dimension ref="A1:F160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3536,6 +3536,23 @@
       <c r="A159" s="1">
         <v>157</v>
       </c>
+      <c r="B159" s="2">
+        <v>45155</v>
+      </c>
+      <c r="D159">
+        <v>22.705</v>
+      </c>
+      <c r="E159">
+        <v>910</v>
+      </c>
+      <c r="F159">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F160"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3539,6 +3539,9 @@
       <c r="B159" s="2">
         <v>45155</v>
       </c>
+      <c r="C159">
+        <v>1896.35</v>
+      </c>
       <c r="D159">
         <v>22.705</v>
       </c>
@@ -3552,6 +3555,26 @@
     <row r="160" spans="1:6">
       <c r="A160" s="1">
         <v>158</v>
+      </c>
+      <c r="B160" s="2">
+        <v>45156</v>
+      </c>
+      <c r="C160">
+        <v>1893.7</v>
+      </c>
+      <c r="D160">
+        <v>22.79</v>
+      </c>
+      <c r="E160">
+        <v>904</v>
+      </c>
+      <c r="F160">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="1">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3572,9 +3572,29 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:6">
       <c r="A161" s="1">
         <v>159</v>
+      </c>
+      <c r="B161" s="2">
+        <v>45159</v>
+      </c>
+      <c r="C161">
+        <v>1889.85</v>
+      </c>
+      <c r="D161">
+        <v>22.88</v>
+      </c>
+      <c r="E161">
+        <v>911</v>
+      </c>
+      <c r="F161">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F162"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3596,6 +3596,26 @@
       <c r="A162" s="1">
         <v>160</v>
       </c>
+      <c r="B162" s="2">
+        <v>45160</v>
+      </c>
+      <c r="C162">
+        <v>1892.75</v>
+      </c>
+      <c r="D162">
+        <v>23.39</v>
+      </c>
+      <c r="E162">
+        <v>928</v>
+      </c>
+      <c r="F162">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirillkuznecov/Documents/Документы/macro_parser/LME/parser_beta/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0033859-CD1C-CD43-B50E-660C59E9A8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="740" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kitco_metall" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -34,11 +40,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,17 +104,25 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -146,9 +160,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -180,9 +194,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,9 +246,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -389,14 +439,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="H161" sqref="H161"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,7 +468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,7 +479,7 @@
         <v>1843.25</v>
       </c>
       <c r="D2">
-        <v>24.295</v>
+        <v>24.295000000000002</v>
       </c>
       <c r="E2">
         <v>1082</v>
@@ -433,7 +488,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,7 +508,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -473,7 +528,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -484,7 +539,7 @@
         <v>1852.2</v>
       </c>
       <c r="D5">
-        <v>23.455</v>
+        <v>23.454999999999998</v>
       </c>
       <c r="E5">
         <v>1073</v>
@@ -493,7 +548,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -513,7 +568,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -524,7 +579,7 @@
         <v>1878.65</v>
       </c>
       <c r="D7">
-        <v>23.515</v>
+        <v>23.515000000000001</v>
       </c>
       <c r="E7">
         <v>1084</v>
@@ -533,7 +588,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -553,7 +608,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -573,7 +628,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -584,7 +639,7 @@
         <v>1907.15</v>
       </c>
       <c r="D10">
-        <v>23.675</v>
+        <v>23.675000000000001</v>
       </c>
       <c r="E10">
         <v>1057</v>
@@ -593,7 +648,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -613,7 +668,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -633,7 +688,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -644,7 +699,7 @@
         <v>1920.7</v>
       </c>
       <c r="D13">
-        <v>24.185</v>
+        <v>24.184999999999999</v>
       </c>
       <c r="E13">
         <v>1068</v>
@@ -653,7 +708,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -673,7 +728,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -693,7 +748,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -704,7 +759,7 @@
         <v>1914.85</v>
       </c>
       <c r="D16">
-        <v>23.675</v>
+        <v>23.675000000000001</v>
       </c>
       <c r="E16">
         <v>1037</v>
@@ -713,7 +768,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -733,7 +788,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -753,7 +808,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -773,7 +828,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -784,7 +839,7 @@
         <v>1923.05</v>
       </c>
       <c r="D20">
-        <v>23.725</v>
+        <v>23.725000000000001</v>
       </c>
       <c r="E20">
         <v>1010</v>
@@ -793,7 +848,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -804,7 +859,7 @@
         <v>1924.1</v>
       </c>
       <c r="D21">
-        <v>23.635</v>
+        <v>23.635000000000002</v>
       </c>
       <c r="E21">
         <v>1013</v>
@@ -813,7 +868,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -824,7 +879,7 @@
         <v>1923.9</v>
       </c>
       <c r="D22">
-        <v>22.995</v>
+        <v>22.995000000000001</v>
       </c>
       <c r="E22">
         <v>1004</v>
@@ -833,7 +888,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -844,7 +899,7 @@
         <v>1925.9</v>
       </c>
       <c r="D23">
-        <v>23.495</v>
+        <v>23.495000000000001</v>
       </c>
       <c r="E23">
         <v>1008</v>
@@ -853,7 +908,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -864,7 +919,7 @@
         <v>1921.65</v>
       </c>
       <c r="D24">
-        <v>24.435</v>
+        <v>24.434999999999999</v>
       </c>
       <c r="E24">
         <v>1032</v>
@@ -873,7 +928,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -893,7 +948,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -913,7 +968,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -924,7 +979,7 @@
         <v>1870.7</v>
       </c>
       <c r="D27">
-        <v>22.205</v>
+        <v>22.204999999999998</v>
       </c>
       <c r="E27">
         <v>970</v>
@@ -933,7 +988,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -953,7 +1008,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -973,7 +1028,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -984,7 +1039,7 @@
         <v>1859.7</v>
       </c>
       <c r="D30">
-        <v>22.115</v>
+        <v>22.114999999999998</v>
       </c>
       <c r="E30">
         <v>966</v>
@@ -993,7 +1048,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1004,7 +1059,7 @@
         <v>1856.05</v>
       </c>
       <c r="D31">
-        <v>21.985</v>
+        <v>21.984999999999999</v>
       </c>
       <c r="E31">
         <v>944</v>
@@ -1013,7 +1068,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1033,7 +1088,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1053,7 +1108,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1064,7 +1119,7 @@
         <v>1828.95</v>
       </c>
       <c r="D34">
-        <v>21.565</v>
+        <v>21.565000000000001</v>
       </c>
       <c r="E34">
         <v>912</v>
@@ -1073,7 +1128,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1093,7 +1148,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1113,7 +1168,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1124,7 +1179,7 @@
         <v>1836.85</v>
       </c>
       <c r="D37">
-        <v>21.775</v>
+        <v>21.774999999999999</v>
       </c>
       <c r="E37">
         <v>934</v>
@@ -1133,7 +1188,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1153,7 +1208,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1173,7 +1228,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1193,7 +1248,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1213,7 +1268,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1224,7 +1279,7 @@
         <v>1824.6</v>
       </c>
       <c r="D42">
-        <v>20.525</v>
+        <v>20.524999999999999</v>
       </c>
       <c r="E42">
         <v>951</v>
@@ -1233,7 +1288,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1244,7 +1299,7 @@
         <v>1841.25</v>
       </c>
       <c r="D43">
-        <v>20.995</v>
+        <v>20.995000000000001</v>
       </c>
       <c r="E43">
         <v>960</v>
@@ -1253,7 +1308,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1273,7 +1328,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1293,7 +1348,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1304,7 +1359,7 @@
         <v>1849.05</v>
       </c>
       <c r="D46">
-        <v>21.085</v>
+        <v>21.085000000000001</v>
       </c>
       <c r="E46">
         <v>965</v>
@@ -1313,7 +1368,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1330,7 +1385,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1350,7 +1405,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1370,7 +1425,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1387,7 +1442,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1398,7 +1453,7 @@
         <v>1911.3</v>
       </c>
       <c r="D51">
-        <v>21.095</v>
+        <v>21.094999999999999</v>
       </c>
       <c r="E51">
         <v>988</v>
@@ -1407,7 +1462,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1427,7 +1482,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1438,7 +1493,7 @@
         <v>1923.4</v>
       </c>
       <c r="D53">
-        <v>22.095</v>
+        <v>22.094999999999999</v>
       </c>
       <c r="E53">
         <v>965</v>
@@ -1447,7 +1502,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1464,7 +1519,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1475,7 +1530,7 @@
         <v>1962.1</v>
       </c>
       <c r="D55">
-        <v>21.885</v>
+        <v>21.885000000000002</v>
       </c>
       <c r="E55">
         <v>979</v>
@@ -1484,7 +1539,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1495,7 +1550,7 @@
         <v>1969.35</v>
       </c>
       <c r="D56">
-        <v>22.495</v>
+        <v>22.495000000000001</v>
       </c>
       <c r="E56">
         <v>985</v>
@@ -1504,7 +1559,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1524,7 +1579,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1535,7 +1590,7 @@
         <v>1949.35</v>
       </c>
       <c r="D58">
-        <v>22.345</v>
+        <v>22.344999999999999</v>
       </c>
       <c r="E58">
         <v>985</v>
@@ -1544,7 +1599,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1564,7 +1619,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1584,7 +1639,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1601,7 +1656,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1612,7 +1667,7 @@
         <v>1962.85</v>
       </c>
       <c r="D62">
-        <v>23.045</v>
+        <v>23.045000000000002</v>
       </c>
       <c r="E62">
         <v>966</v>
@@ -1621,7 +1676,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1632,7 +1687,7 @@
         <v>1965</v>
       </c>
       <c r="D63">
-        <v>23.255</v>
+        <v>23.254999999999999</v>
       </c>
       <c r="E63">
         <v>962</v>
@@ -1641,7 +1696,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1661,7 +1716,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1672,7 +1727,7 @@
         <v>1979.7</v>
       </c>
       <c r="D65">
-        <v>23.885</v>
+        <v>23.885000000000002</v>
       </c>
       <c r="E65">
         <v>981</v>
@@ -1681,7 +1736,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1692,7 +1747,7 @@
         <v>1983.3</v>
       </c>
       <c r="D66">
-        <v>23.925</v>
+        <v>23.925000000000001</v>
       </c>
       <c r="E66">
         <v>990</v>
@@ -1701,7 +1756,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1712,13 +1767,13 @@
         <v>2009.6</v>
       </c>
       <c r="D67">
-        <v>24.015</v>
+        <v>24.015000000000001</v>
       </c>
       <c r="E67">
         <v>1011</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1738,7 +1793,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1749,7 +1804,7 @@
         <v>2001.9</v>
       </c>
       <c r="D69">
-        <v>24.935</v>
+        <v>24.934999999999999</v>
       </c>
       <c r="E69">
         <v>999</v>
@@ -1758,7 +1813,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1778,7 +1833,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1798,7 +1853,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1806,7 +1861,7 @@
         <v>45029</v>
       </c>
       <c r="C72">
-        <v>2048.45</v>
+        <v>2048.4499999999998</v>
       </c>
       <c r="D72">
         <v>25.62</v>
@@ -1818,7 +1873,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1829,7 +1884,7 @@
         <v>2019.4</v>
       </c>
       <c r="D73">
-        <v>26.025</v>
+        <v>26.024999999999999</v>
       </c>
       <c r="E73">
         <v>1043</v>
@@ -1838,7 +1893,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1858,7 +1913,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1878,7 +1933,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1898,7 +1953,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1918,7 +1973,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1929,7 +1984,7 @@
         <v>1973.65</v>
       </c>
       <c r="D78">
-        <v>25.155</v>
+        <v>25.155000000000001</v>
       </c>
       <c r="E78">
         <v>1128</v>
@@ -1938,7 +1993,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1958,7 +2013,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1978,7 +2033,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1998,7 +2053,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2018,7 +2073,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2029,7 +2084,7 @@
         <v>1982.55</v>
       </c>
       <c r="D83">
-        <v>24.765</v>
+        <v>24.765000000000001</v>
       </c>
       <c r="E83">
         <v>1074</v>
@@ -2038,7 +2093,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2058,7 +2113,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2078,7 +2133,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2098,7 +2153,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2118,7 +2173,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2129,7 +2184,7 @@
         <v>2030.2</v>
       </c>
       <c r="D88">
-        <v>25.565</v>
+        <v>25.565000000000001</v>
       </c>
       <c r="E88">
         <v>1085</v>
@@ -2138,7 +2193,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2158,7 +2213,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2169,7 +2224,7 @@
         <v>2015.95</v>
       </c>
       <c r="D90">
-        <v>24.885</v>
+        <v>24.885000000000002</v>
       </c>
       <c r="E90">
         <v>1119</v>
@@ -2178,7 +2233,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2198,7 +2253,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2215,7 +2270,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2235,7 +2290,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2246,7 +2301,7 @@
         <v>1974.4</v>
       </c>
       <c r="D94">
-        <v>23.685</v>
+        <v>23.684999999999999</v>
       </c>
       <c r="E94">
         <v>1075</v>
@@ -2255,7 +2310,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2275,7 +2330,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2295,7 +2350,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2315,7 +2370,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2335,7 +2390,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2346,7 +2401,7 @@
         <v>1969.65</v>
       </c>
       <c r="D99">
-        <v>23.415</v>
+        <v>23.414999999999999</v>
       </c>
       <c r="E99">
         <v>1042</v>
@@ -2355,7 +2410,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2366,7 +2421,7 @@
         <v>1948.25</v>
       </c>
       <c r="D100">
-        <v>23.005</v>
+        <v>23.004999999999999</v>
       </c>
       <c r="E100">
         <v>1023</v>
@@ -2375,7 +2430,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2395,7 +2450,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2406,7 +2461,7 @@
         <v>1952.45</v>
       </c>
       <c r="D102">
-        <v>23.255</v>
+        <v>23.254999999999999</v>
       </c>
       <c r="E102">
         <v>1027</v>
@@ -2415,7 +2470,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2432,7 +2487,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2452,7 +2507,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2463,7 +2518,7 @@
         <v>1963.25</v>
       </c>
       <c r="D105">
-        <v>23.885</v>
+        <v>23.885000000000002</v>
       </c>
       <c r="E105">
         <v>1007</v>
@@ -2472,7 +2527,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2483,7 +2538,7 @@
         <v>1959.65</v>
       </c>
       <c r="D106">
-        <v>23.475</v>
+        <v>23.475000000000001</v>
       </c>
       <c r="E106">
         <v>1017</v>
@@ -2492,7 +2547,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2512,7 +2567,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2523,7 +2578,7 @@
         <v>1967.35</v>
       </c>
       <c r="D108">
-        <v>23.585</v>
+        <v>23.585000000000001</v>
       </c>
       <c r="E108">
         <v>1035</v>
@@ -2532,7 +2587,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2552,7 +2607,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2563,7 +2618,7 @@
         <v>1960.3</v>
       </c>
       <c r="D110">
-        <v>24.315</v>
+        <v>24.315000000000001</v>
       </c>
       <c r="E110">
         <v>1001</v>
@@ -2572,7 +2627,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2592,7 +2647,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2612,7 +2667,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2623,7 +2678,7 @@
         <v>1955.8</v>
       </c>
       <c r="D113">
-        <v>23.825</v>
+        <v>23.824999999999999</v>
       </c>
       <c r="E113">
         <v>978</v>
@@ -2632,7 +2687,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2643,7 +2698,7 @@
         <v>1952.35</v>
       </c>
       <c r="D114">
-        <v>23.405</v>
+        <v>23.405000000000001</v>
       </c>
       <c r="E114">
         <v>979</v>
@@ -2652,7 +2707,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2672,7 +2727,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2692,7 +2747,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2712,7 +2767,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2723,7 +2778,7 @@
         <v>1925.65</v>
       </c>
       <c r="D118">
-        <v>23.075</v>
+        <v>23.074999999999999</v>
       </c>
       <c r="E118">
         <v>949</v>
@@ -2732,7 +2787,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2752,7 +2807,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2772,7 +2827,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2792,7 +2847,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2803,7 +2858,7 @@
         <v>1918.9</v>
       </c>
       <c r="D122">
-        <v>22.835</v>
+        <v>22.835000000000001</v>
       </c>
       <c r="E122">
         <v>925</v>
@@ -2812,7 +2867,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2832,7 +2887,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2852,7 +2907,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2872,7 +2927,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2883,7 +2938,7 @@
         <v>1928.75</v>
       </c>
       <c r="D126">
-        <v>22.775</v>
+        <v>22.774999999999999</v>
       </c>
       <c r="E126">
         <v>911</v>
@@ -2892,7 +2947,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2903,7 +2958,7 @@
         <v>1927.75</v>
       </c>
       <c r="D127">
-        <v>23.005</v>
+        <v>23.004999999999999</v>
       </c>
       <c r="E127">
         <v>918</v>
@@ -2912,7 +2967,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2932,7 +2987,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2952,7 +3007,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2972,7 +3027,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -2992,7 +3047,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3003,7 +3058,7 @@
         <v>1933.95</v>
       </c>
       <c r="D132">
-        <v>23.135</v>
+        <v>23.135000000000002</v>
       </c>
       <c r="E132">
         <v>927</v>
@@ -3012,7 +3067,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3032,7 +3087,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3052,7 +3107,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3072,7 +3127,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3092,7 +3147,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3103,7 +3158,7 @@
         <v>1975</v>
       </c>
       <c r="D137">
-        <v>24.885</v>
+        <v>24.885000000000002</v>
       </c>
       <c r="E137">
         <v>983</v>
@@ -3112,7 +3167,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3123,7 +3178,7 @@
         <v>1975.35</v>
       </c>
       <c r="D138">
-        <v>25.015</v>
+        <v>25.015000000000001</v>
       </c>
       <c r="E138">
         <v>985</v>
@@ -3132,7 +3187,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3143,7 +3198,7 @@
         <v>1976.1</v>
       </c>
       <c r="D139">
-        <v>25.175</v>
+        <v>25.175000000000001</v>
       </c>
       <c r="E139">
         <v>970</v>
@@ -3152,7 +3207,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3172,7 +3227,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3192,7 +3247,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3212,7 +3267,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3232,7 +3287,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3252,7 +3307,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3263,7 +3318,7 @@
         <v>1954.25</v>
       </c>
       <c r="D145">
-        <v>24.225</v>
+        <v>24.225000000000001</v>
       </c>
       <c r="E145">
         <v>933</v>
@@ -3272,7 +3327,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3292,7 +3347,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3303,7 +3358,7 @@
         <v>1947.2</v>
       </c>
       <c r="D147">
-        <v>24.515</v>
+        <v>24.515000000000001</v>
       </c>
       <c r="E147">
         <v>930</v>
@@ -3312,7 +3367,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3332,7 +3387,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3352,7 +3407,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3372,7 +3427,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3392,7 +3447,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3412,7 +3467,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3423,7 +3478,7 @@
         <v>1922.75</v>
       </c>
       <c r="D153">
-        <v>22.705</v>
+        <v>22.704999999999998</v>
       </c>
       <c r="E153">
         <v>894</v>
@@ -3432,7 +3487,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3452,7 +3507,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3472,7 +3527,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3483,7 +3538,7 @@
         <v>1903.75</v>
       </c>
       <c r="D156">
-        <v>22.725</v>
+        <v>22.725000000000001</v>
       </c>
       <c r="E156">
         <v>902</v>
@@ -3492,7 +3547,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -3512,7 +3567,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -3532,7 +3587,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -3543,7 +3598,7 @@
         <v>1896.35</v>
       </c>
       <c r="D159">
-        <v>22.705</v>
+        <v>22.704999999999998</v>
       </c>
       <c r="E159">
         <v>910</v>
@@ -3552,7 +3607,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -3572,7 +3627,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -3592,7 +3647,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3612,12 +3667,28 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
+      <c r="B163" s="2">
+        <v>45161</v>
+      </c>
+      <c r="C163">
+        <v>1916.65</v>
+      </c>
+      <c r="D163">
+        <v>114.75</v>
+      </c>
+      <c r="E163">
+        <v>929</v>
+      </c>
+      <c r="F163">
+        <v>1282</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F164"/>
+  <dimension ref="A1:F165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3681,7 +3681,7 @@
         <v>1916.65</v>
       </c>
       <c r="D163" t="n">
-        <v>114.75</v>
+        <v>23.75</v>
       </c>
       <c r="E163" t="n">
         <v>929</v>
@@ -3694,11 +3694,31 @@
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B164" t="inlineStr"/>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
+      <c r="B164" s="2" t="n">
+        <v>45162</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1917.05</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.9222</v>
+      </c>
+      <c r="E164" t="n">
+        <v>933</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:F166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3701,7 +3701,7 @@
         <v>1917.05</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9222</v>
+        <v>24.185</v>
       </c>
       <c r="E164" t="n">
         <v>933</v>
@@ -3714,11 +3714,29 @@
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B165" t="inlineStr"/>
-      <c r="C165" t="inlineStr"/>
+      <c r="B165" s="2" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.36</v>
+      </c>
       <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
+      <c r="E165" t="n">
+        <v>949</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F166"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3718,9 +3718,11 @@
         <v>45163</v>
       </c>
       <c r="C165" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="D165" t="inlineStr"/>
+        <v>1917.85</v>
+      </c>
+      <c r="D165" t="n">
+        <v>24.185</v>
+      </c>
       <c r="E165" t="n">
         <v>949</v>
       </c>
@@ -3732,11 +3734,31 @@
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
+      <c r="B166" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1930</v>
+      </c>
+      <c r="D166" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="E166" t="n">
+        <v>979</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F167"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3754,11 +3754,31 @@
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="B167" t="inlineStr"/>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
+      <c r="B167" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1947.55</v>
+      </c>
+      <c r="D167" t="n">
+        <v>24.62</v>
+      </c>
+      <c r="E167" t="n">
+        <v>984</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3774,11 +3774,31 @@
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="B168" t="inlineStr"/>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
+      <c r="B168" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1942.3</v>
+      </c>
+      <c r="D168" t="n">
+        <v>24.535</v>
+      </c>
+      <c r="E168" t="n">
+        <v>980</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3794,11 +3794,31 @@
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="B169" t="inlineStr"/>
-      <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
+      <c r="B169" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1940.55</v>
+      </c>
+      <c r="D169" t="n">
+        <v>24.645</v>
+      </c>
+      <c r="E169" t="n">
+        <v>983</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F170"/>
+  <dimension ref="A1:F171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3814,11 +3814,31 @@
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="B170" t="inlineStr"/>
-      <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
+      <c r="B170" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1937.2</v>
+      </c>
+      <c r="D170" t="n">
+        <v>24.035</v>
+      </c>
+      <c r="E170" t="n">
+        <v>960</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F171"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3718,7 +3718,7 @@
         <v>45163</v>
       </c>
       <c r="C165" t="n">
-        <v>1917.85</v>
+        <v>1915.5</v>
       </c>
       <c r="D165" t="n">
         <v>24.185</v>
@@ -3834,11 +3834,31 @@
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="B171" t="inlineStr"/>
-      <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
+      <c r="B171" s="2" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1926.1</v>
+      </c>
+      <c r="D171" t="n">
+        <v>23.545</v>
+      </c>
+      <c r="E171" t="n">
+        <v>945</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3854,11 +3854,31 @@
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B172" t="inlineStr"/>
-      <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
+      <c r="B172" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1922.05</v>
+      </c>
+      <c r="D172" t="n">
+        <v>23.475</v>
+      </c>
+      <c r="E172" t="n">
+        <v>915</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3874,11 +3874,31 @@
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="B173" t="inlineStr"/>
-      <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
+      <c r="B173" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1918.35</v>
+      </c>
+      <c r="D173" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="E173" t="n">
+        <v>904</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F174"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3894,11 +3894,27 @@
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="B174" t="inlineStr"/>
-      <c r="C174" t="inlineStr"/>
+      <c r="B174" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1927.8</v>
+      </c>
       <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr"/>
+      <c r="E174" t="n">
+        <v>900</v>
+      </c>
       <c r="F174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F175"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3900,21 +3900,45 @@
       <c r="C174" t="n">
         <v>1927.8</v>
       </c>
-      <c r="D174" t="inlineStr"/>
+      <c r="D174" t="n">
+        <v>23.01</v>
+      </c>
       <c r="E174" t="n">
         <v>900</v>
       </c>
-      <c r="F174" t="inlineStr"/>
+      <c r="F174" t="n">
+        <v>1207</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="B175" t="inlineStr"/>
-      <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
+      <c r="B175" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1924.95</v>
+      </c>
+      <c r="D175" t="n">
+        <v>23.105</v>
+      </c>
+      <c r="E175" t="n">
+        <v>903</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:F177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3934,11 +3934,31 @@
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="B176" t="inlineStr"/>
-      <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
+      <c r="B176" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1908.55</v>
+      </c>
+      <c r="D176" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="E176" t="n">
+        <v>900</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F177"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3954,11 +3954,31 @@
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B177" t="inlineStr"/>
-      <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr"/>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
+      <c r="B177" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1913.8</v>
+      </c>
+      <c r="D177" t="n">
+        <v>22.905</v>
+      </c>
+      <c r="E177" t="n">
+        <v>901</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F178"/>
+  <dimension ref="A1:F179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3974,11 +3974,31 @@
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="B178" t="inlineStr"/>
-      <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr"/>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
+      <c r="B178" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1901.75</v>
+      </c>
+      <c r="D178" t="n">
+        <v>22.64</v>
+      </c>
+      <c r="E178" t="n">
+        <v>903</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3994,11 +3994,31 @@
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="B179" t="inlineStr"/>
-      <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr"/>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
+      <c r="B179" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1927.7</v>
+      </c>
+      <c r="D179" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="E179" t="n">
+        <v>927</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F180"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4014,11 +4014,31 @@
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="B180" t="inlineStr"/>
-      <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
+      <c r="B180" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1923.5</v>
+      </c>
+      <c r="D180" t="n">
+        <v>23.195</v>
+      </c>
+      <c r="E180" t="n">
+        <v>935</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4034,11 +4034,31 @@
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="B181" t="inlineStr"/>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr"/>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
+      <c r="B181" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1934.9</v>
+      </c>
+      <c r="D181" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="E181" t="n">
+        <v>948</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F182"/>
+  <dimension ref="A1:F183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4054,11 +4054,31 @@
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="B182" t="inlineStr"/>
-      <c r="C182" t="inlineStr"/>
-      <c r="D182" t="inlineStr"/>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
+      <c r="B182" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1943.35</v>
+      </c>
+      <c r="D182" t="n">
+        <v>23.275</v>
+      </c>
+      <c r="E182" t="n">
+        <v>943</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F183"/>
+  <dimension ref="A1:F184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4074,11 +4074,31 @@
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="B183" t="inlineStr"/>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
+      <c r="B183" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1915</v>
+      </c>
+      <c r="D183" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="E183" t="n">
+        <v>917</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F184"/>
+  <dimension ref="A1:F185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4094,11 +4094,31 @@
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="B184" t="inlineStr"/>
-      <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
+      <c r="B184" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1927.35</v>
+      </c>
+      <c r="D184" t="n">
+        <v>23.65</v>
+      </c>
+      <c r="E184" t="n">
+        <v>940</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F185"/>
+  <dimension ref="A1:F186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4114,11 +4114,31 @@
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="B185" t="inlineStr"/>
-      <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
+      <c r="B185" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1924.85</v>
+      </c>
+      <c r="D185" t="n">
+        <v>23.56</v>
+      </c>
+      <c r="E185" t="n">
+        <v>919</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F186"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4134,11 +4134,31 @@
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="B186" t="inlineStr"/>
-      <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
+      <c r="B186" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1907.05</v>
+      </c>
+      <c r="D186" t="n">
+        <v>23.015</v>
+      </c>
+      <c r="E186" t="n">
+        <v>906</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F187"/>
+  <dimension ref="A1:F188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4154,11 +4154,31 @@
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="B187" t="inlineStr"/>
-      <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
+      <c r="B187" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1887.3</v>
+      </c>
+      <c r="D187" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="E187" t="n">
+        <v>905</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:F189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4174,11 +4174,31 @@
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="B188" t="inlineStr"/>
-      <c r="C188" t="inlineStr"/>
-      <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
+      <c r="B188" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1873.55</v>
+      </c>
+      <c r="D188" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="E188" t="n">
+        <v>901</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F189"/>
+  <dimension ref="A1:F190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4194,11 +4194,31 @@
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="B189" t="inlineStr"/>
-      <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
+      <c r="B189" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1870.5</v>
+      </c>
+      <c r="D189" t="n">
+        <v>23.075</v>
+      </c>
+      <c r="E189" t="n">
+        <v>923</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F190"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4214,11 +4214,31 @@
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="B190" t="inlineStr"/>
-      <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
+      <c r="B190" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1833.05</v>
+      </c>
+      <c r="D190" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="E190" t="n">
+        <v>901</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F191"/>
+  <dimension ref="A1:F192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4234,11 +4234,31 @@
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="B191" t="inlineStr"/>
-      <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
+      <c r="B191" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1822.45</v>
+      </c>
+      <c r="D191" t="n">
+        <v>21.055</v>
+      </c>
+      <c r="E191" t="n">
+        <v>881</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F192"/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4254,11 +4254,31 @@
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="B192" t="inlineStr"/>
-      <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
+      <c r="B192" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1818.95</v>
+      </c>
+      <c r="D192" t="n">
+        <v>21.105</v>
+      </c>
+      <c r="E192" t="n">
+        <v>874</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4274,11 +4274,31 @@
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="B193" t="inlineStr"/>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
+      <c r="B193" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1819.45</v>
+      </c>
+      <c r="D193" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="E193" t="n">
+        <v>864</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F194"/>
+  <dimension ref="A1:F195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4294,11 +4294,31 @@
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="B194" t="inlineStr"/>
-      <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
+      <c r="B194" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1819.6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>21.115</v>
+      </c>
+      <c r="E194" t="n">
+        <v>858</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F195"/>
+  <dimension ref="A1:F196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4314,11 +4314,31 @@
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="B195" t="inlineStr"/>
-      <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
+      <c r="B195" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1845.5</v>
+      </c>
+      <c r="D195" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="E195" t="n">
+        <v>880</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F196"/>
+  <dimension ref="A1:F197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4334,11 +4334,31 @@
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="B196" t="inlineStr"/>
-      <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
+      <c r="B196" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1857</v>
+      </c>
+      <c r="D196" t="n">
+        <v>21.715</v>
+      </c>
+      <c r="E196" t="n">
+        <v>886</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F197"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4354,11 +4354,31 @@
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="B197" t="inlineStr"/>
-      <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
+      <c r="B197" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1871.25</v>
+      </c>
+      <c r="D197" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="E197" t="n">
+        <v>880</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F198"/>
+  <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4374,11 +4374,51 @@
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="B198" t="inlineStr"/>
-      <c r="C198" t="inlineStr"/>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
+      <c r="B198" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1874</v>
+      </c>
+      <c r="D198" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="E198" t="n">
+        <v>883</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>45212</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1909.2</v>
+      </c>
+      <c r="D199" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="E199" t="n">
+        <v>881</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F200"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4414,11 +4414,31 @@
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="B200" t="inlineStr"/>
-      <c r="C200" t="inlineStr"/>
-      <c r="D200" t="inlineStr"/>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
+      <c r="B200" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1918.05</v>
+      </c>
+      <c r="D200" t="n">
+        <v>22.595</v>
+      </c>
+      <c r="E200" t="n">
+        <v>883</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4434,11 +4434,29 @@
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="B201" t="inlineStr"/>
-      <c r="C201" t="inlineStr"/>
-      <c r="D201" t="inlineStr"/>
-      <c r="E201" t="inlineStr"/>
+      <c r="B201" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1928.2</v>
+      </c>
+      <c r="D201" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="E201" t="n">
+        <v>895</v>
+      </c>
       <c r="F201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F202"/>
+  <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4452,11 +4452,31 @@
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B202" t="inlineStr"/>
-      <c r="C202" t="inlineStr"/>
-      <c r="D202" t="inlineStr"/>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
+      <c r="B202" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1955.7</v>
+      </c>
+      <c r="D202" t="n">
+        <v>23.21</v>
+      </c>
+      <c r="E202" t="n">
+        <v>898</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F203"/>
+  <dimension ref="A1:F204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4472,11 +4472,31 @@
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="B203" t="inlineStr"/>
-      <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr"/>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
+      <c r="B203" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1953.55</v>
+      </c>
+      <c r="D203" t="n">
+        <v>22.885</v>
+      </c>
+      <c r="E203" t="n">
+        <v>888</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F204"/>
+  <dimension ref="A1:F205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4492,11 +4492,31 @@
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="B204" t="inlineStr"/>
-      <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr"/>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
+      <c r="B204" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1988.5</v>
+      </c>
+      <c r="D204" t="n">
+        <v>23.215</v>
+      </c>
+      <c r="E204" t="n">
+        <v>895</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F205"/>
+  <dimension ref="A1:F206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4512,11 +4512,31 @@
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="B205" t="inlineStr"/>
-      <c r="C205" t="inlineStr"/>
-      <c r="D205" t="inlineStr"/>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
+      <c r="B205" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1973</v>
+      </c>
+      <c r="D205" t="n">
+        <v>23.185</v>
+      </c>
+      <c r="E205" t="n">
+        <v>898</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F207"/>
+  <dimension ref="A1:F208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4552,11 +4552,29 @@
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="B207" t="inlineStr"/>
+      <c r="B207" s="2" t="n">
+        <v>45224</v>
+      </c>
       <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr"/>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
+      <c r="D207" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="E207" t="n">
+        <v>896</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F208"/>
+  <dimension ref="A1:F209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4555,7 +4555,9 @@
       <c r="B207" s="2" t="n">
         <v>45224</v>
       </c>
-      <c r="C207" t="inlineStr"/>
+      <c r="C207" t="n">
+        <v>1983.3</v>
+      </c>
       <c r="D207" t="n">
         <v>22.81</v>
       </c>
@@ -4570,11 +4572,31 @@
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="B208" t="inlineStr"/>
-      <c r="C208" t="inlineStr"/>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
+      <c r="B208" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1975</v>
+      </c>
+      <c r="D208" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="E208" t="n">
+        <v>912</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F209"/>
+  <dimension ref="A1:F210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4592,11 +4592,31 @@
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="B209" t="inlineStr"/>
-      <c r="C209" t="inlineStr"/>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
+      <c r="B209" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1982.9</v>
+      </c>
+      <c r="D209" t="n">
+        <v>22.755</v>
+      </c>
+      <c r="E209" t="n">
+        <v>903</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F210"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4612,11 +4612,27 @@
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="B210" t="inlineStr"/>
-      <c r="C210" t="inlineStr"/>
-      <c r="D210" t="inlineStr"/>
+      <c r="B210" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1997.6</v>
+      </c>
+      <c r="D210" t="n">
+        <v>23.15</v>
+      </c>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F211"/>
+  <dimension ref="A1:F212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4621,18 +4621,38 @@
       <c r="D210" t="n">
         <v>23.15</v>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
+      <c r="E210" t="n">
+        <v>927</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1146</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="B211" t="inlineStr"/>
-      <c r="C211" t="inlineStr"/>
-      <c r="D211" t="inlineStr"/>
+      <c r="B211" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1996.9</v>
+      </c>
+      <c r="D211" t="n">
+        <v>23.2</v>
+      </c>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F212"/>
+  <dimension ref="A1:F213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4641,18 +4641,38 @@
       <c r="D211" t="n">
         <v>23.2</v>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
+      <c r="E211" t="n">
+        <v>940</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1136</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="B212" t="inlineStr"/>
-      <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr"/>
+      <c r="B212" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1986.35</v>
+      </c>
+      <c r="D212" t="n">
+        <v>22.67</v>
+      </c>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F213"/>
+  <dimension ref="A1:F214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4661,18 +4661,38 @@
       <c r="D212" t="n">
         <v>22.67</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
+      <c r="E212" t="n">
+        <v>929</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1129</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="B213" t="inlineStr"/>
-      <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr"/>
+      <c r="B213" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1983.6</v>
+      </c>
+      <c r="D213" t="n">
+        <v>23.035</v>
+      </c>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F214"/>
+  <dimension ref="A1:F215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4681,18 +4681,38 @@
       <c r="D213" t="n">
         <v>23.035</v>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
+      <c r="E213" t="n">
+        <v>921</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1117</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="B214" t="inlineStr"/>
-      <c r="C214" t="inlineStr"/>
-      <c r="D214" t="inlineStr"/>
+      <c r="B214" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1994.45</v>
+      </c>
+      <c r="D214" t="n">
+        <v>22.64</v>
+      </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F215"/>
+  <dimension ref="A1:F216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4701,18 +4701,42 @@
       <c r="D214" t="n">
         <v>22.64</v>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
+      <c r="E214" t="n">
+        <v>931</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1110</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="B215" t="inlineStr"/>
-      <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr"/>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
+      <c r="B215" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1984.6</v>
+      </c>
+      <c r="D215" t="n">
+        <v>23.21</v>
+      </c>
+      <c r="E215" t="n">
+        <v>927</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr"/>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F216"/>
+  <dimension ref="A1:F217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4732,11 +4732,31 @@
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="B216" t="inlineStr"/>
-      <c r="C216" t="inlineStr"/>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
+      <c r="B216" s="2" t="n">
+        <v>45237</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1960.7</v>
+      </c>
+      <c r="D216" t="n">
+        <v>22.535</v>
+      </c>
+      <c r="E216" t="n">
+        <v>899</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F217"/>
+  <dimension ref="A1:F218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4752,11 +4752,31 @@
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="B217" t="inlineStr"/>
-      <c r="C217" t="inlineStr"/>
-      <c r="D217" t="inlineStr"/>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
+      <c r="B217" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1959.35</v>
+      </c>
+      <c r="D217" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="E217" t="n">
+        <v>880</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F218"/>
+  <dimension ref="A1:F219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4772,11 +4772,27 @@
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="B218" t="inlineStr"/>
-      <c r="C218" t="inlineStr"/>
-      <c r="D218" t="inlineStr"/>
+      <c r="B218" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1957.45</v>
+      </c>
+      <c r="D218" t="n">
+        <v>22.55</v>
+      </c>
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr"/>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F219"/>
+  <dimension ref="A1:F220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4788,11 +4788,31 @@
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="B219" t="inlineStr"/>
-      <c r="C219" t="inlineStr"/>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
+      <c r="B219" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1941.65</v>
+      </c>
+      <c r="D219" t="n">
+        <v>22.495</v>
+      </c>
+      <c r="E219" t="n">
+        <v>853</v>
+      </c>
+      <c r="F219" t="n">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr"/>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F220"/>
+  <dimension ref="A1:F221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4446,7 +4446,9 @@
       <c r="E201" t="n">
         <v>895</v>
       </c>
-      <c r="F201" t="inlineStr"/>
+      <c r="F201" t="n">
+        <v>1135</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -4781,8 +4783,12 @@
       <c r="D218" t="n">
         <v>22.55</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
+      <c r="E218" t="n">
+        <v>868</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1025</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -4808,11 +4814,31 @@
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="B220" t="inlineStr"/>
-      <c r="C220" t="inlineStr"/>
-      <c r="D220" t="inlineStr"/>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
+      <c r="B220" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1931.15</v>
+      </c>
+      <c r="D220" t="n">
+        <v>22.075</v>
+      </c>
+      <c r="E220" t="n">
+        <v>850</v>
+      </c>
+      <c r="F220" t="n">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F221"/>
+  <dimension ref="A1:F222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4834,11 +4834,29 @@
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="B221" t="inlineStr"/>
+      <c r="B221" s="2" t="n">
+        <v>45244</v>
+      </c>
       <c r="C221" t="inlineStr"/>
-      <c r="D221" t="inlineStr"/>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
+      <c r="D221" t="n">
+        <v>22.35</v>
+      </c>
+      <c r="E221" t="n">
+        <v>877</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F222"/>
+  <dimension ref="A1:F223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4837,7 +4837,9 @@
       <c r="B221" s="2" t="n">
         <v>45244</v>
       </c>
-      <c r="C221" t="inlineStr"/>
+      <c r="C221" t="n">
+        <v>1969.05</v>
+      </c>
       <c r="D221" t="n">
         <v>22.35</v>
       </c>
@@ -4852,11 +4854,31 @@
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="B222" t="inlineStr"/>
-      <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
+      <c r="B222" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1958.2</v>
+      </c>
+      <c r="D222" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="E222" t="n">
+        <v>897</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr"/>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F223"/>
+  <dimension ref="A1:F224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4874,11 +4874,31 @@
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="B223" t="inlineStr"/>
-      <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr"/>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
+      <c r="B223" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1980.1</v>
+      </c>
+      <c r="D223" t="n">
+        <v>23.67</v>
+      </c>
+      <c r="E223" t="n">
+        <v>900</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr"/>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F224"/>
+  <dimension ref="A1:F225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4894,11 +4894,31 @@
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="B224" t="inlineStr"/>
-      <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr"/>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
+      <c r="B224" s="2" t="n">
+        <v>45247</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1981.05</v>
+      </c>
+      <c r="D224" t="n">
+        <v>23.995</v>
+      </c>
+      <c r="E224" t="n">
+        <v>901</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr"/>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F225"/>
+  <dimension ref="A1:F226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4914,11 +4914,31 @@
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="B225" t="inlineStr"/>
-      <c r="C225" t="inlineStr"/>
-      <c r="D225" t="inlineStr"/>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
+      <c r="B225" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1968.7</v>
+      </c>
+      <c r="D225" t="n">
+        <v>23.385</v>
+      </c>
+      <c r="E225" t="n">
+        <v>899</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr"/>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F226"/>
+  <dimension ref="A1:F227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4934,11 +4934,31 @@
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="B226" t="inlineStr"/>
-      <c r="C226" t="inlineStr"/>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
+      <c r="B226" s="2" t="n">
+        <v>45251</v>
+      </c>
+      <c r="C226" t="n">
+        <v>2006.6</v>
+      </c>
+      <c r="D226" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="E226" t="n">
+        <v>931</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr"/>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F228"/>
+  <dimension ref="A1:F229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4963,7 +4963,9 @@
       <c r="D227" t="n">
         <v>23.835</v>
       </c>
-      <c r="E227" t="inlineStr"/>
+      <c r="E227" t="n">
+        <v>931</v>
+      </c>
       <c r="F227" t="n">
         <v>1066</v>
       </c>
@@ -4972,11 +4974,31 @@
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="B228" t="inlineStr"/>
-      <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr"/>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
+      <c r="B228" s="2" t="n">
+        <v>45253</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1992.85</v>
+      </c>
+      <c r="D228" t="n">
+        <v>23.655</v>
+      </c>
+      <c r="E228" t="n">
+        <v>921</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:F230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4994,11 +4994,31 @@
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="B229" t="inlineStr"/>
-      <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr"/>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
+      <c r="B229" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2000.85</v>
+      </c>
+      <c r="D229" t="n">
+        <v>23.705</v>
+      </c>
+      <c r="E229" t="n">
+        <v>916</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr"/>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F230"/>
+  <dimension ref="A1:F231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5014,11 +5014,31 @@
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="B230" t="inlineStr"/>
-      <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr"/>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
+      <c r="B230" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="C230" t="n">
+        <v>2013.7</v>
+      </c>
+      <c r="D230" t="n">
+        <v>24.755</v>
+      </c>
+      <c r="E230" t="n">
+        <v>924</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr"/>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F231"/>
+  <dimension ref="A1:F232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5034,11 +5034,31 @@
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="B231" t="inlineStr"/>
-      <c r="C231" t="inlineStr"/>
-      <c r="D231" t="inlineStr"/>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
+      <c r="B231" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="C231" t="n">
+        <v>2025.65</v>
+      </c>
+      <c r="D231" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="E231" t="n">
+        <v>928</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr"/>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F232"/>
+  <dimension ref="A1:F233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5054,11 +5054,31 @@
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="B232" t="inlineStr"/>
-      <c r="C232" t="inlineStr"/>
-      <c r="D232" t="inlineStr"/>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
+      <c r="B232" s="2" t="n">
+        <v>45259</v>
+      </c>
+      <c r="C232" t="n">
+        <v>2046.95</v>
+      </c>
+      <c r="D232" t="n">
+        <v>24.965</v>
+      </c>
+      <c r="E232" t="n">
+        <v>932</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr"/>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F233"/>
+  <dimension ref="A1:F234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5074,11 +5074,31 @@
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="B233" t="inlineStr"/>
-      <c r="C233" t="inlineStr"/>
-      <c r="D233" t="inlineStr"/>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
+      <c r="B233" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2035.45</v>
+      </c>
+      <c r="D233" t="n">
+        <v>25.02</v>
+      </c>
+      <c r="E233" t="n">
+        <v>937</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F234"/>
+  <dimension ref="A1:F235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5094,11 +5094,31 @@
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="B234" t="inlineStr"/>
-      <c r="C234" t="inlineStr"/>
-      <c r="D234" t="inlineStr"/>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
+      <c r="B234" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C234" t="n">
+        <v>2045.4</v>
+      </c>
+      <c r="D234" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="E234" t="n">
+        <v>929</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr"/>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F235"/>
+  <dimension ref="A1:F236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5114,11 +5114,31 @@
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B235" t="inlineStr"/>
-      <c r="C235" t="inlineStr"/>
-      <c r="D235" t="inlineStr"/>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
+      <c r="B235" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="C235" t="n">
+        <v>2049.05</v>
+      </c>
+      <c r="D235" t="n">
+        <v>25.165</v>
+      </c>
+      <c r="E235" t="n">
+        <v>930</v>
+      </c>
+      <c r="F235" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F236"/>
+  <dimension ref="A1:F237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5134,11 +5134,31 @@
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="B236" t="inlineStr"/>
-      <c r="C236" t="inlineStr"/>
-      <c r="D236" t="inlineStr"/>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
+      <c r="B236" s="2" t="n">
+        <v>45265</v>
+      </c>
+      <c r="C236" t="n">
+        <v>2023.35</v>
+      </c>
+      <c r="D236" t="n">
+        <v>24.27</v>
+      </c>
+      <c r="E236" t="n">
+        <v>908</v>
+      </c>
+      <c r="F236" t="n">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr"/>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F237"/>
+  <dimension ref="A1:F238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5154,11 +5154,31 @@
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="B237" t="inlineStr"/>
-      <c r="C237" t="inlineStr"/>
-      <c r="D237" t="inlineStr"/>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
+      <c r="B237" s="2" t="n">
+        <v>45266</v>
+      </c>
+      <c r="C237" t="n">
+        <v>2026.4</v>
+      </c>
+      <c r="D237" t="n">
+        <v>24.095</v>
+      </c>
+      <c r="E237" t="n">
+        <v>905</v>
+      </c>
+      <c r="F237" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr"/>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F238"/>
+  <dimension ref="A1:F239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5174,11 +5174,31 @@
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="B238" t="inlineStr"/>
-      <c r="C238" t="inlineStr"/>
-      <c r="D238" t="inlineStr"/>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
+      <c r="B238" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="C238" t="n">
+        <v>2026.9</v>
+      </c>
+      <c r="D238" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="E238" t="n">
+        <v>909</v>
+      </c>
+      <c r="F238" t="n">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr"/>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F239"/>
+  <dimension ref="A1:F240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5194,11 +5194,31 @@
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="B239" t="inlineStr"/>
-      <c r="C239" t="inlineStr"/>
-      <c r="D239" t="inlineStr"/>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
+      <c r="B239" s="2" t="n">
+        <v>45268</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2008.1</v>
+      </c>
+      <c r="D239" t="n">
+        <v>23.79</v>
+      </c>
+      <c r="E239" t="n">
+        <v>917</v>
+      </c>
+      <c r="F239" t="n">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr"/>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F240"/>
+  <dimension ref="A1:F241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5214,11 +5214,31 @@
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="B240" t="inlineStr"/>
-      <c r="C240" t="inlineStr"/>
-      <c r="D240" t="inlineStr"/>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
+      <c r="B240" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1986.65</v>
+      </c>
+      <c r="D240" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="E240" t="n">
+        <v>926</v>
+      </c>
+      <c r="F240" t="n">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr"/>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F241"/>
+  <dimension ref="A1:F242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5234,11 +5234,31 @@
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="B241" t="inlineStr"/>
-      <c r="C241" t="inlineStr"/>
-      <c r="D241" t="inlineStr"/>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
+      <c r="B241" s="2" t="n">
+        <v>45272</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1980.85</v>
+      </c>
+      <c r="D241" t="n">
+        <v>22.955</v>
+      </c>
+      <c r="E241" t="n">
+        <v>921</v>
+      </c>
+      <c r="F241" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr"/>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F242"/>
+  <dimension ref="A1:F243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5254,11 +5254,31 @@
       <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="B242" t="inlineStr"/>
-      <c r="C242" t="inlineStr"/>
-      <c r="D242" t="inlineStr"/>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
+      <c r="B242" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1982.5</v>
+      </c>
+      <c r="D242" t="n">
+        <v>22.725</v>
+      </c>
+      <c r="E242" t="n">
+        <v>923</v>
+      </c>
+      <c r="F242" t="n">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr"/>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F243"/>
+  <dimension ref="A1:F244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5274,11 +5274,31 @@
       <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="B243" t="inlineStr"/>
-      <c r="C243" t="inlineStr"/>
-      <c r="D243" t="inlineStr"/>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
+      <c r="B243" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="C243" t="n">
+        <v>2046.1</v>
+      </c>
+      <c r="D243" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="E243" t="n">
+        <v>944</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr"/>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F244"/>
+  <dimension ref="A1:F245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5294,11 +5294,31 @@
       <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="B244" t="inlineStr"/>
-      <c r="C244" t="inlineStr"/>
-      <c r="D244" t="inlineStr"/>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
+      <c r="B244" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="C244" t="n">
+        <v>2032.3</v>
+      </c>
+      <c r="D244" t="n">
+        <v>24.19</v>
+      </c>
+      <c r="E244" t="n">
+        <v>946</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr"/>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -1,5326 +1,5039 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="kitco_metall" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="kitco_metall" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palladium</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F245"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A234" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I243" activeCellId="0" sqref="I243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.14"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Gold</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Platinum</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Palladium</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>44929</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>1843.25</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="0" t="n">
         <v>24.295</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="0" t="n">
         <v>1082</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="0" t="n">
         <v>1795</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>44930</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>1857.3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="0" t="n">
         <v>24.29</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="0" t="n">
         <v>1080</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="0" t="n">
         <v>1736</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>44931</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>1834</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="0" t="n">
         <v>23.41</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="0" t="n">
         <v>1062</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="0" t="n">
         <v>1783</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>44932</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>1852.2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="0" t="n">
         <v>23.455</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="0" t="n">
         <v>1073</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="0" t="n">
         <v>1784</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>44935</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>1878.85</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="0" t="n">
         <v>23.85</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="0" t="n">
         <v>1092</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="0" t="n">
         <v>1793</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>44936</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>1878.65</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="0" t="n">
         <v>23.515</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="0" t="n">
         <v>1084</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="0" t="n">
         <v>1802</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>44937</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="0" t="n">
         <v>1872.35</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="0" t="n">
         <v>23.87</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="0" t="n">
         <v>1764</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>44938</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="0" t="n">
         <v>1882.55</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="0" t="n">
         <v>23.7</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="0" t="n">
         <v>1082</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="0" t="n">
         <v>1777</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>44939</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="0" t="n">
         <v>1907.15</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="0" t="n">
         <v>23.675</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="0" t="n">
         <v>1057</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="0" t="n">
         <v>1739</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>44942</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="0" t="n">
         <v>1917</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="0" t="n">
         <v>24.17</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="0" t="n">
         <v>1059</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="0" t="n">
         <v>1755</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>44943</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="0" t="n">
         <v>1913.8</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="0" t="n">
         <v>24.1</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="0" t="n">
         <v>1053</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="0" t="n">
         <v>1728</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>44944</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="0" t="n">
         <v>1920.7</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="0" t="n">
         <v>24.185</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="0" t="n">
         <v>1068</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="0" t="n">
         <v>1778</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>44945</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="0" t="n">
         <v>1918.6</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="0" t="n">
         <v>23.445</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="0" t="n">
         <v>1025</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="0" t="n">
         <v>1683</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>44946</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="0" t="n">
         <v>1924.9</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="0" t="n">
         <v>23.87</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="0" t="n">
         <v>1024</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="0" t="n">
         <v>1731</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>44949</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="0" t="n">
         <v>1914.85</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="0" t="n">
         <v>23.675</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="0" t="n">
         <v>1037</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="0" t="n">
         <v>1708</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>44950</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="0" t="n">
         <v>1920.75</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="0" t="n">
         <v>23.71</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="0" t="n">
         <v>1048</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="0" t="n">
         <v>1704</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>44951</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="0" t="n">
         <v>1930.8</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="0" t="n">
         <v>23.43</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="0" t="n">
         <v>1039</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="0" t="n">
         <v>1732</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>44952</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="0" t="n">
         <v>1932.45</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="0" t="n">
         <v>23.71</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="0" t="n">
         <v>1032</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="0" t="n">
         <v>1697</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>44953</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="0" t="n">
         <v>1923.05</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="0" t="n">
         <v>23.725</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="0" t="n">
         <v>1010</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="0" t="n">
         <v>1642</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>44956</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="0" t="n">
         <v>1924.1</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="0" t="n">
         <v>23.635</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="0" t="n">
         <v>1013</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="0" t="n">
         <v>1630</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>44957</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="0" t="n">
         <v>1923.9</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="0" t="n">
         <v>22.995</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="0" t="n">
         <v>1004</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="0" t="n">
         <v>1618</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="0" t="n">
         <v>1925.9</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="0" t="n">
         <v>23.495</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="0" t="n">
         <v>1008</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="0" t="n">
         <v>1686</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>44959</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="0" t="n">
         <v>1921.65</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="0" t="n">
         <v>24.435</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="0" t="n">
         <v>1032</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" s="0" t="n">
         <v>1680</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>44960</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="0" t="n">
         <v>1875.35</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="0" t="n">
         <v>23.49</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="0" t="n">
         <v>1005</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="0" t="n">
         <v>1625</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>44963</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="0" t="n">
         <v>1873.25</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="0" t="n">
         <v>22.38</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="0" t="n">
         <v>980</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="0" t="n">
         <v>1572</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>44964</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="0" t="n">
         <v>1870.7</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="0" t="n">
         <v>22.205</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27" s="0" t="n">
         <v>970</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" s="0" t="n">
         <v>1636</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>44965</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="0" t="n">
         <v>1872.65</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="0" t="n">
         <v>22.45</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" s="0" t="n">
         <v>985</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" s="0" t="n">
         <v>1660</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>44966</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="0" t="n">
         <v>1879.1</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="0" t="n">
         <v>22.465</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29" s="0" t="n">
         <v>972</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" s="0" t="n">
         <v>1647</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>44967</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="0" t="n">
         <v>1859.7</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="0" t="n">
         <v>22.115</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30" s="0" t="n">
         <v>966</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" s="0" t="n">
         <v>1553</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>44970</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="0" t="n">
         <v>1856.05</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="0" t="n">
         <v>21.985</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31" s="0" t="n">
         <v>944</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31" s="0" t="n">
         <v>1555</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>44971</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="0" t="n">
         <v>1863.7</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="0" t="n">
         <v>21.71</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32" s="0" t="n">
         <v>952</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32" s="0" t="n">
         <v>1580</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>44972</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="0" t="n">
         <v>1831.2</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="0" t="n">
         <v>21.47</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33" s="0" t="n">
         <v>926</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33" s="0" t="n">
         <v>1448</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>44973</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="0" t="n">
         <v>1828.95</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="0" t="n">
         <v>21.565</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34" s="0" t="n">
         <v>912</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34" s="0" t="n">
         <v>1468</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>44974</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="0" t="n">
         <v>1833.95</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="0" t="n">
         <v>21.215</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35" s="0" t="n">
         <v>913</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35" s="0" t="n">
         <v>1481</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>44977</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="0" t="n">
         <v>1845.8</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="0" t="n">
         <v>21.71</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36" s="0" t="n">
         <v>936</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36" s="0" t="n">
         <v>1515</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>44978</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" s="0" t="n">
         <v>1836.85</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="0" t="n">
         <v>21.775</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37" s="0" t="n">
         <v>934</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37" s="0" t="n">
         <v>1525</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>44979</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="0" t="n">
         <v>1835.75</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="0" t="n">
         <v>21.86</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38" s="0" t="n">
         <v>956</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38" s="0" t="n">
         <v>1513</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>44980</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="0" t="n">
         <v>1826.05</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="0" t="n">
         <v>21.52</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39" s="0" t="n">
         <v>957</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39" s="0" t="n">
         <v>1462</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>44981</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" s="0" t="n">
         <v>1810.95</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="0" t="n">
         <v>21.09</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40" s="0" t="n">
         <v>928</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40" s="0" t="n">
         <v>1394</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>44984</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" s="0" t="n">
         <v>1818.65</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="0" t="n">
         <v>20.73</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41" s="0" t="n">
         <v>950</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41" s="0" t="n">
         <v>1465</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>44985</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="0" t="n">
         <v>1824.6</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="0" t="n">
         <v>20.525</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42" s="0" t="n">
         <v>951</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42" s="0" t="n">
         <v>1413</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>44986</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="0" t="n">
         <v>1841.25</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="0" t="n">
         <v>20.995</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43" s="0" t="n">
         <v>960</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43" s="0" t="n">
         <v>1416</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>44987</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" s="0" t="n">
         <v>1836.2</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="0" t="n">
         <v>20.8</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44" s="0" t="n">
         <v>953</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44" s="0" t="n">
         <v>1421</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>44988</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" s="0" t="n">
         <v>1841.15</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="0" t="n">
         <v>21.09</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45" s="0" t="n">
         <v>978</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45" s="0" t="n">
         <v>1451</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>44991</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" s="0" t="n">
         <v>1849.05</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="0" t="n">
         <v>21.085</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46" s="0" t="n">
         <v>965</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46" s="0" t="n">
         <v>1420</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>44992</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" s="0" t="n">
         <v>1826.55</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="0" t="n">
         <v>20.91</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47" s="0" t="n">
         <v>957</v>
       </c>
-      <c r="F47" t="inlineStr"/>
-    </row>
-    <row r="48">
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>44993</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" s="0" t="n">
         <v>1816.3</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="0" t="n">
         <v>20.105</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48" s="0" t="n">
         <v>944</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48" s="0" t="n">
         <v>1407</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>44994</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" s="0" t="n">
         <v>1831.4</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="0" t="n">
         <v>20.12</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49" s="0" t="n">
         <v>953</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49" s="0" t="n">
         <v>1361</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>44995</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" s="0" t="n">
         <v>1861.25</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="0" t="n">
         <v>20.09</v>
       </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="n">
+      <c r="F50" s="0" t="n">
         <v>1389</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
         <v>44998</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" s="0" t="n">
         <v>1911.3</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="0" t="n">
         <v>21.095</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51" s="0" t="n">
         <v>988</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51" s="0" t="n">
         <v>1432</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>44999</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52" s="0" t="n">
         <v>1907.55</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="0" t="n">
         <v>21.64</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52" s="0" t="n">
         <v>985</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52" s="0" t="n">
         <v>1495</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
         <v>45000</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53" s="0" t="n">
         <v>1923.4</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="0" t="n">
         <v>22.095</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53" s="0" t="n">
         <v>965</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53" s="0" t="n">
         <v>1437</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
         <v>45001</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" s="0" t="n">
         <v>1922.75</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="0" t="n">
         <v>22.01</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54" s="0" t="n">
         <v>964</v>
       </c>
-      <c r="F54" t="inlineStr"/>
-    </row>
-    <row r="55">
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
         <v>45002</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55" s="0" t="n">
         <v>1962.1</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="0" t="n">
         <v>21.885</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55" s="0" t="n">
         <v>979</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55" s="0" t="n">
         <v>1389</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
         <v>45005</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56" s="0" t="n">
         <v>1969.35</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="0" t="n">
         <v>22.495</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56" s="0" t="n">
         <v>985</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56" s="0" t="n">
         <v>1398</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
         <v>45006</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" s="0" t="n">
         <v>1952.5</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="0" t="n">
         <v>22.465</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57" s="0" t="n">
         <v>983</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57" s="0" t="n">
         <v>1406</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
         <v>45007</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" s="0" t="n">
         <v>1949.35</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="0" t="n">
         <v>22.345</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58" s="0" t="n">
         <v>985</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58" s="0" t="n">
         <v>1428</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
         <v>45008</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59" s="0" t="n">
         <v>1977.95</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="0" t="n">
         <v>22.9</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59" s="0" t="n">
         <v>989</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59" s="0" t="n">
         <v>1435</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
         <v>45009</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60" s="0" t="n">
         <v>1993.8</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="0" t="n">
         <v>23.17</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60" s="0" t="n">
         <v>976</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60" s="0" t="n">
         <v>1418</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
         <v>45012</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" s="0" t="n">
         <v>1946.25</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="0" t="n">
         <v>22.89</v>
       </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="n">
+      <c r="F61" s="0" t="n">
         <v>1406</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
         <v>45013</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62" s="0" t="n">
         <v>1962.85</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62" s="0" t="n">
         <v>23.045</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62" s="0" t="n">
         <v>966</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62" s="0" t="n">
         <v>1416</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
         <v>45014</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" s="0" t="n">
         <v>1965</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" s="0" t="n">
         <v>23.255</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63" s="0" t="n">
         <v>962</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63" s="0" t="n">
         <v>1431</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
         <v>45015</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64" s="0" t="n">
         <v>1965.8</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="0" t="n">
         <v>23.71</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64" s="0" t="n">
         <v>1495</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
         <v>45016</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65" s="0" t="n">
         <v>1979.7</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65" s="0" t="n">
         <v>23.885</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65" s="0" t="n">
         <v>981</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65" s="0" t="n">
         <v>1490</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
         <v>45019</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" s="0" t="n">
         <v>1983.3</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66" s="0" t="n">
         <v>23.925</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66" s="0" t="n">
         <v>990</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66" s="0" t="n">
         <v>1482</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
         <v>45020</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67" s="0" t="n">
         <v>2009.6</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67" s="0" t="n">
         <v>24.015</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67" s="0" t="n">
         <v>1011</v>
       </c>
-      <c r="F67" t="inlineStr"/>
-    </row>
-    <row r="68">
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
         <v>45021</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68" s="0" t="n">
         <v>2030.85</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68" s="0" t="n">
         <v>24.74</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68" s="0" t="n">
         <v>1016</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68" s="0" t="n">
         <v>1467</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
         <v>45022</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69" s="0" t="n">
         <v>2001.9</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69" s="0" t="n">
         <v>24.935</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69" s="0" t="n">
         <v>999</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69" s="0" t="n">
         <v>1445</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
         <v>45027</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" s="0" t="n">
         <v>2002.7</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70" s="0" t="n">
         <v>25.055</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70" s="0" t="n">
         <v>1001</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70" s="0" t="n">
         <v>1432</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
         <v>45028</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71" s="0" t="n">
         <v>2008.2</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71" s="0" t="n">
         <v>25.145</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71" s="0" t="n">
         <v>1452</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
         <v>45029</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" s="0" t="n">
         <v>2048.45</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72" s="0" t="n">
         <v>25.62</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72" s="0" t="n">
         <v>1036</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72" s="0" t="n">
         <v>1482</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
         <v>45030</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73" s="0" t="n">
         <v>2019.4</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73" s="0" t="n">
         <v>26.025</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73" s="0" t="n">
         <v>1043</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73" s="0" t="n">
         <v>1484</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
         <v>45033</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74" s="0" t="n">
         <v>1995.55</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74" s="0" t="n">
         <v>25.39</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74" s="0" t="n">
         <v>1055</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74" s="0" t="n">
         <v>1520</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
         <v>45034</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75" s="0" t="n">
         <v>1999.4</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" s="0" t="n">
         <v>25.09</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75" s="0" t="n">
         <v>1073</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75" s="0" t="n">
         <v>1628</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
         <v>45035</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76" s="0" t="n">
         <v>1990.55</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76" s="0" t="n">
         <v>24.75</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76" s="0" t="n">
         <v>1075</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76" s="0" t="n">
         <v>1609</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
         <v>45036</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77" s="0" t="n">
         <v>2007.15</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" s="0" t="n">
         <v>25.4</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77" s="0" t="n">
         <v>1094</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77" s="0" t="n">
         <v>1618</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
         <v>45037</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78" s="0" t="n">
         <v>1973.65</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="0" t="n">
         <v>25.155</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78" s="0" t="n">
         <v>1128</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78" s="0" t="n">
         <v>1628</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
         <v>45040</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79" s="0" t="n">
         <v>1978.2</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" s="0" t="n">
         <v>25.03</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79" s="0" t="n">
         <v>1091</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79" s="0" t="n">
         <v>1545</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
         <v>45041</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80" s="0" t="n">
         <v>1987.4</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="0" t="n">
         <v>24.895</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80" s="0" t="n">
         <v>1080</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80" s="0" t="n">
         <v>1494</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" s="2" t="n">
         <v>45042</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81" s="0" t="n">
         <v>2003</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" s="0" t="n">
         <v>24.85</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81" s="0" t="n">
         <v>1093</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81" s="0" t="n">
         <v>1509</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" s="2" t="n">
         <v>45043</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82" s="0" t="n">
         <v>1985.65</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82" s="0" t="n">
         <v>25.145</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82" s="0" t="n">
         <v>1085</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82" s="0" t="n">
         <v>1496</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" s="2" t="n">
         <v>45044</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83" s="0" t="n">
         <v>1982.55</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83" s="0" t="n">
         <v>24.765</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83" s="0" t="n">
         <v>1074</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83" s="0" t="n">
         <v>1497</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" s="2" t="n">
         <v>45048</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84" s="0" t="n">
         <v>1995.4</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84" s="0" t="n">
         <v>24.77</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84" s="0" t="n">
         <v>1049</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84" s="0" t="n">
         <v>1453</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" s="2" t="n">
         <v>45049</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85" s="0" t="n">
         <v>2014.3</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85" s="0" t="n">
         <v>25.25</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85" s="0" t="n">
         <v>1060</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85" s="0" t="n">
         <v>1441</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" s="2" t="n">
         <v>45050</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86" s="0" t="n">
         <v>2044.7</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" s="0" t="n">
         <v>25.625</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86" s="0" t="n">
         <v>1053</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86" s="0" t="n">
         <v>1426</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" s="2" t="n">
         <v>45051</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87" s="0" t="n">
         <v>2000.95</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87" s="0" t="n">
         <v>25.84</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87" s="0" t="n">
         <v>1044</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87" s="0" t="n">
         <v>1455</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" s="2" t="n">
         <v>45055</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88" s="0" t="n">
         <v>2030.2</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88" s="0" t="n">
         <v>25.565</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88" s="0" t="n">
         <v>1085</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88" s="0" t="n">
         <v>1570</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" s="2" t="n">
         <v>45056</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89" s="0" t="n">
         <v>2037.15</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89" s="0" t="n">
         <v>25.52</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89" s="0" t="n">
         <v>1123</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89" s="0" t="n">
         <v>1620</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" s="2" t="n">
         <v>45057</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90" s="0" t="n">
         <v>2015.95</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" s="0" t="n">
         <v>24.885</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90" s="0" t="n">
         <v>1119</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90" s="0" t="n">
         <v>1607</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" s="2" t="n">
         <v>45058</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91" s="0" t="n">
         <v>2019.9</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91" s="0" t="n">
         <v>23.855</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91" s="0" t="n">
         <v>1081</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91" s="0" t="n">
         <v>1546</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" s="2" t="n">
         <v>45061</v>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="n">
+      <c r="D92" s="0" t="n">
         <v>23.89</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92" s="0" t="n">
         <v>1061</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92" s="0" t="n">
         <v>1534</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93" s="0" t="n">
         <v>2007.45</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93" s="0" t="n">
         <v>23.785</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93" s="0" t="n">
         <v>1070</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93" s="0" t="n">
         <v>1521</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94" s="0" t="n">
         <v>1974.4</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" s="0" t="n">
         <v>23.685</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94" s="0" t="n">
         <v>1075</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94" s="0" t="n">
         <v>1490</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" s="2" t="n">
         <v>45064</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95" s="0" t="n">
         <v>1960.3</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="0" t="n">
         <v>23.52</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95" s="0" t="n">
         <v>1067</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95" s="0" t="n">
         <v>1464</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" s="2" t="n">
         <v>45065</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" s="0" t="n">
         <v>1961.6</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" s="0" t="n">
         <v>23.66</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96" s="0" t="n">
         <v>1071</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96" s="0" t="n">
         <v>1518</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" s="2" t="n">
         <v>45068</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97" s="0" t="n">
         <v>1970.3</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97" s="0" t="n">
         <v>23.85</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97" s="0" t="n">
         <v>1074</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97" s="0" t="n">
         <v>1513</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" s="2" t="n">
         <v>45069</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98" s="0" t="n">
         <v>1969.2</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98" s="0" t="n">
         <v>23.16</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98" s="0" t="n">
         <v>1066</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98" s="0" t="n">
         <v>1460</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" s="2" t="n">
         <v>45070</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99" s="0" t="n">
         <v>1969.65</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99" s="0" t="n">
         <v>23.415</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99" s="0" t="n">
         <v>1042</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99" s="0" t="n">
         <v>1425</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" s="2" t="n">
         <v>45071</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100" s="0" t="n">
         <v>1948.25</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100" s="0" t="n">
         <v>23.005</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100" s="0" t="n">
         <v>1023</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100" s="0" t="n">
         <v>1414</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" s="2" t="n">
         <v>45072</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101" s="0" t="n">
         <v>1947.9</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101" s="0" t="n">
         <v>23.145</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101" s="0" t="n">
         <v>1025</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101" s="0" t="n">
         <v>1442</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" s="2" t="n">
         <v>45076</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102" s="0" t="n">
         <v>1952.45</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102" s="0" t="n">
         <v>23.255</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102" s="0" t="n">
         <v>1027</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102" s="0" t="n">
         <v>1417</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" s="2" t="n">
         <v>45077</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103" s="0" t="n">
         <v>1964.4</v>
       </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="n">
+      <c r="E103" s="0" t="n">
         <v>1003</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103" s="0" t="n">
         <v>1390</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" s="2" t="n">
         <v>45078</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104" s="0" t="n">
         <v>1974.35</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104" s="0" t="n">
         <v>23.49</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104" s="0" t="n">
         <v>1004</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104" s="0" t="n">
         <v>1372</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" s="2" t="n">
         <v>45079</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105" s="0" t="n">
         <v>1963.25</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105" s="0" t="n">
         <v>23.885</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105" s="0" t="n">
         <v>1007</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105" s="0" t="n">
         <v>1419</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" s="2" t="n">
         <v>45082</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106" s="0" t="n">
         <v>1959.65</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106" s="0" t="n">
         <v>23.475</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106" s="0" t="n">
         <v>1017</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106" s="0" t="n">
         <v>1410</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" s="2" t="n">
         <v>45083</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107" s="0" t="n">
         <v>1957.25</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107" s="0" t="n">
         <v>23.645</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107" s="0" t="n">
         <v>1028</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107" s="0" t="n">
         <v>1407</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" s="2" t="n">
         <v>45084</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108" s="0" t="n">
         <v>1967.35</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108" s="0" t="n">
         <v>23.585</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108" s="0" t="n">
         <v>1035</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108" s="0" t="n">
         <v>1411</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" s="2" t="n">
         <v>45085</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109" s="0" t="n">
         <v>1966.4</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109" s="0" t="n">
         <v>23.67</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109" s="0" t="n">
         <v>1381</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" s="2" t="n">
         <v>45086</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110" s="0" t="n">
         <v>1960.3</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110" s="0" t="n">
         <v>24.315</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110" s="0" t="n">
         <v>1001</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110" s="0" t="n">
         <v>1324</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" s="2" t="n">
         <v>45089</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111" s="0" t="n">
         <v>1952.9</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111" s="0" t="n">
         <v>24.21</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111" s="0" t="n">
         <v>993</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111" s="0" t="n">
         <v>1330</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" s="2" t="n">
         <v>45090</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112" s="0" t="n">
         <v>1954.4</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" s="0" t="n">
         <v>24.19</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112" s="0" t="n">
         <v>992</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F112" s="0" t="n">
         <v>1372</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" s="2" t="n">
         <v>45091</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113" s="0" t="n">
         <v>1955.8</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113" s="0" t="n">
         <v>23.825</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113" s="0" t="n">
         <v>978</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113" s="0" t="n">
         <v>1395</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" s="2" t="n">
         <v>45092</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114" s="0" t="n">
         <v>1952.35</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114" s="0" t="n">
         <v>23.405</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114" s="0" t="n">
         <v>979</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F114" s="0" t="n">
         <v>1368</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" s="2" t="n">
         <v>45093</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115" s="0" t="n">
         <v>1959.75</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="0" t="n">
         <v>23.99</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115" s="0" t="n">
         <v>987</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115" s="0" t="n">
         <v>1398</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" s="2" t="n">
         <v>45096</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116" s="0" t="n">
         <v>1951.15</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116" s="0" t="n">
         <v>23.95</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116" s="0" t="n">
         <v>983</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F116" s="0" t="n">
         <v>1393</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" s="2" t="n">
         <v>45097</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117" s="0" t="n">
         <v>1930.45</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117" s="0" t="n">
         <v>23.77</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117" s="0" t="n">
         <v>964</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F117" s="0" t="n">
         <v>1398</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" s="2" t="n">
         <v>45098</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118" s="0" t="n">
         <v>1925.65</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118" s="0" t="n">
         <v>23.075</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118" s="0" t="n">
         <v>949</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118" s="0" t="n">
         <v>1343</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" s="2" t="n">
         <v>45099</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119" s="0" t="n">
         <v>1920.05</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119" s="0" t="n">
         <v>22.62</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119" s="0" t="n">
         <v>938</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F119" s="0" t="n">
         <v>1319</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" s="2" t="n">
         <v>45100</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120" s="0" t="n">
         <v>1930.7</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" s="0" t="n">
         <v>22.34</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120" s="0" t="n">
         <v>924</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F120" s="0" t="n">
         <v>1279</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" s="2" t="n">
         <v>45103</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121" s="0" t="n">
         <v>1922.9</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121" s="0" t="n">
         <v>22.8</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121" s="0" t="n">
         <v>923</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121" s="0" t="n">
         <v>1322</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" s="2" t="n">
         <v>45104</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122" s="0" t="n">
         <v>1918.9</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122" s="0" t="n">
         <v>22.835</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122" s="0" t="n">
         <v>925</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F122" s="0" t="n">
         <v>1315</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" s="2" t="n">
         <v>45105</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123" s="0" t="n">
         <v>1908.4</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123" s="0" t="n">
         <v>22.61</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123" s="0" t="n">
         <v>910</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F123" s="0" t="n">
         <v>1225</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" s="2" t="n">
         <v>45106</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124" s="0" t="n">
         <v>1899.6</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124" s="0" t="n">
         <v>22.83</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F124" s="0" t="n">
         <v>1223</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" s="2" t="n">
         <v>45107</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125" s="0" t="n">
         <v>1912.25</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="0" t="n">
         <v>22.47</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125" s="0" t="n">
         <v>897</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F125" s="0" t="n">
         <v>1254</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" s="2" t="n">
         <v>45110</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126" s="0" t="n">
         <v>1928.75</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126" s="0" t="n">
         <v>22.775</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126" s="0" t="n">
         <v>911</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F126" s="0" t="n">
         <v>1233</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" s="2" t="n">
         <v>45111</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127" s="0" t="n">
         <v>1927.75</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127" s="0" t="n">
         <v>23.005</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127" s="0" t="n">
         <v>918</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F127" s="0" t="n">
         <v>1241</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" s="2" t="n">
         <v>45112</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128" s="0" t="n">
         <v>1924.65</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128" s="0" t="n">
         <v>22.81</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128" s="0" t="n">
         <v>917</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F128" s="0" t="n">
         <v>1246</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" s="2" t="n">
         <v>45113</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129" s="0" t="n">
         <v>1908.8</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129" s="0" t="n">
         <v>23.17</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E129" s="0" t="n">
         <v>906</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F129" s="0" t="n">
         <v>1249</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" s="2" t="n">
         <v>45114</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130" s="0" t="n">
         <v>1922.3</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130" s="0" t="n">
         <v>22.715</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E130" s="0" t="n">
         <v>907</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F130" s="0" t="n">
         <v>1239</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" s="2" t="n">
         <v>45117</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131" s="0" t="n">
         <v>1922.8</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131" s="0" t="n">
         <v>23.04</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131" s="0" t="n">
         <v>912</v>
       </c>
-      <c r="F131" t="n">
+      <c r="F131" s="0" t="n">
         <v>1200</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" s="2" t="n">
         <v>45118</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132" s="0" t="n">
         <v>1933.95</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="0" t="n">
         <v>23.135</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132" s="0" t="n">
         <v>927</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F132" s="0" t="n">
         <v>1236</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" s="2" t="n">
         <v>45119</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133" s="0" t="n">
         <v>1953.3</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" s="0" t="n">
         <v>23.16</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133" s="0" t="n">
         <v>944</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F133" s="0" t="n">
         <v>1279</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" s="2" t="n">
         <v>45120</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134" s="0" t="n">
         <v>1958.05</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134" s="0" t="n">
         <v>24.26</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E134" s="0" t="n">
         <v>969</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F134" s="0" t="n">
         <v>1280</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" s="2" t="n">
         <v>45121</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135" s="0" t="n">
         <v>1953.7</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135" s="0" t="n">
         <v>24.77</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135" s="0" t="n">
         <v>977</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F135" s="0" t="n">
         <v>1267</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" s="2" t="n">
         <v>45124</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136" s="0" t="n">
         <v>1949.6</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136" s="0" t="n">
         <v>24.81</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E136" s="0" t="n">
         <v>971</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F136" s="0" t="n">
         <v>1270</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" s="2" t="n">
         <v>45125</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137" s="0" t="n">
         <v>1975</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137" s="0" t="n">
         <v>24.885</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E137" s="0" t="n">
         <v>983</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F137" s="0" t="n">
         <v>1318</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" s="2" t="n">
         <v>45126</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138" s="0" t="n">
         <v>1975.35</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138" s="0" t="n">
         <v>25.015</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E138" s="0" t="n">
         <v>985</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F138" s="0" t="n">
         <v>1309</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" s="2" t="n">
         <v>45127</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139" s="0" t="n">
         <v>1976.1</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139" s="0" t="n">
         <v>25.175</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E139" s="0" t="n">
         <v>970</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F139" s="0" t="n">
         <v>1297</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" s="2" t="n">
         <v>45128</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140" s="0" t="n">
         <v>1960.6</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140" s="0" t="n">
         <v>24.73</v>
       </c>
-      <c r="E140" t="n">
+      <c r="E140" s="0" t="n">
         <v>961</v>
       </c>
-      <c r="F140" t="n">
+      <c r="F140" s="0" t="n">
         <v>1298</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" s="2" t="n">
         <v>45131</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141" s="0" t="n">
         <v>1960</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141" s="0" t="n">
         <v>24.59</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E141" s="0" t="n">
         <v>962</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F141" s="0" t="n">
         <v>1287</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" s="2" t="n">
         <v>45132</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142" s="0" t="n">
         <v>1958.7</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" s="0" t="n">
         <v>24.555</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E142" s="0" t="n">
         <v>967</v>
       </c>
-      <c r="F142" t="n">
+      <c r="F142" s="0" t="n">
         <v>1290</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" s="2" t="n">
         <v>45133</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143" s="0" t="n">
         <v>1966.3</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143" s="0" t="n">
         <v>24.67</v>
       </c>
-      <c r="E143" t="n">
+      <c r="E143" s="0" t="n">
         <v>960</v>
       </c>
-      <c r="F143" t="n">
+      <c r="F143" s="0" t="n">
         <v>1254</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" s="2" t="n">
         <v>45134</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144" s="0" t="n">
         <v>1945.35</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144" s="0" t="n">
         <v>25.01</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E144" s="0" t="n">
         <v>958</v>
       </c>
-      <c r="F144" t="n">
+      <c r="F144" s="0" t="n">
         <v>1246</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" s="2" t="n">
         <v>45135</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145" s="0" t="n">
         <v>1954.25</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145" s="0" t="n">
         <v>24.225</v>
       </c>
-      <c r="E145" t="n">
+      <c r="E145" s="0" t="n">
         <v>933</v>
       </c>
-      <c r="F145" t="n">
+      <c r="F145" s="0" t="n">
         <v>1241</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" s="2" t="n">
         <v>45138</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146" s="0" t="n">
         <v>1970.65</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146" s="0" t="n">
         <v>24.355</v>
       </c>
-      <c r="E146" t="n">
+      <c r="E146" s="0" t="n">
         <v>949</v>
       </c>
-      <c r="F146" t="n">
+      <c r="F146" s="0" t="n">
         <v>1274</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" s="2" t="n">
         <v>45139</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147" s="0" t="n">
         <v>1947.2</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147" s="0" t="n">
         <v>24.515</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E147" s="0" t="n">
         <v>930</v>
       </c>
-      <c r="F147" t="n">
+      <c r="F147" s="0" t="n">
         <v>1238</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" s="2" t="n">
         <v>45140</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148" s="0" t="n">
         <v>1944.2</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148" s="0" t="n">
         <v>24.41</v>
       </c>
-      <c r="E148" t="n">
+      <c r="E148" s="0" t="n">
         <v>929</v>
       </c>
-      <c r="F148" t="n">
+      <c r="F148" s="0" t="n">
         <v>1244</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" s="2" t="n">
         <v>45141</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149" s="0" t="n">
         <v>1935.65</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149" s="0" t="n">
         <v>23.555</v>
       </c>
-      <c r="E149" t="n">
+      <c r="E149" s="0" t="n">
         <v>921</v>
       </c>
-      <c r="F149" t="n">
+      <c r="F149" s="0" t="n">
         <v>1250</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" s="2" t="n">
         <v>45142</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150" s="0" t="n">
         <v>1942.45</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150" s="0" t="n">
         <v>23.45</v>
       </c>
-      <c r="E150" t="n">
+      <c r="E150" s="0" t="n">
         <v>919</v>
       </c>
-      <c r="F150" t="n">
+      <c r="F150" s="0" t="n">
         <v>1258</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" s="2" t="n">
         <v>45145</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151" s="0" t="n">
         <v>1931.7</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151" s="0" t="n">
         <v>23.395</v>
       </c>
-      <c r="E151" t="n">
+      <c r="E151" s="0" t="n">
         <v>930</v>
       </c>
-      <c r="F151" t="n">
+      <c r="F151" s="0" t="n">
         <v>1261</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" s="2" t="n">
         <v>45146</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152" s="0" t="n">
         <v>1926.4</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152" s="0" t="n">
         <v>23.04</v>
       </c>
-      <c r="E152" t="n">
+      <c r="E152" s="0" t="n">
         <v>906</v>
       </c>
-      <c r="F152" t="n">
+      <c r="F152" s="0" t="n">
         <v>1214</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" s="2" t="n">
         <v>45147</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153" s="0" t="n">
         <v>1922.75</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153" s="0" t="n">
         <v>22.705</v>
       </c>
-      <c r="E153" t="n">
+      <c r="E153" s="0" t="n">
         <v>894</v>
       </c>
-      <c r="F153" t="n">
+      <c r="F153" s="0" t="n">
         <v>1222</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" s="2" t="n">
         <v>45148</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154" s="0" t="n">
         <v>1920.9</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154" s="0" t="n">
         <v>22.8</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E154" s="0" t="n">
         <v>901</v>
       </c>
-      <c r="F154" t="n">
+      <c r="F154" s="0" t="n">
         <v>1269</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" s="2" t="n">
         <v>45149</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155" s="0" t="n">
         <v>1915.8</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155" s="0" t="n">
         <v>22.69</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E155" s="0" t="n">
         <v>911</v>
       </c>
-      <c r="F155" t="n">
+      <c r="F155" s="0" t="n">
         <v>1324</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" s="2" t="n">
         <v>45152</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156" s="0" t="n">
         <v>1903.75</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156" s="0" t="n">
         <v>22.725</v>
       </c>
-      <c r="E156" t="n">
+      <c r="E156" s="0" t="n">
         <v>902</v>
       </c>
-      <c r="F156" t="n">
+      <c r="F156" s="0" t="n">
         <v>1275</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" s="2" t="n">
         <v>45153</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157" s="0" t="n">
         <v>1903.85</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157" s="0" t="n">
         <v>22.41</v>
       </c>
-      <c r="E157" t="n">
+      <c r="E157" s="0" t="n">
         <v>890</v>
       </c>
-      <c r="F157" t="n">
+      <c r="F157" s="0" t="n">
         <v>1246</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" s="2" t="n">
         <v>45154</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158" s="0" t="n">
         <v>1904.2</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158" s="0" t="n">
         <v>22.695</v>
       </c>
-      <c r="E158" t="n">
+      <c r="E158" s="0" t="n">
         <v>887</v>
       </c>
-      <c r="F158" t="n">
+      <c r="F158" s="0" t="n">
         <v>1218</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" s="2" t="n">
         <v>45155</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159" s="0" t="n">
         <v>1896.35</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159" s="0" t="n">
         <v>22.705</v>
       </c>
-      <c r="E159" t="n">
+      <c r="E159" s="0" t="n">
         <v>910</v>
       </c>
-      <c r="F159" t="n">
+      <c r="F159" s="0" t="n">
         <v>1233</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" s="2" t="n">
         <v>45156</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160" s="0" t="n">
         <v>1893.7</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160" s="0" t="n">
         <v>22.79</v>
       </c>
-      <c r="E160" t="n">
+      <c r="E160" s="0" t="n">
         <v>904</v>
       </c>
-      <c r="F160" t="n">
+      <c r="F160" s="0" t="n">
         <v>1229</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" s="2" t="n">
         <v>45159</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161" s="0" t="n">
         <v>1889.85</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161" s="0" t="n">
         <v>22.88</v>
       </c>
-      <c r="E161" t="n">
+      <c r="E161" s="0" t="n">
         <v>911</v>
       </c>
-      <c r="F161" t="n">
+      <c r="F161" s="0" t="n">
         <v>1240</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" s="2" t="n">
         <v>45160</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162" s="0" t="n">
         <v>1892.75</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162" s="0" t="n">
         <v>23.39</v>
       </c>
-      <c r="E162" t="n">
+      <c r="E162" s="0" t="n">
         <v>928</v>
       </c>
-      <c r="F162" t="n">
+      <c r="F162" s="0" t="n">
         <v>1289</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" s="2" t="n">
         <v>45161</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163" s="0" t="n">
         <v>1916.65</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163" s="0" t="n">
         <v>23.75</v>
       </c>
-      <c r="E163" t="n">
+      <c r="E163" s="0" t="n">
         <v>929</v>
       </c>
-      <c r="F163" t="n">
+      <c r="F163" s="0" t="n">
         <v>1282</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" s="2" t="n">
         <v>45162</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164" s="0" t="n">
         <v>1917.05</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164" s="0" t="n">
         <v>24.185</v>
       </c>
-      <c r="E164" t="n">
+      <c r="E164" s="0" t="n">
         <v>933</v>
       </c>
-      <c r="F164" t="n">
+      <c r="F164" s="0" t="n">
         <v>1244</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" s="2" t="n">
         <v>45163</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165" s="0" t="n">
         <v>1915.5</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165" s="0" t="n">
         <v>24.185</v>
       </c>
-      <c r="E165" t="n">
+      <c r="E165" s="0" t="n">
         <v>949</v>
       </c>
-      <c r="F165" t="n">
+      <c r="F165" s="0" t="n">
         <v>1233</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" s="2" t="n">
         <v>45167</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166" s="0" t="n">
         <v>1930</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166" s="0" t="n">
         <v>24.22</v>
       </c>
-      <c r="E166" t="n">
+      <c r="E166" s="0" t="n">
         <v>979</v>
       </c>
-      <c r="F166" t="n">
+      <c r="F166" s="0" t="n">
         <v>1224</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" s="2" t="n">
         <v>45168</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167" s="0" t="n">
         <v>1947.55</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167" s="0" t="n">
         <v>24.62</v>
       </c>
-      <c r="E167" t="n">
+      <c r="E167" s="0" t="n">
         <v>984</v>
       </c>
-      <c r="F167" t="n">
+      <c r="F167" s="0" t="n">
         <v>1237</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" s="2" t="n">
         <v>45169</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168" s="0" t="n">
         <v>1942.3</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168" s="0" t="n">
         <v>24.535</v>
       </c>
-      <c r="E168" t="n">
+      <c r="E168" s="0" t="n">
         <v>980</v>
       </c>
-      <c r="F168" t="n">
+      <c r="F168" s="0" t="n">
         <v>1225</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169" s="0" t="n">
         <v>1940.55</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169" s="0" t="n">
         <v>24.645</v>
       </c>
-      <c r="E169" t="n">
+      <c r="E169" s="0" t="n">
         <v>983</v>
       </c>
-      <c r="F169" t="n">
+      <c r="F169" s="0" t="n">
         <v>1227</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" s="2" t="n">
         <v>45173</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170" s="0" t="n">
         <v>1937.2</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170" s="0" t="n">
         <v>24.035</v>
       </c>
-      <c r="E170" t="n">
+      <c r="E170" s="0" t="n">
         <v>960</v>
       </c>
-      <c r="F170" t="n">
+      <c r="F170" s="0" t="n">
         <v>1231</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" s="2" t="n">
         <v>45174</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171" s="0" t="n">
         <v>1926.1</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171" s="0" t="n">
         <v>23.545</v>
       </c>
-      <c r="E171" t="n">
+      <c r="E171" s="0" t="n">
         <v>945</v>
       </c>
-      <c r="F171" t="n">
+      <c r="F171" s="0" t="n">
         <v>1205</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" s="2" t="n">
         <v>45175</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172" s="0" t="n">
         <v>1922.05</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172" s="0" t="n">
         <v>23.475</v>
       </c>
-      <c r="E172" t="n">
+      <c r="E172" s="0" t="n">
         <v>915</v>
       </c>
-      <c r="F172" t="n">
+      <c r="F172" s="0" t="n">
         <v>1201</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" s="2" t="n">
         <v>45176</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173" s="0" t="n">
         <v>1918.35</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173" s="0" t="n">
         <v>23.01</v>
       </c>
-      <c r="E173" t="n">
+      <c r="E173" s="0" t="n">
         <v>904</v>
       </c>
-      <c r="F173" t="n">
+      <c r="F173" s="0" t="n">
         <v>1207</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" s="2" t="n">
         <v>45177</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174" s="0" t="n">
         <v>1927.8</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174" s="0" t="n">
         <v>23.01</v>
       </c>
-      <c r="E174" t="n">
+      <c r="E174" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="F174" t="n">
+      <c r="F174" s="0" t="n">
         <v>1207</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" s="2" t="n">
         <v>45180</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175" s="0" t="n">
         <v>1924.95</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175" s="0" t="n">
         <v>23.105</v>
       </c>
-      <c r="E175" t="n">
+      <c r="E175" s="0" t="n">
         <v>903</v>
       </c>
-      <c r="F175" t="n">
+      <c r="F175" s="0" t="n">
         <v>1215</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" s="2" t="n">
         <v>45181</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176" s="0" t="n">
         <v>1908.55</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="0" t="n">
         <v>22.9</v>
       </c>
-      <c r="E176" t="n">
+      <c r="E176" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="F176" t="n">
+      <c r="F176" s="0" t="n">
         <v>1212</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" s="2" t="n">
         <v>45182</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177" s="0" t="n">
         <v>1913.8</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" s="0" t="n">
         <v>22.905</v>
       </c>
-      <c r="E177" t="n">
+      <c r="E177" s="0" t="n">
         <v>901</v>
       </c>
-      <c r="F177" t="n">
+      <c r="F177" s="0" t="n">
         <v>1234</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" s="2" t="n">
         <v>45183</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178" s="0" t="n">
         <v>1901.75</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" s="0" t="n">
         <v>22.64</v>
       </c>
-      <c r="E178" t="n">
+      <c r="E178" s="0" t="n">
         <v>903</v>
       </c>
-      <c r="F178" t="n">
+      <c r="F178" s="0" t="n">
         <v>1259</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" s="2" t="n">
         <v>45184</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179" s="0" t="n">
         <v>1927.7</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="0" t="n">
         <v>23.06</v>
       </c>
-      <c r="E179" t="n">
+      <c r="E179" s="0" t="n">
         <v>927</v>
       </c>
-      <c r="F179" t="n">
+      <c r="F179" s="0" t="n">
         <v>1270</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" s="2" t="n">
         <v>45187</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180" s="0" t="n">
         <v>1923.5</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="0" t="n">
         <v>23.195</v>
       </c>
-      <c r="E180" t="n">
+      <c r="E180" s="0" t="n">
         <v>935</v>
       </c>
-      <c r="F180" t="n">
+      <c r="F180" s="0" t="n">
         <v>1247</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" s="2" t="n">
         <v>45188</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181" s="0" t="n">
         <v>1934.9</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="0" t="n">
         <v>23.33</v>
       </c>
-      <c r="E181" t="n">
+      <c r="E181" s="0" t="n">
         <v>948</v>
       </c>
-      <c r="F181" t="n">
+      <c r="F181" s="0" t="n">
         <v>1272</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" s="2" t="n">
         <v>45189</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182" s="0" t="n">
         <v>1943.35</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="0" t="n">
         <v>23.275</v>
       </c>
-      <c r="E182" t="n">
+      <c r="E182" s="0" t="n">
         <v>943</v>
       </c>
-      <c r="F182" t="n">
+      <c r="F182" s="0" t="n">
         <v>1292</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" s="2" t="n">
         <v>45190</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183" s="0" t="n">
         <v>1915</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="0" t="n">
         <v>23.24</v>
       </c>
-      <c r="E183" t="n">
+      <c r="E183" s="0" t="n">
         <v>917</v>
       </c>
-      <c r="F183" t="n">
+      <c r="F183" s="0" t="n">
         <v>1242</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" s="2" t="n">
         <v>45191</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184" s="0" t="n">
         <v>1927.35</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="0" t="n">
         <v>23.65</v>
       </c>
-      <c r="E184" t="n">
+      <c r="E184" s="0" t="n">
         <v>940</v>
       </c>
-      <c r="F184" t="n">
+      <c r="F184" s="0" t="n">
         <v>1275</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" s="2" t="n">
         <v>45194</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185" s="0" t="n">
         <v>1924.85</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="0" t="n">
         <v>23.56</v>
       </c>
-      <c r="E185" t="n">
+      <c r="E185" s="0" t="n">
         <v>919</v>
       </c>
-      <c r="F185" t="n">
+      <c r="F185" s="0" t="n">
         <v>1241</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" s="2" t="n">
         <v>45195</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186" s="0" t="n">
         <v>1907.05</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="0" t="n">
         <v>23.015</v>
       </c>
-      <c r="E186" t="n">
+      <c r="E186" s="0" t="n">
         <v>906</v>
       </c>
-      <c r="F186" t="n">
+      <c r="F186" s="0" t="n">
         <v>1213</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" s="2" t="n">
         <v>45196</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187" s="0" t="n">
         <v>1887.3</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187" s="0" t="n">
         <v>22.79</v>
       </c>
-      <c r="E187" t="n">
+      <c r="E187" s="0" t="n">
         <v>905</v>
       </c>
-      <c r="F187" t="n">
+      <c r="F187" s="0" t="n">
         <v>1241</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" s="2" t="n">
         <v>45197</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188" s="0" t="n">
         <v>1873.55</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188" s="0" t="n">
         <v>22.55</v>
       </c>
-      <c r="E188" t="n">
+      <c r="E188" s="0" t="n">
         <v>901</v>
       </c>
-      <c r="F188" t="n">
+      <c r="F188" s="0" t="n">
         <v>1245</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" s="2" t="n">
         <v>45198</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189" s="0" t="n">
         <v>1870.5</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189" s="0" t="n">
         <v>23.075</v>
       </c>
-      <c r="E189" t="n">
+      <c r="E189" s="0" t="n">
         <v>923</v>
       </c>
-      <c r="F189" t="n">
+      <c r="F189" s="0" t="n">
         <v>1289</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" s="2" t="n">
         <v>45201</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190" s="0" t="n">
         <v>1833.05</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190" s="0" t="n">
         <v>21.62</v>
       </c>
-      <c r="E190" t="n">
+      <c r="E190" s="0" t="n">
         <v>901</v>
       </c>
-      <c r="F190" t="n">
+      <c r="F190" s="0" t="n">
         <v>1214</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" s="2" t="n">
         <v>45202</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191" s="0" t="n">
         <v>1822.45</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191" s="0" t="n">
         <v>21.055</v>
       </c>
-      <c r="E191" t="n">
+      <c r="E191" s="0" t="n">
         <v>881</v>
       </c>
-      <c r="F191" t="n">
+      <c r="F191" s="0" t="n">
         <v>1183</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" s="2" t="n">
         <v>45203</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192" s="0" t="n">
         <v>1818.95</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192" s="0" t="n">
         <v>21.105</v>
       </c>
-      <c r="E192" t="n">
+      <c r="E192" s="0" t="n">
         <v>874</v>
       </c>
-      <c r="F192" t="n">
+      <c r="F192" s="0" t="n">
         <v>1177</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" s="2" t="n">
         <v>45204</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193" s="0" t="n">
         <v>1819.45</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193" s="0" t="n">
         <v>21.13</v>
       </c>
-      <c r="E193" t="n">
+      <c r="E193" s="0" t="n">
         <v>864</v>
       </c>
-      <c r="F193" t="n">
+      <c r="F193" s="0" t="n">
         <v>1157</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" s="2" t="n">
         <v>45205</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194" s="0" t="n">
         <v>1819.6</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194" s="0" t="n">
         <v>21.115</v>
       </c>
-      <c r="E194" t="n">
+      <c r="E194" s="0" t="n">
         <v>858</v>
       </c>
-      <c r="F194" t="n">
+      <c r="F194" s="0" t="n">
         <v>1146</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" s="2" t="n">
         <v>45208</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195" s="0" t="n">
         <v>1845.5</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195" s="0" t="n">
         <v>21.65</v>
       </c>
-      <c r="E195" t="n">
+      <c r="E195" s="0" t="n">
         <v>880</v>
       </c>
-      <c r="F195" t="n">
+      <c r="F195" s="0" t="n">
         <v>1132</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" s="2" t="n">
         <v>45209</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196" s="0" t="n">
         <v>1857</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196" s="0" t="n">
         <v>21.715</v>
       </c>
-      <c r="E196" t="n">
+      <c r="E196" s="0" t="n">
         <v>886</v>
       </c>
-      <c r="F196" t="n">
+      <c r="F196" s="0" t="n">
         <v>1129</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" s="2" t="n">
         <v>45210</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197" s="0" t="n">
         <v>1871.25</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" s="0" t="n">
         <v>22.07</v>
       </c>
-      <c r="E197" t="n">
+      <c r="E197" s="0" t="n">
         <v>880</v>
       </c>
-      <c r="F197" t="n">
+      <c r="F197" s="0" t="n">
         <v>1162</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" s="2" t="n">
         <v>45211</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198" s="0" t="n">
         <v>1874</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198" s="0" t="n">
         <v>22.14</v>
       </c>
-      <c r="E198" t="n">
+      <c r="E198" s="0" t="n">
         <v>883</v>
       </c>
-      <c r="F198" t="n">
+      <c r="F198" s="0" t="n">
         <v>1164</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" s="2" t="n">
         <v>45212</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199" s="0" t="n">
         <v>1909.2</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" s="0" t="n">
         <v>22.08</v>
       </c>
-      <c r="E199" t="n">
+      <c r="E199" s="0" t="n">
         <v>881</v>
       </c>
-      <c r="F199" t="n">
+      <c r="F199" s="0" t="n">
         <v>1141</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" s="2" t="n">
         <v>45215</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200" s="0" t="n">
         <v>1918.05</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200" s="0" t="n">
         <v>22.595</v>
       </c>
-      <c r="E200" t="n">
+      <c r="E200" s="0" t="n">
         <v>883</v>
       </c>
-      <c r="F200" t="n">
+      <c r="F200" s="0" t="n">
         <v>1135</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" s="2" t="n">
         <v>45216</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201" s="0" t="n">
         <v>1928.2</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201" s="0" t="n">
         <v>22.68</v>
       </c>
-      <c r="E201" t="n">
+      <c r="E201" s="0" t="n">
         <v>895</v>
       </c>
-      <c r="F201" t="n">
+      <c r="F201" s="0" t="n">
         <v>1135</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" s="2" t="n">
         <v>45217</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202" s="0" t="n">
         <v>1955.7</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202" s="0" t="n">
         <v>23.21</v>
       </c>
-      <c r="E202" t="n">
+      <c r="E202" s="0" t="n">
         <v>898</v>
       </c>
-      <c r="F202" t="n">
+      <c r="F202" s="0" t="n">
         <v>1130</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" s="2" t="n">
         <v>45218</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203" s="0" t="n">
         <v>1953.55</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203" s="0" t="n">
         <v>22.885</v>
       </c>
-      <c r="E203" t="n">
+      <c r="E203" s="0" t="n">
         <v>888</v>
       </c>
-      <c r="F203" t="n">
+      <c r="F203" s="0" t="n">
         <v>1107</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" s="2" t="n">
         <v>45219</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204" s="0" t="n">
         <v>1988.5</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204" s="0" t="n">
         <v>23.215</v>
       </c>
-      <c r="E204" t="n">
+      <c r="E204" s="0" t="n">
         <v>895</v>
       </c>
-      <c r="F204" t="n">
+      <c r="F204" s="0" t="n">
         <v>1101</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" s="2" t="n">
         <v>45222</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205" s="0" t="n">
         <v>1973</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205" s="0" t="n">
         <v>23.185</v>
       </c>
-      <c r="E205" t="n">
+      <c r="E205" s="0" t="n">
         <v>898</v>
       </c>
-      <c r="F205" t="n">
+      <c r="F205" s="0" t="n">
         <v>1113</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" s="2" t="n">
         <v>45223</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206" s="0" t="n">
         <v>1963.65</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206" s="0" t="n">
         <v>22.74</v>
       </c>
-      <c r="E206" t="n">
+      <c r="E206" s="0" t="n">
         <v>887</v>
       </c>
-      <c r="F206" t="n">
+      <c r="F206" s="0" t="n">
         <v>1120</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" s="2" t="n">
         <v>45224</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207" s="0" t="n">
         <v>1983.3</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207" s="0" t="n">
         <v>22.81</v>
       </c>
-      <c r="E207" t="n">
+      <c r="E207" s="0" t="n">
         <v>896</v>
       </c>
-      <c r="F207" t="n">
+      <c r="F207" s="0" t="n">
         <v>1136</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" s="2" t="n">
         <v>45225</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208" s="0" t="n">
         <v>1975</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208" s="0" t="n">
         <v>22.97</v>
       </c>
-      <c r="E208" t="n">
+      <c r="E208" s="0" t="n">
         <v>912</v>
       </c>
-      <c r="F208" t="n">
+      <c r="F208" s="0" t="n">
         <v>1123</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" s="2" t="n">
         <v>45226</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209" s="0" t="n">
         <v>1982.9</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209" s="0" t="n">
         <v>22.755</v>
       </c>
-      <c r="E209" t="n">
+      <c r="E209" s="0" t="n">
         <v>903</v>
       </c>
-      <c r="F209" t="n">
+      <c r="F209" s="0" t="n">
         <v>1139</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" s="2" t="n">
         <v>45229</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210" s="0" t="n">
         <v>1997.6</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210" s="0" t="n">
         <v>23.15</v>
       </c>
-      <c r="E210" t="n">
+      <c r="E210" s="0" t="n">
         <v>927</v>
       </c>
-      <c r="F210" t="n">
+      <c r="F210" s="0" t="n">
         <v>1146</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" s="2" t="n">
         <v>45230</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211" s="0" t="n">
         <v>1996.9</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211" s="0" t="n">
         <v>23.2</v>
       </c>
-      <c r="E211" t="n">
+      <c r="E211" s="0" t="n">
         <v>940</v>
       </c>
-      <c r="F211" t="n">
+      <c r="F211" s="0" t="n">
         <v>1136</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" s="2" t="n">
         <v>45231</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212" s="0" t="n">
         <v>1986.35</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="0" t="n">
         <v>22.67</v>
       </c>
-      <c r="E212" t="n">
+      <c r="E212" s="0" t="n">
         <v>929</v>
       </c>
-      <c r="F212" t="n">
+      <c r="F212" s="0" t="n">
         <v>1129</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" s="2" t="n">
         <v>45232</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213" s="0" t="n">
         <v>1983.6</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="0" t="n">
         <v>23.035</v>
       </c>
-      <c r="E213" t="n">
+      <c r="E213" s="0" t="n">
         <v>921</v>
       </c>
-      <c r="F213" t="n">
+      <c r="F213" s="0" t="n">
         <v>1117</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" s="2" t="n">
         <v>45233</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214" s="0" t="n">
         <v>1994.45</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="0" t="n">
         <v>22.64</v>
       </c>
-      <c r="E214" t="n">
+      <c r="E214" s="0" t="n">
         <v>931</v>
       </c>
-      <c r="F214" t="n">
+      <c r="F214" s="0" t="n">
         <v>1110</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" s="2" t="n">
         <v>45236</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215" s="0" t="n">
         <v>1984.6</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="0" t="n">
         <v>23.21</v>
       </c>
-      <c r="E215" t="n">
+      <c r="E215" s="0" t="n">
         <v>927</v>
       </c>
-      <c r="F215" t="n">
+      <c r="F215" s="0" t="n">
         <v>1123</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" s="2" t="n">
         <v>45237</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216" s="0" t="n">
         <v>1960.7</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="0" t="n">
         <v>22.535</v>
       </c>
-      <c r="E216" t="n">
+      <c r="E216" s="0" t="n">
         <v>899</v>
       </c>
-      <c r="F216" t="n">
+      <c r="F216" s="0" t="n">
         <v>1070</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" s="2" t="n">
         <v>45238</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217" s="0" t="n">
         <v>1959.35</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="0" t="n">
         <v>22.44</v>
       </c>
-      <c r="E217" t="n">
+      <c r="E217" s="0" t="n">
         <v>880</v>
       </c>
-      <c r="F217" t="n">
+      <c r="F217" s="0" t="n">
         <v>1016</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" s="2" t="n">
         <v>45239</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218" s="0" t="n">
         <v>1957.45</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="0" t="n">
         <v>22.55</v>
       </c>
-      <c r="E218" t="n">
+      <c r="E218" s="0" t="n">
         <v>868</v>
       </c>
-      <c r="F218" t="n">
+      <c r="F218" s="0" t="n">
         <v>1025</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" s="2" t="n">
         <v>45240</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219" s="0" t="n">
         <v>1941.65</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219" s="0" t="n">
         <v>22.495</v>
       </c>
-      <c r="E219" t="n">
+      <c r="E219" s="0" t="n">
         <v>853</v>
       </c>
-      <c r="F219" t="n">
+      <c r="F219" s="0" t="n">
         <v>970</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" s="2" t="n">
         <v>45243</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220" s="0" t="n">
         <v>1931.15</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220" s="0" t="n">
         <v>22.075</v>
       </c>
-      <c r="E220" t="n">
+      <c r="E220" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="F220" t="n">
+      <c r="F220" s="0" t="n">
         <v>963</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" s="2" t="n">
         <v>45244</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221" s="0" t="n">
         <v>1969.05</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221" s="0" t="n">
         <v>22.35</v>
       </c>
-      <c r="E221" t="n">
+      <c r="E221" s="0" t="n">
         <v>877</v>
       </c>
-      <c r="F221" t="n">
+      <c r="F221" s="0" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" s="2" t="n">
         <v>45245</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222" s="0" t="n">
         <v>1958.2</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222" s="0" t="n">
         <v>23.41</v>
       </c>
-      <c r="E222" t="n">
+      <c r="E222" s="0" t="n">
         <v>897</v>
       </c>
-      <c r="F222" t="n">
+      <c r="F222" s="0" t="n">
         <v>1021</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" s="2" t="n">
         <v>45246</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223" s="0" t="n">
         <v>1980.1</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223" s="0" t="n">
         <v>23.67</v>
       </c>
-      <c r="E223" t="n">
+      <c r="E223" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="F223" t="n">
+      <c r="F223" s="0" t="n">
         <v>1031</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" s="2" t="n">
         <v>45247</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224" s="0" t="n">
         <v>1981.05</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224" s="0" t="n">
         <v>23.995</v>
       </c>
-      <c r="E224" t="n">
+      <c r="E224" s="0" t="n">
         <v>901</v>
       </c>
-      <c r="F224" t="n">
+      <c r="F224" s="0" t="n">
         <v>1040</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" s="2" t="n">
         <v>45250</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225" s="0" t="n">
         <v>1968.7</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225" s="0" t="n">
         <v>23.385</v>
       </c>
-      <c r="E225" t="n">
+      <c r="E225" s="0" t="n">
         <v>899</v>
       </c>
-      <c r="F225" t="n">
+      <c r="F225" s="0" t="n">
         <v>1073</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" s="2" t="n">
         <v>45251</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226" s="0" t="n">
         <v>2006.6</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226" s="0" t="n">
         <v>23.53</v>
       </c>
-      <c r="E226" t="n">
+      <c r="E226" s="0" t="n">
         <v>931</v>
       </c>
-      <c r="F226" t="n">
+      <c r="F226" s="0" t="n">
         <v>1075</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B227" s="2" t="n">
         <v>45252</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227" s="0" t="n">
         <v>1997.55</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227" s="0" t="n">
         <v>23.835</v>
       </c>
-      <c r="E227" t="n">
+      <c r="E227" s="0" t="n">
         <v>931</v>
       </c>
-      <c r="F227" t="n">
+      <c r="F227" s="0" t="n">
         <v>1066</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" s="2" t="n">
         <v>45253</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228" s="0" t="n">
         <v>1992.85</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228" s="0" t="n">
         <v>23.655</v>
       </c>
-      <c r="E228" t="n">
+      <c r="E228" s="0" t="n">
         <v>921</v>
       </c>
-      <c r="F228" t="n">
+      <c r="F228" s="0" t="n">
         <v>1057</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B229" s="2" t="n">
         <v>45254</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229" s="0" t="n">
         <v>2000.85</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229" s="0" t="n">
         <v>23.705</v>
       </c>
-      <c r="E229" t="n">
+      <c r="E229" s="0" t="n">
         <v>916</v>
       </c>
-      <c r="F229" t="n">
+      <c r="F229" s="0" t="n">
         <v>1048</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B230" s="2" t="n">
         <v>45257</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230" s="0" t="n">
         <v>2013.7</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230" s="0" t="n">
         <v>24.755</v>
       </c>
-      <c r="E230" t="n">
+      <c r="E230" s="0" t="n">
         <v>924</v>
       </c>
-      <c r="F230" t="n">
+      <c r="F230" s="0" t="n">
         <v>1064</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B231" s="2" t="n">
         <v>45258</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231" s="0" t="n">
         <v>2025.65</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231" s="0" t="n">
         <v>24.65</v>
       </c>
-      <c r="E231" t="n">
+      <c r="E231" s="0" t="n">
         <v>928</v>
       </c>
-      <c r="F231" t="n">
+      <c r="F231" s="0" t="n">
         <v>1059</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B232" s="2" t="n">
         <v>45259</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232" s="0" t="n">
         <v>2046.95</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232" s="0" t="n">
         <v>24.965</v>
       </c>
-      <c r="E232" t="n">
+      <c r="E232" s="0" t="n">
         <v>932</v>
       </c>
-      <c r="F232" t="n">
+      <c r="F232" s="0" t="n">
         <v>1024</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B233" s="2" t="n">
         <v>45260</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233" s="0" t="n">
         <v>2035.45</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" s="0" t="n">
         <v>25.02</v>
       </c>
-      <c r="E233" t="n">
+      <c r="E233" s="0" t="n">
         <v>937</v>
       </c>
-      <c r="F233" t="n">
+      <c r="F233" s="0" t="n">
         <v>1025</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B234" s="2" t="n">
         <v>45261</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234" s="0" t="n">
         <v>2045.4</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234" s="0" t="n">
         <v>25.16</v>
       </c>
-      <c r="E234" t="n">
+      <c r="E234" s="0" t="n">
         <v>929</v>
       </c>
-      <c r="F234" t="n">
+      <c r="F234" s="0" t="n">
         <v>1009</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
       <c r="B235" s="2" t="n">
         <v>45264</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235" s="0" t="n">
         <v>2049.05</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235" s="0" t="n">
         <v>25.165</v>
       </c>
-      <c r="E235" t="n">
+      <c r="E235" s="0" t="n">
         <v>930</v>
       </c>
-      <c r="F235" t="n">
+      <c r="F235" s="0" t="n">
         <v>972</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
       <c r="B236" s="2" t="n">
         <v>45265</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236" s="0" t="n">
         <v>2023.35</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236" s="0" t="n">
         <v>24.27</v>
       </c>
-      <c r="E236" t="n">
+      <c r="E236" s="0" t="n">
         <v>908</v>
       </c>
-      <c r="F236" t="n">
+      <c r="F236" s="0" t="n">
         <v>965</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
       <c r="B237" s="2" t="n">
         <v>45266</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237" s="0" t="n">
         <v>2026.4</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237" s="0" t="n">
         <v>24.095</v>
       </c>
-      <c r="E237" t="n">
+      <c r="E237" s="0" t="n">
         <v>905</v>
       </c>
-      <c r="F237" t="n">
+      <c r="F237" s="0" t="n">
         <v>957</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
       <c r="B238" s="2" t="n">
         <v>45267</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238" s="0" t="n">
         <v>2026.9</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238" s="0" t="n">
         <v>23.91</v>
       </c>
-      <c r="E238" t="n">
+      <c r="E238" s="0" t="n">
         <v>909</v>
       </c>
-      <c r="F238" t="n">
+      <c r="F238" s="0" t="n">
         <v>976</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
       <c r="B239" s="2" t="n">
         <v>45268</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239" s="0" t="n">
         <v>2008.1</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239" s="0" t="n">
         <v>23.79</v>
       </c>
-      <c r="E239" t="n">
+      <c r="E239" s="0" t="n">
         <v>917</v>
       </c>
-      <c r="F239" t="n">
+      <c r="F239" s="0" t="n">
         <v>975</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
       <c r="B240" s="2" t="n">
         <v>45271</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240" s="0" t="n">
         <v>1986.65</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240" s="0" t="n">
         <v>22.92</v>
       </c>
-      <c r="E240" t="n">
+      <c r="E240" s="0" t="n">
         <v>926</v>
       </c>
-      <c r="F240" t="n">
+      <c r="F240" s="0" t="n">
         <v>958</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
       <c r="B241" s="2" t="n">
         <v>45272</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241" s="0" t="n">
         <v>1980.85</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241" s="0" t="n">
         <v>22.955</v>
       </c>
-      <c r="E241" t="n">
+      <c r="E241" s="0" t="n">
         <v>921</v>
       </c>
-      <c r="F241" t="n">
+      <c r="F241" s="0" t="n">
         <v>980</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
       <c r="B242" s="2" t="n">
         <v>45273</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242" s="0" t="n">
         <v>1982.5</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242" s="0" t="n">
         <v>22.725</v>
       </c>
-      <c r="E242" t="n">
+      <c r="E242" s="0" t="n">
         <v>923</v>
       </c>
-      <c r="F242" t="n">
+      <c r="F242" s="0" t="n">
         <v>979</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
       <c r="B243" s="2" t="n">
         <v>45274</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243" s="0" t="n">
         <v>2046.1</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243" s="0" t="n">
         <v>23.99</v>
       </c>
-      <c r="E243" t="n">
+      <c r="E243" s="0" t="n">
         <v>944</v>
       </c>
-      <c r="F243" t="n">
+      <c r="F243" s="0" t="n">
         <v>1032</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
       <c r="B244" s="2" t="n">
         <v>45275</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244" s="0" t="n">
         <v>2032.3</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244" s="0" t="n">
         <v>24.19</v>
       </c>
-      <c r="E244" t="n">
+      <c r="E244" s="0" t="n">
         <v>946</v>
       </c>
-      <c r="F244" t="n">
+      <c r="F244" s="0" t="n">
         <v>1130</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="B245" t="inlineStr"/>
-      <c r="C245" t="inlineStr"/>
-      <c r="D245" t="inlineStr"/>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -1,5039 +1,5590 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="kitco_metall" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="kitco_metall" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platinum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palladium</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F245"/>
+  <dimension ref="A1:F257"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A234" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I243" activeCellId="0" sqref="I243"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.14"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Platinum</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Palladium</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>44929</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>1843.25</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" t="n">
         <v>24.295</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" t="n">
         <v>1082</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" t="n">
         <v>1795</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>44930</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" t="n">
         <v>1857.3</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" t="n">
         <v>24.29</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" t="n">
         <v>1080</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" t="n">
         <v>1736</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>44931</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" t="n">
         <v>1834</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" t="n">
         <v>23.41</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" t="n">
         <v>1062</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" t="n">
         <v>1783</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>44932</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" t="n">
         <v>1852.2</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" t="n">
         <v>23.455</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" t="n">
         <v>1073</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" t="n">
         <v>1784</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>44935</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" t="n">
         <v>1878.85</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" t="n">
         <v>23.85</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" t="n">
         <v>1092</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" t="n">
         <v>1793</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>44936</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" t="n">
         <v>1878.65</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" t="n">
         <v>23.515</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" t="n">
         <v>1084</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" t="n">
         <v>1802</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>44937</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" t="n">
         <v>1872.35</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" t="n">
         <v>23.87</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" t="n">
         <v>1100</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" t="n">
         <v>1764</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>44938</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" t="n">
         <v>1882.55</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" t="n">
         <v>23.7</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" t="n">
         <v>1082</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" t="n">
         <v>1777</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>44939</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" t="n">
         <v>1907.15</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" t="n">
         <v>23.675</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" t="n">
         <v>1057</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" t="n">
         <v>1739</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>44942</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" t="n">
         <v>1917</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" t="n">
         <v>24.17</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" t="n">
         <v>1059</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" t="n">
         <v>1755</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>44943</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" t="n">
         <v>1913.8</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" t="n">
         <v>24.1</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" t="n">
         <v>1053</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" t="n">
         <v>1728</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>44944</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" t="n">
         <v>1920.7</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" t="n">
         <v>24.185</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" t="n">
         <v>1068</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" t="n">
         <v>1778</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>44945</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" t="n">
         <v>1918.6</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" t="n">
         <v>23.445</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" t="n">
         <v>1025</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" t="n">
         <v>1683</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>44946</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" t="n">
         <v>1924.9</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" t="n">
         <v>23.87</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" t="n">
         <v>1024</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" t="n">
         <v>1731</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>44949</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" t="n">
         <v>1914.85</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" t="n">
         <v>23.675</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" t="n">
         <v>1037</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" t="n">
         <v>1708</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>44950</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" t="n">
         <v>1920.75</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" t="n">
         <v>23.71</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" t="n">
         <v>1048</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" t="n">
         <v>1704</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>44951</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" t="n">
         <v>1930.8</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" t="n">
         <v>23.43</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" t="n">
         <v>1039</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" t="n">
         <v>1732</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>44952</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" t="n">
         <v>1932.45</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" t="n">
         <v>23.71</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" t="n">
         <v>1032</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" t="n">
         <v>1697</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>44953</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" t="n">
         <v>1923.05</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" t="n">
         <v>23.725</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" t="n">
         <v>1010</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" t="n">
         <v>1642</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>44956</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" t="n">
         <v>1924.1</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" t="n">
         <v>23.635</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" t="n">
         <v>1013</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" t="n">
         <v>1630</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>44957</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" t="n">
         <v>1923.9</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" t="n">
         <v>22.995</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" t="n">
         <v>1004</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" t="n">
         <v>1618</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" t="n">
         <v>1925.9</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" t="n">
         <v>23.495</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" t="n">
         <v>1008</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" t="n">
         <v>1686</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>44959</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" t="n">
         <v>1921.65</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" t="n">
         <v>24.435</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" t="n">
         <v>1032</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" t="n">
         <v>1680</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>44960</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" t="n">
         <v>1875.35</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" t="n">
         <v>23.49</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" t="n">
         <v>1005</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" t="n">
         <v>1625</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>44963</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" t="n">
         <v>1873.25</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" t="n">
         <v>22.38</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" t="n">
         <v>980</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" t="n">
         <v>1572</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>44964</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" t="n">
         <v>1870.7</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" t="n">
         <v>22.205</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" t="n">
         <v>970</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" t="n">
         <v>1636</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>44965</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" t="n">
         <v>1872.65</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" t="n">
         <v>22.45</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" t="n">
         <v>985</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28" t="n">
         <v>1660</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>44966</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" t="n">
         <v>1879.1</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" t="n">
         <v>22.465</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" t="n">
         <v>972</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" t="n">
         <v>1647</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>44967</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" t="n">
         <v>1859.7</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" t="n">
         <v>22.115</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" t="n">
         <v>966</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30" t="n">
         <v>1553</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>44970</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" t="n">
         <v>1856.05</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" t="n">
         <v>21.985</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" t="n">
         <v>944</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31" t="n">
         <v>1555</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>44971</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" t="n">
         <v>1863.7</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" t="n">
         <v>21.71</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" t="n">
         <v>952</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32" t="n">
         <v>1580</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>44972</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" t="n">
         <v>1831.2</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" t="n">
         <v>21.47</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" t="n">
         <v>926</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33" t="n">
         <v>1448</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>44973</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" t="n">
         <v>1828.95</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" t="n">
         <v>21.565</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" t="n">
         <v>912</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34" t="n">
         <v>1468</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>44974</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" t="n">
         <v>1833.95</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" t="n">
         <v>21.215</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" t="n">
         <v>913</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35" t="n">
         <v>1481</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>44977</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" t="n">
         <v>1845.8</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" t="n">
         <v>21.71</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" t="n">
         <v>936</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36" t="n">
         <v>1515</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>44978</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" t="n">
         <v>1836.85</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" t="n">
         <v>21.775</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" t="n">
         <v>934</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37" t="n">
         <v>1525</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>44979</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" t="n">
         <v>1835.75</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" t="n">
         <v>21.86</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" t="n">
         <v>956</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38" t="n">
         <v>1513</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>44980</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" t="n">
         <v>1826.05</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" t="n">
         <v>21.52</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" t="n">
         <v>957</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39" t="n">
         <v>1462</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>44981</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" t="n">
         <v>1810.95</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" t="n">
         <v>21.09</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" t="n">
         <v>928</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40" t="n">
         <v>1394</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>44984</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" t="n">
         <v>1818.65</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" t="n">
         <v>20.73</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41" t="n">
         <v>950</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41" t="n">
         <v>1465</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>44985</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" t="n">
         <v>1824.6</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" t="n">
         <v>20.525</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" t="n">
         <v>951</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F42" t="n">
         <v>1413</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>44986</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" t="n">
         <v>1841.25</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" t="n">
         <v>20.995</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" t="n">
         <v>960</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F43" t="n">
         <v>1416</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>44987</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" t="n">
         <v>1836.2</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" t="n">
         <v>20.8</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" t="n">
         <v>953</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44" t="n">
         <v>1421</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>44988</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" t="n">
         <v>1841.15</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" t="n">
         <v>21.09</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" t="n">
         <v>978</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45" t="n">
         <v>1451</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>44991</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" t="n">
         <v>1849.05</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46" t="n">
         <v>21.085</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" t="n">
         <v>965</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F46" t="n">
         <v>1420</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>44992</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" t="n">
         <v>1826.55</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47" t="n">
         <v>20.91</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47" t="n">
         <v>957</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>44993</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" t="n">
         <v>1816.3</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48" t="n">
         <v>20.105</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" t="n">
         <v>944</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48" t="n">
         <v>1407</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>44994</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" t="n">
         <v>1831.4</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49" t="n">
         <v>20.12</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49" t="n">
         <v>953</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F49" t="n">
         <v>1361</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>44995</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" t="n">
         <v>1861.25</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50" t="n">
         <v>20.09</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="E50" t="n">
+        <v>953</v>
+      </c>
+      <c r="F50" t="n">
         <v>1389</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
         <v>44998</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" t="n">
         <v>1911.3</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51" t="n">
         <v>21.095</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51" t="n">
         <v>988</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="F51" t="n">
         <v>1432</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>44999</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" t="n">
         <v>1907.55</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52" t="n">
         <v>21.64</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52" t="n">
         <v>985</v>
       </c>
-      <c r="F52" s="0" t="n">
+      <c r="F52" t="n">
         <v>1495</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
         <v>45000</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" t="n">
         <v>1923.4</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53" t="n">
         <v>22.095</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53" t="n">
         <v>965</v>
       </c>
-      <c r="F53" s="0" t="n">
+      <c r="F53" t="n">
         <v>1437</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
         <v>45001</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" t="n">
         <v>1922.75</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54" t="n">
         <v>22.01</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54" t="n">
         <v>964</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F54" t="n">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
         <v>45002</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" t="n">
         <v>1962.1</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55" t="n">
         <v>21.885</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55" t="n">
         <v>979</v>
       </c>
-      <c r="F55" s="0" t="n">
+      <c r="F55" t="n">
         <v>1389</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
         <v>45005</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" t="n">
         <v>1969.35</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56" t="n">
         <v>22.495</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56" t="n">
         <v>985</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="F56" t="n">
         <v>1398</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
         <v>45006</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" t="n">
         <v>1952.5</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57" t="n">
         <v>22.465</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57" t="n">
         <v>983</v>
       </c>
-      <c r="F57" s="0" t="n">
+      <c r="F57" t="n">
         <v>1406</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
         <v>45007</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" t="n">
         <v>1949.35</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58" t="n">
         <v>22.345</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58" t="n">
         <v>985</v>
       </c>
-      <c r="F58" s="0" t="n">
+      <c r="F58" t="n">
         <v>1428</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
         <v>45008</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" t="n">
         <v>1977.95</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59" t="n">
         <v>22.9</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59" t="n">
         <v>989</v>
       </c>
-      <c r="F59" s="0" t="n">
+      <c r="F59" t="n">
         <v>1435</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
         <v>45009</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" t="n">
         <v>1993.8</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60" t="n">
         <v>23.17</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60" t="n">
         <v>976</v>
       </c>
-      <c r="F60" s="0" t="n">
+      <c r="F60" t="n">
         <v>1418</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
         <v>45012</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" t="n">
         <v>1946.25</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61" t="n">
         <v>22.89</v>
       </c>
-      <c r="F61" s="0" t="n">
+      <c r="E61" t="n">
+        <v>976</v>
+      </c>
+      <c r="F61" t="n">
         <v>1406</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
         <v>45013</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" t="n">
         <v>1962.85</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62" t="n">
         <v>23.045</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62" t="n">
         <v>966</v>
       </c>
-      <c r="F62" s="0" t="n">
+      <c r="F62" t="n">
         <v>1416</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
         <v>45014</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" t="n">
         <v>1965</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63" t="n">
         <v>23.255</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63" t="n">
         <v>962</v>
       </c>
-      <c r="F63" s="0" t="n">
+      <c r="F63" t="n">
         <v>1431</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
         <v>45015</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64" t="n">
         <v>1965.8</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64" t="n">
         <v>23.71</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64" t="n">
         <v>977</v>
       </c>
-      <c r="F64" s="0" t="n">
+      <c r="F64" t="n">
         <v>1495</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
         <v>45016</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65" t="n">
         <v>1979.7</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65" t="n">
         <v>23.885</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65" t="n">
         <v>981</v>
       </c>
-      <c r="F65" s="0" t="n">
+      <c r="F65" t="n">
         <v>1490</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
         <v>45019</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66" t="n">
         <v>1983.3</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66" t="n">
         <v>23.925</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66" t="n">
         <v>990</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66" t="n">
         <v>1482</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
         <v>45020</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67" t="n">
         <v>2009.6</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67" t="n">
         <v>24.015</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67" t="n">
         <v>1011</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F67" t="n">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
         <v>45021</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68" t="n">
         <v>2030.85</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68" t="n">
         <v>24.74</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68" t="n">
         <v>1016</v>
       </c>
-      <c r="F68" s="0" t="n">
+      <c r="F68" t="n">
         <v>1467</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
         <v>45022</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69" t="n">
         <v>2001.9</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69" t="n">
         <v>24.935</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69" t="n">
         <v>999</v>
       </c>
-      <c r="F69" s="0" t="n">
+      <c r="F69" t="n">
         <v>1445</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
         <v>45027</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70" t="n">
         <v>2002.7</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70" t="n">
         <v>25.055</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70" t="n">
         <v>1001</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="F70" t="n">
         <v>1432</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
         <v>45028</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71" t="n">
         <v>2008.2</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71" t="n">
         <v>25.145</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71" t="n">
         <v>1020</v>
       </c>
-      <c r="F71" s="0" t="n">
+      <c r="F71" t="n">
         <v>1452</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
         <v>45029</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72" t="n">
         <v>2048.45</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72" t="n">
         <v>25.62</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="E72" t="n">
         <v>1036</v>
       </c>
-      <c r="F72" s="0" t="n">
+      <c r="F72" t="n">
         <v>1482</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
         <v>45030</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73" t="n">
         <v>2019.4</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73" t="n">
         <v>26.025</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E73" t="n">
         <v>1043</v>
       </c>
-      <c r="F73" s="0" t="n">
+      <c r="F73" t="n">
         <v>1484</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
         <v>45033</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74" t="n">
         <v>1995.55</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74" t="n">
         <v>25.39</v>
       </c>
-      <c r="E74" s="0" t="n">
+      <c r="E74" t="n">
         <v>1055</v>
       </c>
-      <c r="F74" s="0" t="n">
+      <c r="F74" t="n">
         <v>1520</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
         <v>45034</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75" t="n">
         <v>1999.4</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75" t="n">
         <v>25.09</v>
       </c>
-      <c r="E75" s="0" t="n">
+      <c r="E75" t="n">
         <v>1073</v>
       </c>
-      <c r="F75" s="0" t="n">
+      <c r="F75" t="n">
         <v>1628</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
         <v>45035</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76" t="n">
         <v>1990.55</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76" t="n">
         <v>24.75</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="E76" t="n">
         <v>1075</v>
       </c>
-      <c r="F76" s="0" t="n">
+      <c r="F76" t="n">
         <v>1609</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
         <v>45036</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77" t="n">
         <v>2007.15</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77" t="n">
         <v>25.4</v>
       </c>
-      <c r="E77" s="0" t="n">
+      <c r="E77" t="n">
         <v>1094</v>
       </c>
-      <c r="F77" s="0" t="n">
+      <c r="F77" t="n">
         <v>1618</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
         <v>45037</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78" t="n">
         <v>1973.65</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78" t="n">
         <v>25.155</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="E78" t="n">
         <v>1128</v>
       </c>
-      <c r="F78" s="0" t="n">
+      <c r="F78" t="n">
         <v>1628</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
         <v>45040</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79" t="n">
         <v>1978.2</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="D79" t="n">
         <v>25.03</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79" t="n">
         <v>1091</v>
       </c>
-      <c r="F79" s="0" t="n">
+      <c r="F79" t="n">
         <v>1545</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
         <v>45041</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80" t="n">
         <v>1987.4</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80" t="n">
         <v>24.895</v>
       </c>
-      <c r="E80" s="0" t="n">
+      <c r="E80" t="n">
         <v>1080</v>
       </c>
-      <c r="F80" s="0" t="n">
+      <c r="F80" t="n">
         <v>1494</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" s="2" t="n">
         <v>45042</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81" t="n">
         <v>2003</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81" t="n">
         <v>24.85</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81" t="n">
         <v>1093</v>
       </c>
-      <c r="F81" s="0" t="n">
+      <c r="F81" t="n">
         <v>1509</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" s="2" t="n">
         <v>45043</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82" t="n">
         <v>1985.65</v>
       </c>
-      <c r="D82" s="0" t="n">
+      <c r="D82" t="n">
         <v>25.145</v>
       </c>
-      <c r="E82" s="0" t="n">
+      <c r="E82" t="n">
         <v>1085</v>
       </c>
-      <c r="F82" s="0" t="n">
+      <c r="F82" t="n">
         <v>1496</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" s="2" t="n">
         <v>45044</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83" t="n">
         <v>1982.55</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83" t="n">
         <v>24.765</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83" t="n">
         <v>1074</v>
       </c>
-      <c r="F83" s="0" t="n">
+      <c r="F83" t="n">
         <v>1497</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" s="2" t="n">
         <v>45048</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84" t="n">
         <v>1995.4</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84" t="n">
         <v>24.77</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84" t="n">
         <v>1049</v>
       </c>
-      <c r="F84" s="0" t="n">
+      <c r="F84" t="n">
         <v>1453</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" s="2" t="n">
         <v>45049</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85" t="n">
         <v>2014.3</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85" t="n">
         <v>25.25</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85" t="n">
         <v>1060</v>
       </c>
-      <c r="F85" s="0" t="n">
+      <c r="F85" t="n">
         <v>1441</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" s="2" t="n">
         <v>45050</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86" t="n">
         <v>2044.7</v>
       </c>
-      <c r="D86" s="0" t="n">
+      <c r="D86" t="n">
         <v>25.625</v>
       </c>
-      <c r="E86" s="0" t="n">
+      <c r="E86" t="n">
         <v>1053</v>
       </c>
-      <c r="F86" s="0" t="n">
+      <c r="F86" t="n">
         <v>1426</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" s="2" t="n">
         <v>45051</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87" t="n">
         <v>2000.95</v>
       </c>
-      <c r="D87" s="0" t="n">
+      <c r="D87" t="n">
         <v>25.84</v>
       </c>
-      <c r="E87" s="0" t="n">
+      <c r="E87" t="n">
         <v>1044</v>
       </c>
-      <c r="F87" s="0" t="n">
+      <c r="F87" t="n">
         <v>1455</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" s="2" t="n">
         <v>45055</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C88" t="n">
         <v>2030.2</v>
       </c>
-      <c r="D88" s="0" t="n">
+      <c r="D88" t="n">
         <v>25.565</v>
       </c>
-      <c r="E88" s="0" t="n">
+      <c r="E88" t="n">
         <v>1085</v>
       </c>
-      <c r="F88" s="0" t="n">
+      <c r="F88" t="n">
         <v>1570</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" s="2" t="n">
         <v>45056</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89" t="n">
         <v>2037.15</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89" t="n">
         <v>25.52</v>
       </c>
-      <c r="E89" s="0" t="n">
+      <c r="E89" t="n">
         <v>1123</v>
       </c>
-      <c r="F89" s="0" t="n">
+      <c r="F89" t="n">
         <v>1620</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" s="2" t="n">
         <v>45057</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="C90" t="n">
         <v>2015.95</v>
       </c>
-      <c r="D90" s="0" t="n">
+      <c r="D90" t="n">
         <v>24.885</v>
       </c>
-      <c r="E90" s="0" t="n">
+      <c r="E90" t="n">
         <v>1119</v>
       </c>
-      <c r="F90" s="0" t="n">
+      <c r="F90" t="n">
         <v>1607</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" s="2" t="n">
         <v>45058</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="C91" t="n">
         <v>2019.9</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="D91" t="n">
         <v>23.855</v>
       </c>
-      <c r="E91" s="0" t="n">
+      <c r="E91" t="n">
         <v>1081</v>
       </c>
-      <c r="F91" s="0" t="n">
+      <c r="F91" t="n">
         <v>1546</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" s="2" t="n">
         <v>45061</v>
       </c>
-      <c r="D92" s="0" t="n">
+      <c r="C92" t="n">
+        <v>2019.9</v>
+      </c>
+      <c r="D92" t="n">
         <v>23.89</v>
       </c>
-      <c r="E92" s="0" t="n">
+      <c r="E92" t="n">
         <v>1061</v>
       </c>
-      <c r="F92" s="0" t="n">
+      <c r="F92" t="n">
         <v>1534</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C93" t="n">
         <v>2007.45</v>
       </c>
-      <c r="D93" s="0" t="n">
+      <c r="D93" t="n">
         <v>23.785</v>
       </c>
-      <c r="E93" s="0" t="n">
+      <c r="E93" t="n">
         <v>1070</v>
       </c>
-      <c r="F93" s="0" t="n">
+      <c r="F93" t="n">
         <v>1521</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94" t="n">
         <v>1974.4</v>
       </c>
-      <c r="D94" s="0" t="n">
+      <c r="D94" t="n">
         <v>23.685</v>
       </c>
-      <c r="E94" s="0" t="n">
+      <c r="E94" t="n">
         <v>1075</v>
       </c>
-      <c r="F94" s="0" t="n">
+      <c r="F94" t="n">
         <v>1490</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" s="2" t="n">
         <v>45064</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95" t="n">
         <v>1960.3</v>
       </c>
-      <c r="D95" s="0" t="n">
+      <c r="D95" t="n">
         <v>23.52</v>
       </c>
-      <c r="E95" s="0" t="n">
+      <c r="E95" t="n">
         <v>1067</v>
       </c>
-      <c r="F95" s="0" t="n">
+      <c r="F95" t="n">
         <v>1464</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" s="2" t="n">
         <v>45065</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96" t="n">
         <v>1961.6</v>
       </c>
-      <c r="D96" s="0" t="n">
+      <c r="D96" t="n">
         <v>23.66</v>
       </c>
-      <c r="E96" s="0" t="n">
+      <c r="E96" t="n">
         <v>1071</v>
       </c>
-      <c r="F96" s="0" t="n">
+      <c r="F96" t="n">
         <v>1518</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" s="2" t="n">
         <v>45068</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97" t="n">
         <v>1970.3</v>
       </c>
-      <c r="D97" s="0" t="n">
+      <c r="D97" t="n">
         <v>23.85</v>
       </c>
-      <c r="E97" s="0" t="n">
+      <c r="E97" t="n">
         <v>1074</v>
       </c>
-      <c r="F97" s="0" t="n">
+      <c r="F97" t="n">
         <v>1513</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" s="2" t="n">
         <v>45069</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98" t="n">
         <v>1969.2</v>
       </c>
-      <c r="D98" s="0" t="n">
+      <c r="D98" t="n">
         <v>23.16</v>
       </c>
-      <c r="E98" s="0" t="n">
+      <c r="E98" t="n">
         <v>1066</v>
       </c>
-      <c r="F98" s="0" t="n">
+      <c r="F98" t="n">
         <v>1460</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" s="2" t="n">
         <v>45070</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99" t="n">
         <v>1969.65</v>
       </c>
-      <c r="D99" s="0" t="n">
+      <c r="D99" t="n">
         <v>23.415</v>
       </c>
-      <c r="E99" s="0" t="n">
+      <c r="E99" t="n">
         <v>1042</v>
       </c>
-      <c r="F99" s="0" t="n">
+      <c r="F99" t="n">
         <v>1425</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" s="2" t="n">
         <v>45071</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C100" t="n">
         <v>1948.25</v>
       </c>
-      <c r="D100" s="0" t="n">
+      <c r="D100" t="n">
         <v>23.005</v>
       </c>
-      <c r="E100" s="0" t="n">
+      <c r="E100" t="n">
         <v>1023</v>
       </c>
-      <c r="F100" s="0" t="n">
+      <c r="F100" t="n">
         <v>1414</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" s="2" t="n">
         <v>45072</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101" t="n">
         <v>1947.9</v>
       </c>
-      <c r="D101" s="0" t="n">
+      <c r="D101" t="n">
         <v>23.145</v>
       </c>
-      <c r="E101" s="0" t="n">
+      <c r="E101" t="n">
         <v>1025</v>
       </c>
-      <c r="F101" s="0" t="n">
+      <c r="F101" t="n">
         <v>1442</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" s="2" t="n">
         <v>45076</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C102" t="n">
         <v>1952.45</v>
       </c>
-      <c r="D102" s="0" t="n">
+      <c r="D102" t="n">
         <v>23.255</v>
       </c>
-      <c r="E102" s="0" t="n">
+      <c r="E102" t="n">
         <v>1027</v>
       </c>
-      <c r="F102" s="0" t="n">
+      <c r="F102" t="n">
         <v>1417</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" s="2" t="n">
         <v>45077</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103" t="n">
         <v>1964.4</v>
       </c>
-      <c r="E103" s="0" t="n">
+      <c r="D103" t="n">
+        <v>23.255</v>
+      </c>
+      <c r="E103" t="n">
         <v>1003</v>
       </c>
-      <c r="F103" s="0" t="n">
+      <c r="F103" t="n">
         <v>1390</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" s="2" t="n">
         <v>45078</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C104" t="n">
         <v>1974.35</v>
       </c>
-      <c r="D104" s="0" t="n">
+      <c r="D104" t="n">
         <v>23.49</v>
       </c>
-      <c r="E104" s="0" t="n">
+      <c r="E104" t="n">
         <v>1004</v>
       </c>
-      <c r="F104" s="0" t="n">
+      <c r="F104" t="n">
         <v>1372</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" s="2" t="n">
         <v>45079</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C105" t="n">
         <v>1963.25</v>
       </c>
-      <c r="D105" s="0" t="n">
+      <c r="D105" t="n">
         <v>23.885</v>
       </c>
-      <c r="E105" s="0" t="n">
+      <c r="E105" t="n">
         <v>1007</v>
       </c>
-      <c r="F105" s="0" t="n">
+      <c r="F105" t="n">
         <v>1419</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" s="2" t="n">
         <v>45082</v>
       </c>
-      <c r="C106" s="0" t="n">
+      <c r="C106" t="n">
         <v>1959.65</v>
       </c>
-      <c r="D106" s="0" t="n">
+      <c r="D106" t="n">
         <v>23.475</v>
       </c>
-      <c r="E106" s="0" t="n">
+      <c r="E106" t="n">
         <v>1017</v>
       </c>
-      <c r="F106" s="0" t="n">
+      <c r="F106" t="n">
         <v>1410</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" s="2" t="n">
         <v>45083</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C107" t="n">
         <v>1957.25</v>
       </c>
-      <c r="D107" s="0" t="n">
+      <c r="D107" t="n">
         <v>23.645</v>
       </c>
-      <c r="E107" s="0" t="n">
+      <c r="E107" t="n">
         <v>1028</v>
       </c>
-      <c r="F107" s="0" t="n">
+      <c r="F107" t="n">
         <v>1407</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" s="2" t="n">
         <v>45084</v>
       </c>
-      <c r="C108" s="0" t="n">
+      <c r="C108" t="n">
         <v>1967.35</v>
       </c>
-      <c r="D108" s="0" t="n">
+      <c r="D108" t="n">
         <v>23.585</v>
       </c>
-      <c r="E108" s="0" t="n">
+      <c r="E108" t="n">
         <v>1035</v>
       </c>
-      <c r="F108" s="0" t="n">
+      <c r="F108" t="n">
         <v>1411</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" s="2" t="n">
         <v>45085</v>
       </c>
-      <c r="C109" s="0" t="n">
+      <c r="C109" t="n">
         <v>1966.4</v>
       </c>
-      <c r="D109" s="0" t="n">
+      <c r="D109" t="n">
         <v>23.67</v>
       </c>
-      <c r="E109" s="0" t="n">
+      <c r="E109" t="n">
         <v>1020</v>
       </c>
-      <c r="F109" s="0" t="n">
+      <c r="F109" t="n">
         <v>1381</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" s="2" t="n">
         <v>45086</v>
       </c>
-      <c r="C110" s="0" t="n">
+      <c r="C110" t="n">
         <v>1960.3</v>
       </c>
-      <c r="D110" s="0" t="n">
+      <c r="D110" t="n">
         <v>24.315</v>
       </c>
-      <c r="E110" s="0" t="n">
+      <c r="E110" t="n">
         <v>1001</v>
       </c>
-      <c r="F110" s="0" t="n">
+      <c r="F110" t="n">
         <v>1324</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" s="2" t="n">
         <v>45089</v>
       </c>
-      <c r="C111" s="0" t="n">
+      <c r="C111" t="n">
         <v>1952.9</v>
       </c>
-      <c r="D111" s="0" t="n">
+      <c r="D111" t="n">
         <v>24.21</v>
       </c>
-      <c r="E111" s="0" t="n">
+      <c r="E111" t="n">
         <v>993</v>
       </c>
-      <c r="F111" s="0" t="n">
+      <c r="F111" t="n">
         <v>1330</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" s="2" t="n">
         <v>45090</v>
       </c>
-      <c r="C112" s="0" t="n">
+      <c r="C112" t="n">
         <v>1954.4</v>
       </c>
-      <c r="D112" s="0" t="n">
+      <c r="D112" t="n">
         <v>24.19</v>
       </c>
-      <c r="E112" s="0" t="n">
+      <c r="E112" t="n">
         <v>992</v>
       </c>
-      <c r="F112" s="0" t="n">
+      <c r="F112" t="n">
         <v>1372</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" s="2" t="n">
         <v>45091</v>
       </c>
-      <c r="C113" s="0" t="n">
+      <c r="C113" t="n">
         <v>1955.8</v>
       </c>
-      <c r="D113" s="0" t="n">
+      <c r="D113" t="n">
         <v>23.825</v>
       </c>
-      <c r="E113" s="0" t="n">
+      <c r="E113" t="n">
         <v>978</v>
       </c>
-      <c r="F113" s="0" t="n">
+      <c r="F113" t="n">
         <v>1395</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" s="2" t="n">
         <v>45092</v>
       </c>
-      <c r="C114" s="0" t="n">
+      <c r="C114" t="n">
         <v>1952.35</v>
       </c>
-      <c r="D114" s="0" t="n">
+      <c r="D114" t="n">
         <v>23.405</v>
       </c>
-      <c r="E114" s="0" t="n">
+      <c r="E114" t="n">
         <v>979</v>
       </c>
-      <c r="F114" s="0" t="n">
+      <c r="F114" t="n">
         <v>1368</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" s="2" t="n">
         <v>45093</v>
       </c>
-      <c r="C115" s="0" t="n">
+      <c r="C115" t="n">
         <v>1959.75</v>
       </c>
-      <c r="D115" s="0" t="n">
+      <c r="D115" t="n">
         <v>23.99</v>
       </c>
-      <c r="E115" s="0" t="n">
+      <c r="E115" t="n">
         <v>987</v>
       </c>
-      <c r="F115" s="0" t="n">
+      <c r="F115" t="n">
         <v>1398</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" s="2" t="n">
         <v>45096</v>
       </c>
-      <c r="C116" s="0" t="n">
+      <c r="C116" t="n">
         <v>1951.15</v>
       </c>
-      <c r="D116" s="0" t="n">
+      <c r="D116" t="n">
         <v>23.95</v>
       </c>
-      <c r="E116" s="0" t="n">
+      <c r="E116" t="n">
         <v>983</v>
       </c>
-      <c r="F116" s="0" t="n">
+      <c r="F116" t="n">
         <v>1393</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" s="2" t="n">
         <v>45097</v>
       </c>
-      <c r="C117" s="0" t="n">
+      <c r="C117" t="n">
         <v>1930.45</v>
       </c>
-      <c r="D117" s="0" t="n">
+      <c r="D117" t="n">
         <v>23.77</v>
       </c>
-      <c r="E117" s="0" t="n">
+      <c r="E117" t="n">
         <v>964</v>
       </c>
-      <c r="F117" s="0" t="n">
+      <c r="F117" t="n">
         <v>1398</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" s="2" t="n">
         <v>45098</v>
       </c>
-      <c r="C118" s="0" t="n">
+      <c r="C118" t="n">
         <v>1925.65</v>
       </c>
-      <c r="D118" s="0" t="n">
+      <c r="D118" t="n">
         <v>23.075</v>
       </c>
-      <c r="E118" s="0" t="n">
+      <c r="E118" t="n">
         <v>949</v>
       </c>
-      <c r="F118" s="0" t="n">
+      <c r="F118" t="n">
         <v>1343</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" s="2" t="n">
         <v>45099</v>
       </c>
-      <c r="C119" s="0" t="n">
+      <c r="C119" t="n">
         <v>1920.05</v>
       </c>
-      <c r="D119" s="0" t="n">
+      <c r="D119" t="n">
         <v>22.62</v>
       </c>
-      <c r="E119" s="0" t="n">
+      <c r="E119" t="n">
         <v>938</v>
       </c>
-      <c r="F119" s="0" t="n">
+      <c r="F119" t="n">
         <v>1319</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" s="2" t="n">
         <v>45100</v>
       </c>
-      <c r="C120" s="0" t="n">
+      <c r="C120" t="n">
         <v>1930.7</v>
       </c>
-      <c r="D120" s="0" t="n">
+      <c r="D120" t="n">
         <v>22.34</v>
       </c>
-      <c r="E120" s="0" t="n">
+      <c r="E120" t="n">
         <v>924</v>
       </c>
-      <c r="F120" s="0" t="n">
+      <c r="F120" t="n">
         <v>1279</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" s="2" t="n">
         <v>45103</v>
       </c>
-      <c r="C121" s="0" t="n">
+      <c r="C121" t="n">
         <v>1922.9</v>
       </c>
-      <c r="D121" s="0" t="n">
+      <c r="D121" t="n">
         <v>22.8</v>
       </c>
-      <c r="E121" s="0" t="n">
+      <c r="E121" t="n">
         <v>923</v>
       </c>
-      <c r="F121" s="0" t="n">
+      <c r="F121" t="n">
         <v>1322</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" s="2" t="n">
         <v>45104</v>
       </c>
-      <c r="C122" s="0" t="n">
+      <c r="C122" t="n">
         <v>1918.9</v>
       </c>
-      <c r="D122" s="0" t="n">
+      <c r="D122" t="n">
         <v>22.835</v>
       </c>
-      <c r="E122" s="0" t="n">
+      <c r="E122" t="n">
         <v>925</v>
       </c>
-      <c r="F122" s="0" t="n">
+      <c r="F122" t="n">
         <v>1315</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" s="2" t="n">
         <v>45105</v>
       </c>
-      <c r="C123" s="0" t="n">
+      <c r="C123" t="n">
         <v>1908.4</v>
       </c>
-      <c r="D123" s="0" t="n">
+      <c r="D123" t="n">
         <v>22.61</v>
       </c>
-      <c r="E123" s="0" t="n">
+      <c r="E123" t="n">
         <v>910</v>
       </c>
-      <c r="F123" s="0" t="n">
+      <c r="F123" t="n">
         <v>1225</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" s="2" t="n">
         <v>45106</v>
       </c>
-      <c r="C124" s="0" t="n">
+      <c r="C124" t="n">
         <v>1899.6</v>
       </c>
-      <c r="D124" s="0" t="n">
+      <c r="D124" t="n">
         <v>22.83</v>
       </c>
-      <c r="E124" s="0" t="n">
+      <c r="E124" t="n">
         <v>900</v>
       </c>
-      <c r="F124" s="0" t="n">
+      <c r="F124" t="n">
         <v>1223</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" s="2" t="n">
         <v>45107</v>
       </c>
-      <c r="C125" s="0" t="n">
+      <c r="C125" t="n">
         <v>1912.25</v>
       </c>
-      <c r="D125" s="0" t="n">
+      <c r="D125" t="n">
         <v>22.47</v>
       </c>
-      <c r="E125" s="0" t="n">
+      <c r="E125" t="n">
         <v>897</v>
       </c>
-      <c r="F125" s="0" t="n">
+      <c r="F125" t="n">
         <v>1254</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" s="2" t="n">
         <v>45110</v>
       </c>
-      <c r="C126" s="0" t="n">
+      <c r="C126" t="n">
         <v>1928.75</v>
       </c>
-      <c r="D126" s="0" t="n">
+      <c r="D126" t="n">
         <v>22.775</v>
       </c>
-      <c r="E126" s="0" t="n">
+      <c r="E126" t="n">
         <v>911</v>
       </c>
-      <c r="F126" s="0" t="n">
+      <c r="F126" t="n">
         <v>1233</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" s="2" t="n">
         <v>45111</v>
       </c>
-      <c r="C127" s="0" t="n">
+      <c r="C127" t="n">
         <v>1927.75</v>
       </c>
-      <c r="D127" s="0" t="n">
+      <c r="D127" t="n">
         <v>23.005</v>
       </c>
-      <c r="E127" s="0" t="n">
+      <c r="E127" t="n">
         <v>918</v>
       </c>
-      <c r="F127" s="0" t="n">
+      <c r="F127" t="n">
         <v>1241</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" s="2" t="n">
         <v>45112</v>
       </c>
-      <c r="C128" s="0" t="n">
+      <c r="C128" t="n">
         <v>1924.65</v>
       </c>
-      <c r="D128" s="0" t="n">
+      <c r="D128" t="n">
         <v>22.81</v>
       </c>
-      <c r="E128" s="0" t="n">
+      <c r="E128" t="n">
         <v>917</v>
       </c>
-      <c r="F128" s="0" t="n">
+      <c r="F128" t="n">
         <v>1246</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" s="2" t="n">
         <v>45113</v>
       </c>
-      <c r="C129" s="0" t="n">
+      <c r="C129" t="n">
         <v>1908.8</v>
       </c>
-      <c r="D129" s="0" t="n">
+      <c r="D129" t="n">
         <v>23.17</v>
       </c>
-      <c r="E129" s="0" t="n">
+      <c r="E129" t="n">
         <v>906</v>
       </c>
-      <c r="F129" s="0" t="n">
+      <c r="F129" t="n">
         <v>1249</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" s="2" t="n">
         <v>45114</v>
       </c>
-      <c r="C130" s="0" t="n">
+      <c r="C130" t="n">
         <v>1922.3</v>
       </c>
-      <c r="D130" s="0" t="n">
+      <c r="D130" t="n">
         <v>22.715</v>
       </c>
-      <c r="E130" s="0" t="n">
+      <c r="E130" t="n">
         <v>907</v>
       </c>
-      <c r="F130" s="0" t="n">
+      <c r="F130" t="n">
         <v>1239</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" s="2" t="n">
         <v>45117</v>
       </c>
-      <c r="C131" s="0" t="n">
+      <c r="C131" t="n">
         <v>1922.8</v>
       </c>
-      <c r="D131" s="0" t="n">
+      <c r="D131" t="n">
         <v>23.04</v>
       </c>
-      <c r="E131" s="0" t="n">
+      <c r="E131" t="n">
         <v>912</v>
       </c>
-      <c r="F131" s="0" t="n">
+      <c r="F131" t="n">
         <v>1200</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" s="2" t="n">
         <v>45118</v>
       </c>
-      <c r="C132" s="0" t="n">
+      <c r="C132" t="n">
         <v>1933.95</v>
       </c>
-      <c r="D132" s="0" t="n">
+      <c r="D132" t="n">
         <v>23.135</v>
       </c>
-      <c r="E132" s="0" t="n">
+      <c r="E132" t="n">
         <v>927</v>
       </c>
-      <c r="F132" s="0" t="n">
+      <c r="F132" t="n">
         <v>1236</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" s="2" t="n">
         <v>45119</v>
       </c>
-      <c r="C133" s="0" t="n">
+      <c r="C133" t="n">
         <v>1953.3</v>
       </c>
-      <c r="D133" s="0" t="n">
+      <c r="D133" t="n">
         <v>23.16</v>
       </c>
-      <c r="E133" s="0" t="n">
+      <c r="E133" t="n">
         <v>944</v>
       </c>
-      <c r="F133" s="0" t="n">
+      <c r="F133" t="n">
         <v>1279</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" s="2" t="n">
         <v>45120</v>
       </c>
-      <c r="C134" s="0" t="n">
+      <c r="C134" t="n">
         <v>1958.05</v>
       </c>
-      <c r="D134" s="0" t="n">
+      <c r="D134" t="n">
         <v>24.26</v>
       </c>
-      <c r="E134" s="0" t="n">
+      <c r="E134" t="n">
         <v>969</v>
       </c>
-      <c r="F134" s="0" t="n">
+      <c r="F134" t="n">
         <v>1280</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" s="2" t="n">
         <v>45121</v>
       </c>
-      <c r="C135" s="0" t="n">
+      <c r="C135" t="n">
         <v>1953.7</v>
       </c>
-      <c r="D135" s="0" t="n">
+      <c r="D135" t="n">
         <v>24.77</v>
       </c>
-      <c r="E135" s="0" t="n">
+      <c r="E135" t="n">
         <v>977</v>
       </c>
-      <c r="F135" s="0" t="n">
+      <c r="F135" t="n">
         <v>1267</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" s="2" t="n">
         <v>45124</v>
       </c>
-      <c r="C136" s="0" t="n">
+      <c r="C136" t="n">
         <v>1949.6</v>
       </c>
-      <c r="D136" s="0" t="n">
+      <c r="D136" t="n">
         <v>24.81</v>
       </c>
-      <c r="E136" s="0" t="n">
+      <c r="E136" t="n">
         <v>971</v>
       </c>
-      <c r="F136" s="0" t="n">
+      <c r="F136" t="n">
         <v>1270</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" s="2" t="n">
         <v>45125</v>
       </c>
-      <c r="C137" s="0" t="n">
+      <c r="C137" t="n">
         <v>1975</v>
       </c>
-      <c r="D137" s="0" t="n">
+      <c r="D137" t="n">
         <v>24.885</v>
       </c>
-      <c r="E137" s="0" t="n">
+      <c r="E137" t="n">
         <v>983</v>
       </c>
-      <c r="F137" s="0" t="n">
+      <c r="F137" t="n">
         <v>1318</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" s="2" t="n">
         <v>45126</v>
       </c>
-      <c r="C138" s="0" t="n">
+      <c r="C138" t="n">
         <v>1975.35</v>
       </c>
-      <c r="D138" s="0" t="n">
+      <c r="D138" t="n">
         <v>25.015</v>
       </c>
-      <c r="E138" s="0" t="n">
+      <c r="E138" t="n">
         <v>985</v>
       </c>
-      <c r="F138" s="0" t="n">
+      <c r="F138" t="n">
         <v>1309</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" s="2" t="n">
         <v>45127</v>
       </c>
-      <c r="C139" s="0" t="n">
+      <c r="C139" t="n">
         <v>1976.1</v>
       </c>
-      <c r="D139" s="0" t="n">
+      <c r="D139" t="n">
         <v>25.175</v>
       </c>
-      <c r="E139" s="0" t="n">
+      <c r="E139" t="n">
         <v>970</v>
       </c>
-      <c r="F139" s="0" t="n">
+      <c r="F139" t="n">
         <v>1297</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" s="2" t="n">
         <v>45128</v>
       </c>
-      <c r="C140" s="0" t="n">
+      <c r="C140" t="n">
         <v>1960.6</v>
       </c>
-      <c r="D140" s="0" t="n">
+      <c r="D140" t="n">
         <v>24.73</v>
       </c>
-      <c r="E140" s="0" t="n">
+      <c r="E140" t="n">
         <v>961</v>
       </c>
-      <c r="F140" s="0" t="n">
+      <c r="F140" t="n">
         <v>1298</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" s="2" t="n">
         <v>45131</v>
       </c>
-      <c r="C141" s="0" t="n">
+      <c r="C141" t="n">
         <v>1960</v>
       </c>
-      <c r="D141" s="0" t="n">
+      <c r="D141" t="n">
         <v>24.59</v>
       </c>
-      <c r="E141" s="0" t="n">
+      <c r="E141" t="n">
         <v>962</v>
       </c>
-      <c r="F141" s="0" t="n">
+      <c r="F141" t="n">
         <v>1287</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" s="2" t="n">
         <v>45132</v>
       </c>
-      <c r="C142" s="0" t="n">
+      <c r="C142" t="n">
         <v>1958.7</v>
       </c>
-      <c r="D142" s="0" t="n">
+      <c r="D142" t="n">
         <v>24.555</v>
       </c>
-      <c r="E142" s="0" t="n">
+      <c r="E142" t="n">
         <v>967</v>
       </c>
-      <c r="F142" s="0" t="n">
+      <c r="F142" t="n">
         <v>1290</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" s="2" t="n">
         <v>45133</v>
       </c>
-      <c r="C143" s="0" t="n">
+      <c r="C143" t="n">
         <v>1966.3</v>
       </c>
-      <c r="D143" s="0" t="n">
+      <c r="D143" t="n">
         <v>24.67</v>
       </c>
-      <c r="E143" s="0" t="n">
+      <c r="E143" t="n">
         <v>960</v>
       </c>
-      <c r="F143" s="0" t="n">
+      <c r="F143" t="n">
         <v>1254</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" s="2" t="n">
         <v>45134</v>
       </c>
-      <c r="C144" s="0" t="n">
+      <c r="C144" t="n">
         <v>1945.35</v>
       </c>
-      <c r="D144" s="0" t="n">
+      <c r="D144" t="n">
         <v>25.01</v>
       </c>
-      <c r="E144" s="0" t="n">
+      <c r="E144" t="n">
         <v>958</v>
       </c>
-      <c r="F144" s="0" t="n">
+      <c r="F144" t="n">
         <v>1246</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" s="2" t="n">
         <v>45135</v>
       </c>
-      <c r="C145" s="0" t="n">
+      <c r="C145" t="n">
         <v>1954.25</v>
       </c>
-      <c r="D145" s="0" t="n">
+      <c r="D145" t="n">
         <v>24.225</v>
       </c>
-      <c r="E145" s="0" t="n">
+      <c r="E145" t="n">
         <v>933</v>
       </c>
-      <c r="F145" s="0" t="n">
+      <c r="F145" t="n">
         <v>1241</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" s="2" t="n">
         <v>45138</v>
       </c>
-      <c r="C146" s="0" t="n">
+      <c r="C146" t="n">
         <v>1970.65</v>
       </c>
-      <c r="D146" s="0" t="n">
+      <c r="D146" t="n">
         <v>24.355</v>
       </c>
-      <c r="E146" s="0" t="n">
+      <c r="E146" t="n">
         <v>949</v>
       </c>
-      <c r="F146" s="0" t="n">
+      <c r="F146" t="n">
         <v>1274</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" s="2" t="n">
         <v>45139</v>
       </c>
-      <c r="C147" s="0" t="n">
+      <c r="C147" t="n">
         <v>1947.2</v>
       </c>
-      <c r="D147" s="0" t="n">
+      <c r="D147" t="n">
         <v>24.515</v>
       </c>
-      <c r="E147" s="0" t="n">
+      <c r="E147" t="n">
         <v>930</v>
       </c>
-      <c r="F147" s="0" t="n">
+      <c r="F147" t="n">
         <v>1238</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" s="2" t="n">
         <v>45140</v>
       </c>
-      <c r="C148" s="0" t="n">
+      <c r="C148" t="n">
         <v>1944.2</v>
       </c>
-      <c r="D148" s="0" t="n">
+      <c r="D148" t="n">
         <v>24.41</v>
       </c>
-      <c r="E148" s="0" t="n">
+      <c r="E148" t="n">
         <v>929</v>
       </c>
-      <c r="F148" s="0" t="n">
+      <c r="F148" t="n">
         <v>1244</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" s="2" t="n">
         <v>45141</v>
       </c>
-      <c r="C149" s="0" t="n">
+      <c r="C149" t="n">
         <v>1935.65</v>
       </c>
-      <c r="D149" s="0" t="n">
+      <c r="D149" t="n">
         <v>23.555</v>
       </c>
-      <c r="E149" s="0" t="n">
+      <c r="E149" t="n">
         <v>921</v>
       </c>
-      <c r="F149" s="0" t="n">
+      <c r="F149" t="n">
         <v>1250</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" s="2" t="n">
         <v>45142</v>
       </c>
-      <c r="C150" s="0" t="n">
+      <c r="C150" t="n">
         <v>1942.45</v>
       </c>
-      <c r="D150" s="0" t="n">
+      <c r="D150" t="n">
         <v>23.45</v>
       </c>
-      <c r="E150" s="0" t="n">
+      <c r="E150" t="n">
         <v>919</v>
       </c>
-      <c r="F150" s="0" t="n">
+      <c r="F150" t="n">
         <v>1258</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" s="2" t="n">
         <v>45145</v>
       </c>
-      <c r="C151" s="0" t="n">
+      <c r="C151" t="n">
         <v>1931.7</v>
       </c>
-      <c r="D151" s="0" t="n">
+      <c r="D151" t="n">
         <v>23.395</v>
       </c>
-      <c r="E151" s="0" t="n">
+      <c r="E151" t="n">
         <v>930</v>
       </c>
-      <c r="F151" s="0" t="n">
+      <c r="F151" t="n">
         <v>1261</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" s="2" t="n">
         <v>45146</v>
       </c>
-      <c r="C152" s="0" t="n">
+      <c r="C152" t="n">
         <v>1926.4</v>
       </c>
-      <c r="D152" s="0" t="n">
+      <c r="D152" t="n">
         <v>23.04</v>
       </c>
-      <c r="E152" s="0" t="n">
+      <c r="E152" t="n">
         <v>906</v>
       </c>
-      <c r="F152" s="0" t="n">
+      <c r="F152" t="n">
         <v>1214</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" s="2" t="n">
         <v>45147</v>
       </c>
-      <c r="C153" s="0" t="n">
+      <c r="C153" t="n">
         <v>1922.75</v>
       </c>
-      <c r="D153" s="0" t="n">
+      <c r="D153" t="n">
         <v>22.705</v>
       </c>
-      <c r="E153" s="0" t="n">
+      <c r="E153" t="n">
         <v>894</v>
       </c>
-      <c r="F153" s="0" t="n">
+      <c r="F153" t="n">
         <v>1222</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" s="2" t="n">
         <v>45148</v>
       </c>
-      <c r="C154" s="0" t="n">
+      <c r="C154" t="n">
         <v>1920.9</v>
       </c>
-      <c r="D154" s="0" t="n">
+      <c r="D154" t="n">
         <v>22.8</v>
       </c>
-      <c r="E154" s="0" t="n">
+      <c r="E154" t="n">
         <v>901</v>
       </c>
-      <c r="F154" s="0" t="n">
+      <c r="F154" t="n">
         <v>1269</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" s="2" t="n">
         <v>45149</v>
       </c>
-      <c r="C155" s="0" t="n">
+      <c r="C155" t="n">
         <v>1915.8</v>
       </c>
-      <c r="D155" s="0" t="n">
+      <c r="D155" t="n">
         <v>22.69</v>
       </c>
-      <c r="E155" s="0" t="n">
+      <c r="E155" t="n">
         <v>911</v>
       </c>
-      <c r="F155" s="0" t="n">
+      <c r="F155" t="n">
         <v>1324</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" s="2" t="n">
         <v>45152</v>
       </c>
-      <c r="C156" s="0" t="n">
+      <c r="C156" t="n">
         <v>1903.75</v>
       </c>
-      <c r="D156" s="0" t="n">
+      <c r="D156" t="n">
         <v>22.725</v>
       </c>
-      <c r="E156" s="0" t="n">
+      <c r="E156" t="n">
         <v>902</v>
       </c>
-      <c r="F156" s="0" t="n">
+      <c r="F156" t="n">
         <v>1275</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" s="2" t="n">
         <v>45153</v>
       </c>
-      <c r="C157" s="0" t="n">
+      <c r="C157" t="n">
         <v>1903.85</v>
       </c>
-      <c r="D157" s="0" t="n">
+      <c r="D157" t="n">
         <v>22.41</v>
       </c>
-      <c r="E157" s="0" t="n">
+      <c r="E157" t="n">
         <v>890</v>
       </c>
-      <c r="F157" s="0" t="n">
+      <c r="F157" t="n">
         <v>1246</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" s="2" t="n">
         <v>45154</v>
       </c>
-      <c r="C158" s="0" t="n">
+      <c r="C158" t="n">
         <v>1904.2</v>
       </c>
-      <c r="D158" s="0" t="n">
+      <c r="D158" t="n">
         <v>22.695</v>
       </c>
-      <c r="E158" s="0" t="n">
+      <c r="E158" t="n">
         <v>887</v>
       </c>
-      <c r="F158" s="0" t="n">
+      <c r="F158" t="n">
         <v>1218</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" s="2" t="n">
         <v>45155</v>
       </c>
-      <c r="C159" s="0" t="n">
+      <c r="C159" t="n">
         <v>1896.35</v>
       </c>
-      <c r="D159" s="0" t="n">
+      <c r="D159" t="n">
         <v>22.705</v>
       </c>
-      <c r="E159" s="0" t="n">
+      <c r="E159" t="n">
         <v>910</v>
       </c>
-      <c r="F159" s="0" t="n">
+      <c r="F159" t="n">
         <v>1233</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" s="2" t="n">
         <v>45156</v>
       </c>
-      <c r="C160" s="0" t="n">
+      <c r="C160" t="n">
         <v>1893.7</v>
       </c>
-      <c r="D160" s="0" t="n">
+      <c r="D160" t="n">
         <v>22.79</v>
       </c>
-      <c r="E160" s="0" t="n">
+      <c r="E160" t="n">
         <v>904</v>
       </c>
-      <c r="F160" s="0" t="n">
+      <c r="F160" t="n">
         <v>1229</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" s="2" t="n">
         <v>45159</v>
       </c>
-      <c r="C161" s="0" t="n">
+      <c r="C161" t="n">
         <v>1889.85</v>
       </c>
-      <c r="D161" s="0" t="n">
+      <c r="D161" t="n">
         <v>22.88</v>
       </c>
-      <c r="E161" s="0" t="n">
+      <c r="E161" t="n">
         <v>911</v>
       </c>
-      <c r="F161" s="0" t="n">
+      <c r="F161" t="n">
         <v>1240</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" s="2" t="n">
         <v>45160</v>
       </c>
-      <c r="C162" s="0" t="n">
+      <c r="C162" t="n">
         <v>1892.75</v>
       </c>
-      <c r="D162" s="0" t="n">
+      <c r="D162" t="n">
         <v>23.39</v>
       </c>
-      <c r="E162" s="0" t="n">
+      <c r="E162" t="n">
         <v>928</v>
       </c>
-      <c r="F162" s="0" t="n">
+      <c r="F162" t="n">
         <v>1289</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" s="2" t="n">
         <v>45161</v>
       </c>
-      <c r="C163" s="0" t="n">
+      <c r="C163" t="n">
         <v>1916.65</v>
       </c>
-      <c r="D163" s="0" t="n">
+      <c r="D163" t="n">
         <v>23.75</v>
       </c>
-      <c r="E163" s="0" t="n">
+      <c r="E163" t="n">
         <v>929</v>
       </c>
-      <c r="F163" s="0" t="n">
+      <c r="F163" t="n">
         <v>1282</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" s="2" t="n">
         <v>45162</v>
       </c>
-      <c r="C164" s="0" t="n">
+      <c r="C164" t="n">
         <v>1917.05</v>
       </c>
-      <c r="D164" s="0" t="n">
+      <c r="D164" t="n">
         <v>24.185</v>
       </c>
-      <c r="E164" s="0" t="n">
+      <c r="E164" t="n">
         <v>933</v>
       </c>
-      <c r="F164" s="0" t="n">
+      <c r="F164" t="n">
         <v>1244</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" s="2" t="n">
         <v>45163</v>
       </c>
-      <c r="C165" s="0" t="n">
+      <c r="C165" t="n">
         <v>1915.5</v>
       </c>
-      <c r="D165" s="0" t="n">
+      <c r="D165" t="n">
         <v>24.185</v>
       </c>
-      <c r="E165" s="0" t="n">
+      <c r="E165" t="n">
         <v>949</v>
       </c>
-      <c r="F165" s="0" t="n">
+      <c r="F165" t="n">
         <v>1233</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" s="2" t="n">
         <v>45167</v>
       </c>
-      <c r="C166" s="0" t="n">
+      <c r="C166" t="n">
         <v>1930</v>
       </c>
-      <c r="D166" s="0" t="n">
+      <c r="D166" t="n">
         <v>24.22</v>
       </c>
-      <c r="E166" s="0" t="n">
+      <c r="E166" t="n">
         <v>979</v>
       </c>
-      <c r="F166" s="0" t="n">
+      <c r="F166" t="n">
         <v>1224</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" s="2" t="n">
         <v>45168</v>
       </c>
-      <c r="C167" s="0" t="n">
+      <c r="C167" t="n">
         <v>1947.55</v>
       </c>
-      <c r="D167" s="0" t="n">
+      <c r="D167" t="n">
         <v>24.62</v>
       </c>
-      <c r="E167" s="0" t="n">
+      <c r="E167" t="n">
         <v>984</v>
       </c>
-      <c r="F167" s="0" t="n">
+      <c r="F167" t="n">
         <v>1237</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" s="2" t="n">
         <v>45169</v>
       </c>
-      <c r="C168" s="0" t="n">
+      <c r="C168" t="n">
         <v>1942.3</v>
       </c>
-      <c r="D168" s="0" t="n">
+      <c r="D168" t="n">
         <v>24.535</v>
       </c>
-      <c r="E168" s="0" t="n">
+      <c r="E168" t="n">
         <v>980</v>
       </c>
-      <c r="F168" s="0" t="n">
+      <c r="F168" t="n">
         <v>1225</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="C169" s="0" t="n">
+      <c r="C169" t="n">
         <v>1940.55</v>
       </c>
-      <c r="D169" s="0" t="n">
+      <c r="D169" t="n">
         <v>24.645</v>
       </c>
-      <c r="E169" s="0" t="n">
+      <c r="E169" t="n">
         <v>983</v>
       </c>
-      <c r="F169" s="0" t="n">
+      <c r="F169" t="n">
         <v>1227</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" s="2" t="n">
         <v>45173</v>
       </c>
-      <c r="C170" s="0" t="n">
+      <c r="C170" t="n">
         <v>1937.2</v>
       </c>
-      <c r="D170" s="0" t="n">
+      <c r="D170" t="n">
         <v>24.035</v>
       </c>
-      <c r="E170" s="0" t="n">
+      <c r="E170" t="n">
         <v>960</v>
       </c>
-      <c r="F170" s="0" t="n">
+      <c r="F170" t="n">
         <v>1231</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" s="2" t="n">
         <v>45174</v>
       </c>
-      <c r="C171" s="0" t="n">
+      <c r="C171" t="n">
         <v>1926.1</v>
       </c>
-      <c r="D171" s="0" t="n">
+      <c r="D171" t="n">
         <v>23.545</v>
       </c>
-      <c r="E171" s="0" t="n">
+      <c r="E171" t="n">
         <v>945</v>
       </c>
-      <c r="F171" s="0" t="n">
+      <c r="F171" t="n">
         <v>1205</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" s="2" t="n">
         <v>45175</v>
       </c>
-      <c r="C172" s="0" t="n">
+      <c r="C172" t="n">
         <v>1922.05</v>
       </c>
-      <c r="D172" s="0" t="n">
+      <c r="D172" t="n">
         <v>23.475</v>
       </c>
-      <c r="E172" s="0" t="n">
+      <c r="E172" t="n">
         <v>915</v>
       </c>
-      <c r="F172" s="0" t="n">
+      <c r="F172" t="n">
         <v>1201</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" s="2" t="n">
         <v>45176</v>
       </c>
-      <c r="C173" s="0" t="n">
+      <c r="C173" t="n">
         <v>1918.35</v>
       </c>
-      <c r="D173" s="0" t="n">
+      <c r="D173" t="n">
         <v>23.01</v>
       </c>
-      <c r="E173" s="0" t="n">
+      <c r="E173" t="n">
         <v>904</v>
       </c>
-      <c r="F173" s="0" t="n">
+      <c r="F173" t="n">
         <v>1207</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" s="2" t="n">
         <v>45177</v>
       </c>
-      <c r="C174" s="0" t="n">
+      <c r="C174" t="n">
         <v>1927.8</v>
       </c>
-      <c r="D174" s="0" t="n">
+      <c r="D174" t="n">
         <v>23.01</v>
       </c>
-      <c r="E174" s="0" t="n">
+      <c r="E174" t="n">
         <v>900</v>
       </c>
-      <c r="F174" s="0" t="n">
+      <c r="F174" t="n">
         <v>1207</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" s="2" t="n">
         <v>45180</v>
       </c>
-      <c r="C175" s="0" t="n">
+      <c r="C175" t="n">
         <v>1924.95</v>
       </c>
-      <c r="D175" s="0" t="n">
+      <c r="D175" t="n">
         <v>23.105</v>
       </c>
-      <c r="E175" s="0" t="n">
+      <c r="E175" t="n">
         <v>903</v>
       </c>
-      <c r="F175" s="0" t="n">
+      <c r="F175" t="n">
         <v>1215</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" s="2" t="n">
         <v>45181</v>
       </c>
-      <c r="C176" s="0" t="n">
+      <c r="C176" t="n">
         <v>1908.55</v>
       </c>
-      <c r="D176" s="0" t="n">
+      <c r="D176" t="n">
         <v>22.9</v>
       </c>
-      <c r="E176" s="0" t="n">
+      <c r="E176" t="n">
         <v>900</v>
       </c>
-      <c r="F176" s="0" t="n">
+      <c r="F176" t="n">
         <v>1212</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" s="2" t="n">
         <v>45182</v>
       </c>
-      <c r="C177" s="0" t="n">
+      <c r="C177" t="n">
         <v>1913.8</v>
       </c>
-      <c r="D177" s="0" t="n">
+      <c r="D177" t="n">
         <v>22.905</v>
       </c>
-      <c r="E177" s="0" t="n">
+      <c r="E177" t="n">
         <v>901</v>
       </c>
-      <c r="F177" s="0" t="n">
+      <c r="F177" t="n">
         <v>1234</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" s="2" t="n">
         <v>45183</v>
       </c>
-      <c r="C178" s="0" t="n">
+      <c r="C178" t="n">
         <v>1901.75</v>
       </c>
-      <c r="D178" s="0" t="n">
+      <c r="D178" t="n">
         <v>22.64</v>
       </c>
-      <c r="E178" s="0" t="n">
+      <c r="E178" t="n">
         <v>903</v>
       </c>
-      <c r="F178" s="0" t="n">
+      <c r="F178" t="n">
         <v>1259</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" s="2" t="n">
         <v>45184</v>
       </c>
-      <c r="C179" s="0" t="n">
+      <c r="C179" t="n">
         <v>1927.7</v>
       </c>
-      <c r="D179" s="0" t="n">
+      <c r="D179" t="n">
         <v>23.06</v>
       </c>
-      <c r="E179" s="0" t="n">
+      <c r="E179" t="n">
         <v>927</v>
       </c>
-      <c r="F179" s="0" t="n">
+      <c r="F179" t="n">
         <v>1270</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" s="2" t="n">
         <v>45187</v>
       </c>
-      <c r="C180" s="0" t="n">
+      <c r="C180" t="n">
         <v>1923.5</v>
       </c>
-      <c r="D180" s="0" t="n">
+      <c r="D180" t="n">
         <v>23.195</v>
       </c>
-      <c r="E180" s="0" t="n">
+      <c r="E180" t="n">
         <v>935</v>
       </c>
-      <c r="F180" s="0" t="n">
+      <c r="F180" t="n">
         <v>1247</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" s="2" t="n">
         <v>45188</v>
       </c>
-      <c r="C181" s="0" t="n">
+      <c r="C181" t="n">
         <v>1934.9</v>
       </c>
-      <c r="D181" s="0" t="n">
+      <c r="D181" t="n">
         <v>23.33</v>
       </c>
-      <c r="E181" s="0" t="n">
+      <c r="E181" t="n">
         <v>948</v>
       </c>
-      <c r="F181" s="0" t="n">
+      <c r="F181" t="n">
         <v>1272</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" s="2" t="n">
         <v>45189</v>
       </c>
-      <c r="C182" s="0" t="n">
+      <c r="C182" t="n">
         <v>1943.35</v>
       </c>
-      <c r="D182" s="0" t="n">
+      <c r="D182" t="n">
         <v>23.275</v>
       </c>
-      <c r="E182" s="0" t="n">
+      <c r="E182" t="n">
         <v>943</v>
       </c>
-      <c r="F182" s="0" t="n">
+      <c r="F182" t="n">
         <v>1292</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" s="2" t="n">
         <v>45190</v>
       </c>
-      <c r="C183" s="0" t="n">
+      <c r="C183" t="n">
         <v>1915</v>
       </c>
-      <c r="D183" s="0" t="n">
+      <c r="D183" t="n">
         <v>23.24</v>
       </c>
-      <c r="E183" s="0" t="n">
+      <c r="E183" t="n">
         <v>917</v>
       </c>
-      <c r="F183" s="0" t="n">
+      <c r="F183" t="n">
         <v>1242</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" s="2" t="n">
         <v>45191</v>
       </c>
-      <c r="C184" s="0" t="n">
+      <c r="C184" t="n">
         <v>1927.35</v>
       </c>
-      <c r="D184" s="0" t="n">
+      <c r="D184" t="n">
         <v>23.65</v>
       </c>
-      <c r="E184" s="0" t="n">
+      <c r="E184" t="n">
         <v>940</v>
       </c>
-      <c r="F184" s="0" t="n">
+      <c r="F184" t="n">
         <v>1275</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" s="2" t="n">
         <v>45194</v>
       </c>
-      <c r="C185" s="0" t="n">
+      <c r="C185" t="n">
         <v>1924.85</v>
       </c>
-      <c r="D185" s="0" t="n">
+      <c r="D185" t="n">
         <v>23.56</v>
       </c>
-      <c r="E185" s="0" t="n">
+      <c r="E185" t="n">
         <v>919</v>
       </c>
-      <c r="F185" s="0" t="n">
+      <c r="F185" t="n">
         <v>1241</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" s="2" t="n">
         <v>45195</v>
       </c>
-      <c r="C186" s="0" t="n">
+      <c r="C186" t="n">
         <v>1907.05</v>
       </c>
-      <c r="D186" s="0" t="n">
+      <c r="D186" t="n">
         <v>23.015</v>
       </c>
-      <c r="E186" s="0" t="n">
+      <c r="E186" t="n">
         <v>906</v>
       </c>
-      <c r="F186" s="0" t="n">
+      <c r="F186" t="n">
         <v>1213</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" s="2" t="n">
         <v>45196</v>
       </c>
-      <c r="C187" s="0" t="n">
+      <c r="C187" t="n">
         <v>1887.3</v>
       </c>
-      <c r="D187" s="0" t="n">
+      <c r="D187" t="n">
         <v>22.79</v>
       </c>
-      <c r="E187" s="0" t="n">
+      <c r="E187" t="n">
         <v>905</v>
       </c>
-      <c r="F187" s="0" t="n">
+      <c r="F187" t="n">
         <v>1241</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" s="2" t="n">
         <v>45197</v>
       </c>
-      <c r="C188" s="0" t="n">
+      <c r="C188" t="n">
         <v>1873.55</v>
       </c>
-      <c r="D188" s="0" t="n">
+      <c r="D188" t="n">
         <v>22.55</v>
       </c>
-      <c r="E188" s="0" t="n">
+      <c r="E188" t="n">
         <v>901</v>
       </c>
-      <c r="F188" s="0" t="n">
+      <c r="F188" t="n">
         <v>1245</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" s="2" t="n">
         <v>45198</v>
       </c>
-      <c r="C189" s="0" t="n">
+      <c r="C189" t="n">
         <v>1870.5</v>
       </c>
-      <c r="D189" s="0" t="n">
+      <c r="D189" t="n">
         <v>23.075</v>
       </c>
-      <c r="E189" s="0" t="n">
+      <c r="E189" t="n">
         <v>923</v>
       </c>
-      <c r="F189" s="0" t="n">
+      <c r="F189" t="n">
         <v>1289</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" s="2" t="n">
         <v>45201</v>
       </c>
-      <c r="C190" s="0" t="n">
+      <c r="C190" t="n">
         <v>1833.05</v>
       </c>
-      <c r="D190" s="0" t="n">
+      <c r="D190" t="n">
         <v>21.62</v>
       </c>
-      <c r="E190" s="0" t="n">
+      <c r="E190" t="n">
         <v>901</v>
       </c>
-      <c r="F190" s="0" t="n">
+      <c r="F190" t="n">
         <v>1214</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" s="2" t="n">
         <v>45202</v>
       </c>
-      <c r="C191" s="0" t="n">
+      <c r="C191" t="n">
         <v>1822.45</v>
       </c>
-      <c r="D191" s="0" t="n">
+      <c r="D191" t="n">
         <v>21.055</v>
       </c>
-      <c r="E191" s="0" t="n">
+      <c r="E191" t="n">
         <v>881</v>
       </c>
-      <c r="F191" s="0" t="n">
+      <c r="F191" t="n">
         <v>1183</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" s="2" t="n">
         <v>45203</v>
       </c>
-      <c r="C192" s="0" t="n">
+      <c r="C192" t="n">
         <v>1818.95</v>
       </c>
-      <c r="D192" s="0" t="n">
+      <c r="D192" t="n">
         <v>21.105</v>
       </c>
-      <c r="E192" s="0" t="n">
+      <c r="E192" t="n">
         <v>874</v>
       </c>
-      <c r="F192" s="0" t="n">
+      <c r="F192" t="n">
         <v>1177</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" s="2" t="n">
         <v>45204</v>
       </c>
-      <c r="C193" s="0" t="n">
+      <c r="C193" t="n">
         <v>1819.45</v>
       </c>
-      <c r="D193" s="0" t="n">
+      <c r="D193" t="n">
         <v>21.13</v>
       </c>
-      <c r="E193" s="0" t="n">
+      <c r="E193" t="n">
         <v>864</v>
       </c>
-      <c r="F193" s="0" t="n">
+      <c r="F193" t="n">
         <v>1157</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" s="2" t="n">
         <v>45205</v>
       </c>
-      <c r="C194" s="0" t="n">
+      <c r="C194" t="n">
         <v>1819.6</v>
       </c>
-      <c r="D194" s="0" t="n">
+      <c r="D194" t="n">
         <v>21.115</v>
       </c>
-      <c r="E194" s="0" t="n">
+      <c r="E194" t="n">
         <v>858</v>
       </c>
-      <c r="F194" s="0" t="n">
+      <c r="F194" t="n">
         <v>1146</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" s="2" t="n">
         <v>45208</v>
       </c>
-      <c r="C195" s="0" t="n">
+      <c r="C195" t="n">
         <v>1845.5</v>
       </c>
-      <c r="D195" s="0" t="n">
+      <c r="D195" t="n">
         <v>21.65</v>
       </c>
-      <c r="E195" s="0" t="n">
+      <c r="E195" t="n">
         <v>880</v>
       </c>
-      <c r="F195" s="0" t="n">
+      <c r="F195" t="n">
         <v>1132</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" s="2" t="n">
         <v>45209</v>
       </c>
-      <c r="C196" s="0" t="n">
+      <c r="C196" t="n">
         <v>1857</v>
       </c>
-      <c r="D196" s="0" t="n">
+      <c r="D196" t="n">
         <v>21.715</v>
       </c>
-      <c r="E196" s="0" t="n">
+      <c r="E196" t="n">
         <v>886</v>
       </c>
-      <c r="F196" s="0" t="n">
+      <c r="F196" t="n">
         <v>1129</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" s="2" t="n">
         <v>45210</v>
       </c>
-      <c r="C197" s="0" t="n">
+      <c r="C197" t="n">
         <v>1871.25</v>
       </c>
-      <c r="D197" s="0" t="n">
+      <c r="D197" t="n">
         <v>22.07</v>
       </c>
-      <c r="E197" s="0" t="n">
+      <c r="E197" t="n">
         <v>880</v>
       </c>
-      <c r="F197" s="0" t="n">
+      <c r="F197" t="n">
         <v>1162</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" s="2" t="n">
         <v>45211</v>
       </c>
-      <c r="C198" s="0" t="n">
+      <c r="C198" t="n">
         <v>1874</v>
       </c>
-      <c r="D198" s="0" t="n">
+      <c r="D198" t="n">
         <v>22.14</v>
       </c>
-      <c r="E198" s="0" t="n">
+      <c r="E198" t="n">
         <v>883</v>
       </c>
-      <c r="F198" s="0" t="n">
+      <c r="F198" t="n">
         <v>1164</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" s="2" t="n">
         <v>45212</v>
       </c>
-      <c r="C199" s="0" t="n">
+      <c r="C199" t="n">
         <v>1909.2</v>
       </c>
-      <c r="D199" s="0" t="n">
+      <c r="D199" t="n">
         <v>22.08</v>
       </c>
-      <c r="E199" s="0" t="n">
+      <c r="E199" t="n">
         <v>881</v>
       </c>
-      <c r="F199" s="0" t="n">
+      <c r="F199" t="n">
         <v>1141</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" s="2" t="n">
         <v>45215</v>
       </c>
-      <c r="C200" s="0" t="n">
+      <c r="C200" t="n">
         <v>1918.05</v>
       </c>
-      <c r="D200" s="0" t="n">
+      <c r="D200" t="n">
         <v>22.595</v>
       </c>
-      <c r="E200" s="0" t="n">
+      <c r="E200" t="n">
         <v>883</v>
       </c>
-      <c r="F200" s="0" t="n">
+      <c r="F200" t="n">
         <v>1135</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" s="2" t="n">
         <v>45216</v>
       </c>
-      <c r="C201" s="0" t="n">
+      <c r="C201" t="n">
         <v>1928.2</v>
       </c>
-      <c r="D201" s="0" t="n">
+      <c r="D201" t="n">
         <v>22.68</v>
       </c>
-      <c r="E201" s="0" t="n">
+      <c r="E201" t="n">
         <v>895</v>
       </c>
-      <c r="F201" s="0" t="n">
+      <c r="F201" t="n">
         <v>1135</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" s="2" t="n">
         <v>45217</v>
       </c>
-      <c r="C202" s="0" t="n">
+      <c r="C202" t="n">
         <v>1955.7</v>
       </c>
-      <c r="D202" s="0" t="n">
+      <c r="D202" t="n">
         <v>23.21</v>
       </c>
-      <c r="E202" s="0" t="n">
+      <c r="E202" t="n">
         <v>898</v>
       </c>
-      <c r="F202" s="0" t="n">
+      <c r="F202" t="n">
         <v>1130</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" s="2" t="n">
         <v>45218</v>
       </c>
-      <c r="C203" s="0" t="n">
+      <c r="C203" t="n">
         <v>1953.55</v>
       </c>
-      <c r="D203" s="0" t="n">
+      <c r="D203" t="n">
         <v>22.885</v>
       </c>
-      <c r="E203" s="0" t="n">
+      <c r="E203" t="n">
         <v>888</v>
       </c>
-      <c r="F203" s="0" t="n">
+      <c r="F203" t="n">
         <v>1107</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" s="2" t="n">
         <v>45219</v>
       </c>
-      <c r="C204" s="0" t="n">
+      <c r="C204" t="n">
         <v>1988.5</v>
       </c>
-      <c r="D204" s="0" t="n">
+      <c r="D204" t="n">
         <v>23.215</v>
       </c>
-      <c r="E204" s="0" t="n">
+      <c r="E204" t="n">
         <v>895</v>
       </c>
-      <c r="F204" s="0" t="n">
+      <c r="F204" t="n">
         <v>1101</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" s="2" t="n">
         <v>45222</v>
       </c>
-      <c r="C205" s="0" t="n">
+      <c r="C205" t="n">
         <v>1973</v>
       </c>
-      <c r="D205" s="0" t="n">
+      <c r="D205" t="n">
         <v>23.185</v>
       </c>
-      <c r="E205" s="0" t="n">
+      <c r="E205" t="n">
         <v>898</v>
       </c>
-      <c r="F205" s="0" t="n">
+      <c r="F205" t="n">
         <v>1113</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" s="2" t="n">
         <v>45223</v>
       </c>
-      <c r="C206" s="0" t="n">
+      <c r="C206" t="n">
         <v>1963.65</v>
       </c>
-      <c r="D206" s="0" t="n">
+      <c r="D206" t="n">
         <v>22.74</v>
       </c>
-      <c r="E206" s="0" t="n">
+      <c r="E206" t="n">
         <v>887</v>
       </c>
-      <c r="F206" s="0" t="n">
+      <c r="F206" t="n">
         <v>1120</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" s="2" t="n">
         <v>45224</v>
       </c>
-      <c r="C207" s="0" t="n">
+      <c r="C207" t="n">
         <v>1983.3</v>
       </c>
-      <c r="D207" s="0" t="n">
+      <c r="D207" t="n">
         <v>22.81</v>
       </c>
-      <c r="E207" s="0" t="n">
+      <c r="E207" t="n">
         <v>896</v>
       </c>
-      <c r="F207" s="0" t="n">
+      <c r="F207" t="n">
         <v>1136</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" s="2" t="n">
         <v>45225</v>
       </c>
-      <c r="C208" s="0" t="n">
+      <c r="C208" t="n">
         <v>1975</v>
       </c>
-      <c r="D208" s="0" t="n">
+      <c r="D208" t="n">
         <v>22.97</v>
       </c>
-      <c r="E208" s="0" t="n">
+      <c r="E208" t="n">
         <v>912</v>
       </c>
-      <c r="F208" s="0" t="n">
+      <c r="F208" t="n">
         <v>1123</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" s="2" t="n">
         <v>45226</v>
       </c>
-      <c r="C209" s="0" t="n">
+      <c r="C209" t="n">
         <v>1982.9</v>
       </c>
-      <c r="D209" s="0" t="n">
+      <c r="D209" t="n">
         <v>22.755</v>
       </c>
-      <c r="E209" s="0" t="n">
+      <c r="E209" t="n">
         <v>903</v>
       </c>
-      <c r="F209" s="0" t="n">
+      <c r="F209" t="n">
         <v>1139</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" s="2" t="n">
         <v>45229</v>
       </c>
-      <c r="C210" s="0" t="n">
+      <c r="C210" t="n">
         <v>1997.6</v>
       </c>
-      <c r="D210" s="0" t="n">
+      <c r="D210" t="n">
         <v>23.15</v>
       </c>
-      <c r="E210" s="0" t="n">
+      <c r="E210" t="n">
         <v>927</v>
       </c>
-      <c r="F210" s="0" t="n">
+      <c r="F210" t="n">
         <v>1146</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" s="2" t="n">
         <v>45230</v>
       </c>
-      <c r="C211" s="0" t="n">
+      <c r="C211" t="n">
         <v>1996.9</v>
       </c>
-      <c r="D211" s="0" t="n">
+      <c r="D211" t="n">
         <v>23.2</v>
       </c>
-      <c r="E211" s="0" t="n">
+      <c r="E211" t="n">
         <v>940</v>
       </c>
-      <c r="F211" s="0" t="n">
+      <c r="F211" t="n">
         <v>1136</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" s="2" t="n">
         <v>45231</v>
       </c>
-      <c r="C212" s="0" t="n">
+      <c r="C212" t="n">
         <v>1986.35</v>
       </c>
-      <c r="D212" s="0" t="n">
+      <c r="D212" t="n">
         <v>22.67</v>
       </c>
-      <c r="E212" s="0" t="n">
+      <c r="E212" t="n">
         <v>929</v>
       </c>
-      <c r="F212" s="0" t="n">
+      <c r="F212" t="n">
         <v>1129</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" s="2" t="n">
         <v>45232</v>
       </c>
-      <c r="C213" s="0" t="n">
+      <c r="C213" t="n">
         <v>1983.6</v>
       </c>
-      <c r="D213" s="0" t="n">
+      <c r="D213" t="n">
         <v>23.035</v>
       </c>
-      <c r="E213" s="0" t="n">
+      <c r="E213" t="n">
         <v>921</v>
       </c>
-      <c r="F213" s="0" t="n">
+      <c r="F213" t="n">
         <v>1117</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" s="2" t="n">
         <v>45233</v>
       </c>
-      <c r="C214" s="0" t="n">
+      <c r="C214" t="n">
         <v>1994.45</v>
       </c>
-      <c r="D214" s="0" t="n">
+      <c r="D214" t="n">
         <v>22.64</v>
       </c>
-      <c r="E214" s="0" t="n">
+      <c r="E214" t="n">
         <v>931</v>
       </c>
-      <c r="F214" s="0" t="n">
+      <c r="F214" t="n">
         <v>1110</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" s="2" t="n">
         <v>45236</v>
       </c>
-      <c r="C215" s="0" t="n">
+      <c r="C215" t="n">
         <v>1984.6</v>
       </c>
-      <c r="D215" s="0" t="n">
+      <c r="D215" t="n">
         <v>23.21</v>
       </c>
-      <c r="E215" s="0" t="n">
+      <c r="E215" t="n">
         <v>927</v>
       </c>
-      <c r="F215" s="0" t="n">
+      <c r="F215" t="n">
         <v>1123</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" s="2" t="n">
         <v>45237</v>
       </c>
-      <c r="C216" s="0" t="n">
+      <c r="C216" t="n">
         <v>1960.7</v>
       </c>
-      <c r="D216" s="0" t="n">
+      <c r="D216" t="n">
         <v>22.535</v>
       </c>
-      <c r="E216" s="0" t="n">
+      <c r="E216" t="n">
         <v>899</v>
       </c>
-      <c r="F216" s="0" t="n">
+      <c r="F216" t="n">
         <v>1070</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" s="2" t="n">
         <v>45238</v>
       </c>
-      <c r="C217" s="0" t="n">
+      <c r="C217" t="n">
         <v>1959.35</v>
       </c>
-      <c r="D217" s="0" t="n">
+      <c r="D217" t="n">
         <v>22.44</v>
       </c>
-      <c r="E217" s="0" t="n">
+      <c r="E217" t="n">
         <v>880</v>
       </c>
-      <c r="F217" s="0" t="n">
+      <c r="F217" t="n">
         <v>1016</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" s="2" t="n">
         <v>45239</v>
       </c>
-      <c r="C218" s="0" t="n">
+      <c r="C218" t="n">
         <v>1957.45</v>
       </c>
-      <c r="D218" s="0" t="n">
+      <c r="D218" t="n">
         <v>22.55</v>
       </c>
-      <c r="E218" s="0" t="n">
+      <c r="E218" t="n">
         <v>868</v>
       </c>
-      <c r="F218" s="0" t="n">
+      <c r="F218" t="n">
         <v>1025</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" s="2" t="n">
         <v>45240</v>
       </c>
-      <c r="C219" s="0" t="n">
+      <c r="C219" t="n">
         <v>1941.65</v>
       </c>
-      <c r="D219" s="0" t="n">
+      <c r="D219" t="n">
         <v>22.495</v>
       </c>
-      <c r="E219" s="0" t="n">
+      <c r="E219" t="n">
         <v>853</v>
       </c>
-      <c r="F219" s="0" t="n">
+      <c r="F219" t="n">
         <v>970</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" s="2" t="n">
         <v>45243</v>
       </c>
-      <c r="C220" s="0" t="n">
+      <c r="C220" t="n">
         <v>1931.15</v>
       </c>
-      <c r="D220" s="0" t="n">
+      <c r="D220" t="n">
         <v>22.075</v>
       </c>
-      <c r="E220" s="0" t="n">
+      <c r="E220" t="n">
         <v>850</v>
       </c>
-      <c r="F220" s="0" t="n">
+      <c r="F220" t="n">
         <v>963</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" s="2" t="n">
         <v>45244</v>
       </c>
-      <c r="C221" s="0" t="n">
+      <c r="C221" t="n">
         <v>1969.05</v>
       </c>
-      <c r="D221" s="0" t="n">
+      <c r="D221" t="n">
         <v>22.35</v>
       </c>
-      <c r="E221" s="0" t="n">
+      <c r="E221" t="n">
         <v>877</v>
       </c>
-      <c r="F221" s="0" t="n">
+      <c r="F221" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" s="2" t="n">
         <v>45245</v>
       </c>
-      <c r="C222" s="0" t="n">
+      <c r="C222" t="n">
         <v>1958.2</v>
       </c>
-      <c r="D222" s="0" t="n">
+      <c r="D222" t="n">
         <v>23.41</v>
       </c>
-      <c r="E222" s="0" t="n">
+      <c r="E222" t="n">
         <v>897</v>
       </c>
-      <c r="F222" s="0" t="n">
+      <c r="F222" t="n">
         <v>1021</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" s="2" t="n">
         <v>45246</v>
       </c>
-      <c r="C223" s="0" t="n">
+      <c r="C223" t="n">
         <v>1980.1</v>
       </c>
-      <c r="D223" s="0" t="n">
+      <c r="D223" t="n">
         <v>23.67</v>
       </c>
-      <c r="E223" s="0" t="n">
+      <c r="E223" t="n">
         <v>900</v>
       </c>
-      <c r="F223" s="0" t="n">
+      <c r="F223" t="n">
         <v>1031</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" s="2" t="n">
         <v>45247</v>
       </c>
-      <c r="C224" s="0" t="n">
+      <c r="C224" t="n">
         <v>1981.05</v>
       </c>
-      <c r="D224" s="0" t="n">
+      <c r="D224" t="n">
         <v>23.995</v>
       </c>
-      <c r="E224" s="0" t="n">
+      <c r="E224" t="n">
         <v>901</v>
       </c>
-      <c r="F224" s="0" t="n">
+      <c r="F224" t="n">
         <v>1040</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" s="2" t="n">
         <v>45250</v>
       </c>
-      <c r="C225" s="0" t="n">
+      <c r="C225" t="n">
         <v>1968.7</v>
       </c>
-      <c r="D225" s="0" t="n">
+      <c r="D225" t="n">
         <v>23.385</v>
       </c>
-      <c r="E225" s="0" t="n">
+      <c r="E225" t="n">
         <v>899</v>
       </c>
-      <c r="F225" s="0" t="n">
+      <c r="F225" t="n">
         <v>1073</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" s="2" t="n">
         <v>45251</v>
       </c>
-      <c r="C226" s="0" t="n">
+      <c r="C226" t="n">
         <v>2006.6</v>
       </c>
-      <c r="D226" s="0" t="n">
+      <c r="D226" t="n">
         <v>23.53</v>
       </c>
-      <c r="E226" s="0" t="n">
+      <c r="E226" t="n">
         <v>931</v>
       </c>
-      <c r="F226" s="0" t="n">
+      <c r="F226" t="n">
         <v>1075</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B227" s="2" t="n">
         <v>45252</v>
       </c>
-      <c r="C227" s="0" t="n">
+      <c r="C227" t="n">
         <v>1997.55</v>
       </c>
-      <c r="D227" s="0" t="n">
+      <c r="D227" t="n">
         <v>23.835</v>
       </c>
-      <c r="E227" s="0" t="n">
+      <c r="E227" t="n">
         <v>931</v>
       </c>
-      <c r="F227" s="0" t="n">
+      <c r="F227" t="n">
         <v>1066</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" s="2" t="n">
         <v>45253</v>
       </c>
-      <c r="C228" s="0" t="n">
+      <c r="C228" t="n">
         <v>1992.85</v>
       </c>
-      <c r="D228" s="0" t="n">
+      <c r="D228" t="n">
         <v>23.655</v>
       </c>
-      <c r="E228" s="0" t="n">
+      <c r="E228" t="n">
         <v>921</v>
       </c>
-      <c r="F228" s="0" t="n">
+      <c r="F228" t="n">
         <v>1057</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B229" s="2" t="n">
         <v>45254</v>
       </c>
-      <c r="C229" s="0" t="n">
+      <c r="C229" t="n">
         <v>2000.85</v>
       </c>
-      <c r="D229" s="0" t="n">
+      <c r="D229" t="n">
         <v>23.705</v>
       </c>
-      <c r="E229" s="0" t="n">
+      <c r="E229" t="n">
         <v>916</v>
       </c>
-      <c r="F229" s="0" t="n">
+      <c r="F229" t="n">
         <v>1048</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B230" s="2" t="n">
         <v>45257</v>
       </c>
-      <c r="C230" s="0" t="n">
+      <c r="C230" t="n">
         <v>2013.7</v>
       </c>
-      <c r="D230" s="0" t="n">
+      <c r="D230" t="n">
         <v>24.755</v>
       </c>
-      <c r="E230" s="0" t="n">
+      <c r="E230" t="n">
         <v>924</v>
       </c>
-      <c r="F230" s="0" t="n">
+      <c r="F230" t="n">
         <v>1064</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B231" s="2" t="n">
         <v>45258</v>
       </c>
-      <c r="C231" s="0" t="n">
+      <c r="C231" t="n">
         <v>2025.65</v>
       </c>
-      <c r="D231" s="0" t="n">
+      <c r="D231" t="n">
         <v>24.65</v>
       </c>
-      <c r="E231" s="0" t="n">
+      <c r="E231" t="n">
         <v>928</v>
       </c>
-      <c r="F231" s="0" t="n">
+      <c r="F231" t="n">
         <v>1059</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B232" s="2" t="n">
         <v>45259</v>
       </c>
-      <c r="C232" s="0" t="n">
+      <c r="C232" t="n">
         <v>2046.95</v>
       </c>
-      <c r="D232" s="0" t="n">
+      <c r="D232" t="n">
         <v>24.965</v>
       </c>
-      <c r="E232" s="0" t="n">
+      <c r="E232" t="n">
         <v>932</v>
       </c>
-      <c r="F232" s="0" t="n">
+      <c r="F232" t="n">
         <v>1024</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B233" s="2" t="n">
         <v>45260</v>
       </c>
-      <c r="C233" s="0" t="n">
+      <c r="C233" t="n">
         <v>2035.45</v>
       </c>
-      <c r="D233" s="0" t="n">
+      <c r="D233" t="n">
         <v>25.02</v>
       </c>
-      <c r="E233" s="0" t="n">
+      <c r="E233" t="n">
         <v>937</v>
       </c>
-      <c r="F233" s="0" t="n">
+      <c r="F233" t="n">
         <v>1025</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234">
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B234" s="2" t="n">
         <v>45261</v>
       </c>
-      <c r="C234" s="0" t="n">
+      <c r="C234" t="n">
         <v>2045.4</v>
       </c>
-      <c r="D234" s="0" t="n">
+      <c r="D234" t="n">
         <v>25.16</v>
       </c>
-      <c r="E234" s="0" t="n">
+      <c r="E234" t="n">
         <v>929</v>
       </c>
-      <c r="F234" s="0" t="n">
+      <c r="F234" t="n">
         <v>1009</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235">
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
       <c r="B235" s="2" t="n">
         <v>45264</v>
       </c>
-      <c r="C235" s="0" t="n">
+      <c r="C235" t="n">
         <v>2049.05</v>
       </c>
-      <c r="D235" s="0" t="n">
+      <c r="D235" t="n">
         <v>25.165</v>
       </c>
-      <c r="E235" s="0" t="n">
+      <c r="E235" t="n">
         <v>930</v>
       </c>
-      <c r="F235" s="0" t="n">
+      <c r="F235" t="n">
         <v>972</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236">
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
       <c r="B236" s="2" t="n">
         <v>45265</v>
       </c>
-      <c r="C236" s="0" t="n">
+      <c r="C236" t="n">
         <v>2023.35</v>
       </c>
-      <c r="D236" s="0" t="n">
+      <c r="D236" t="n">
         <v>24.27</v>
       </c>
-      <c r="E236" s="0" t="n">
+      <c r="E236" t="n">
         <v>908</v>
       </c>
-      <c r="F236" s="0" t="n">
+      <c r="F236" t="n">
         <v>965</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237">
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
       <c r="B237" s="2" t="n">
         <v>45266</v>
       </c>
-      <c r="C237" s="0" t="n">
+      <c r="C237" t="n">
         <v>2026.4</v>
       </c>
-      <c r="D237" s="0" t="n">
+      <c r="D237" t="n">
         <v>24.095</v>
       </c>
-      <c r="E237" s="0" t="n">
+      <c r="E237" t="n">
         <v>905</v>
       </c>
-      <c r="F237" s="0" t="n">
+      <c r="F237" t="n">
         <v>957</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238">
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
       <c r="B238" s="2" t="n">
         <v>45267</v>
       </c>
-      <c r="C238" s="0" t="n">
+      <c r="C238" t="n">
         <v>2026.9</v>
       </c>
-      <c r="D238" s="0" t="n">
+      <c r="D238" t="n">
         <v>23.91</v>
       </c>
-      <c r="E238" s="0" t="n">
+      <c r="E238" t="n">
         <v>909</v>
       </c>
-      <c r="F238" s="0" t="n">
+      <c r="F238" t="n">
         <v>976</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239">
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
       <c r="B239" s="2" t="n">
         <v>45268</v>
       </c>
-      <c r="C239" s="0" t="n">
+      <c r="C239" t="n">
         <v>2008.1</v>
       </c>
-      <c r="D239" s="0" t="n">
+      <c r="D239" t="n">
         <v>23.79</v>
       </c>
-      <c r="E239" s="0" t="n">
+      <c r="E239" t="n">
         <v>917</v>
       </c>
-      <c r="F239" s="0" t="n">
+      <c r="F239" t="n">
         <v>975</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240">
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
       <c r="B240" s="2" t="n">
         <v>45271</v>
       </c>
-      <c r="C240" s="0" t="n">
+      <c r="C240" t="n">
         <v>1986.65</v>
       </c>
-      <c r="D240" s="0" t="n">
+      <c r="D240" t="n">
         <v>22.92</v>
       </c>
-      <c r="E240" s="0" t="n">
+      <c r="E240" t="n">
         <v>926</v>
       </c>
-      <c r="F240" s="0" t="n">
+      <c r="F240" t="n">
         <v>958</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241">
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
       <c r="B241" s="2" t="n">
         <v>45272</v>
       </c>
-      <c r="C241" s="0" t="n">
+      <c r="C241" t="n">
         <v>1980.85</v>
       </c>
-      <c r="D241" s="0" t="n">
+      <c r="D241" t="n">
         <v>22.955</v>
       </c>
-      <c r="E241" s="0" t="n">
+      <c r="E241" t="n">
         <v>921</v>
       </c>
-      <c r="F241" s="0" t="n">
+      <c r="F241" t="n">
         <v>980</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242">
       <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
       <c r="B242" s="2" t="n">
         <v>45273</v>
       </c>
-      <c r="C242" s="0" t="n">
+      <c r="C242" t="n">
         <v>1982.5</v>
       </c>
-      <c r="D242" s="0" t="n">
+      <c r="D242" t="n">
         <v>22.725</v>
       </c>
-      <c r="E242" s="0" t="n">
+      <c r="E242" t="n">
         <v>923</v>
       </c>
-      <c r="F242" s="0" t="n">
+      <c r="F242" t="n">
         <v>979</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243">
       <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
       <c r="B243" s="2" t="n">
         <v>45274</v>
       </c>
-      <c r="C243" s="0" t="n">
+      <c r="C243" t="n">
         <v>2046.1</v>
       </c>
-      <c r="D243" s="0" t="n">
+      <c r="D243" t="n">
         <v>23.99</v>
       </c>
-      <c r="E243" s="0" t="n">
+      <c r="E243" t="n">
         <v>944</v>
       </c>
-      <c r="F243" s="0" t="n">
+      <c r="F243" t="n">
         <v>1032</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244">
       <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
       <c r="B244" s="2" t="n">
         <v>45275</v>
       </c>
-      <c r="C244" s="0" t="n">
+      <c r="C244" t="n">
         <v>2032.3</v>
       </c>
-      <c r="D244" s="0" t="n">
+      <c r="D244" t="n">
         <v>24.19</v>
       </c>
-      <c r="E244" s="0" t="n">
+      <c r="E244" t="n">
         <v>946</v>
       </c>
-      <c r="F244" s="0" t="n">
+      <c r="F244" t="n">
         <v>1130</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245">
       <c r="A245" s="1" t="n">
         <v>243</v>
       </c>
+      <c r="B245" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C245" t="n">
+        <v>2023.95</v>
+      </c>
+      <c r="D245" t="n">
+        <v>23.935</v>
+      </c>
+      <c r="E245" t="n">
+        <v>958</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" s="2" t="n">
+        <v>45279</v>
+      </c>
+      <c r="C246" t="n">
+        <v>2041.35</v>
+      </c>
+      <c r="D246" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="E246" t="n">
+        <v>950</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="C247" t="n">
+        <v>2035.55</v>
+      </c>
+      <c r="D247" t="n">
+        <v>23.97</v>
+      </c>
+      <c r="E247" t="n">
+        <v>964</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C248" t="n">
+        <v>2041.7</v>
+      </c>
+      <c r="D248" t="n">
+        <v>24.185</v>
+      </c>
+      <c r="E248" t="n">
+        <v>958</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" s="2" t="n">
+        <v>45282</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0</v>
+      </c>
+      <c r="D249" t="n">
+        <v>24.46</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" s="2" t="n">
+        <v>45287</v>
+      </c>
+      <c r="C250" t="n">
+        <v>2069.4</v>
+      </c>
+      <c r="D250" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="E250" t="n">
+        <v>976</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C251" t="n">
+        <v>2078.4</v>
+      </c>
+      <c r="D251" t="n">
+        <v>24.255</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F251" t="n">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0</v>
+      </c>
+      <c r="D252" t="n">
+        <v>23.79</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="C253" t="n">
+        <v>2067.55</v>
+      </c>
+      <c r="D253" t="n">
+        <v>23.945</v>
+      </c>
+      <c r="E253" t="n">
+        <v>988</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C254" t="n">
+        <v>2042.1</v>
+      </c>
+      <c r="D254" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="E254" t="n">
+        <v>970</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="C255" t="n">
+        <v>2039.55</v>
+      </c>
+      <c r="D255" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="E255" t="n">
+        <v>967</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="C256" t="n">
+        <v>2056.35</v>
+      </c>
+      <c r="D256" t="n">
+        <v>22.98</v>
+      </c>
+      <c r="E256" t="n">
+        <v>956</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2025.1</v>
+      </c>
+      <c r="D257" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="E257" t="n">
+        <v>948</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1003</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F257"/>
+  <dimension ref="A1:F258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5584,6 +5584,26 @@
         <v>1003</v>
       </c>
     </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C258" t="n">
+        <v>2034.9</v>
+      </c>
+      <c r="D258" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="E258" t="n">
+        <v>940</v>
+      </c>
+      <c r="F258" t="n">
+        <v>985</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F258"/>
+  <dimension ref="A1:F259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5604,6 +5604,26 @@
         <v>985</v>
       </c>
     </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C259" t="n">
+        <v>2026.8</v>
+      </c>
+      <c r="D259" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="E259" t="n">
+        <v>930</v>
+      </c>
+      <c r="F259" t="n">
+        <v>997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F259"/>
+  <dimension ref="A1:F260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5624,6 +5624,26 @@
         <v>997</v>
       </c>
     </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C260" t="n">
+        <v>2029.15</v>
+      </c>
+      <c r="D260" t="n">
+        <v>23.03</v>
+      </c>
+      <c r="E260" t="n">
+        <v>924</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F260"/>
+  <dimension ref="A1:F261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5644,6 +5644,26 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="C261" t="n">
+        <v>2055.65</v>
+      </c>
+      <c r="D261" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="E261" t="n">
+        <v>928</v>
+      </c>
+      <c r="F261" t="n">
+        <v>996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F261"/>
+  <dimension ref="A1:F262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5664,6 +5664,26 @@
         <v>996</v>
       </c>
     </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C262" t="n">
+        <v>2049.9</v>
+      </c>
+      <c r="D262" t="n">
+        <v>23.21</v>
+      </c>
+      <c r="E262" t="n">
+        <v>916</v>
+      </c>
+      <c r="F262" t="n">
+        <v>963</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F262"/>
+  <dimension ref="A1:F263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5684,6 +5684,26 @@
         <v>963</v>
       </c>
     </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="C263" t="n">
+        <v>2038.15</v>
+      </c>
+      <c r="D263" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="E263" t="n">
+        <v>904</v>
+      </c>
+      <c r="F263" t="n">
+        <v>944</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F263"/>
+  <dimension ref="A1:F264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5704,6 +5704,26 @@
         <v>944</v>
       </c>
     </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="C264" t="n">
+        <v>2011.75</v>
+      </c>
+      <c r="D264" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="E264" t="n">
+        <v>897</v>
+      </c>
+      <c r="F264" t="n">
+        <v>927</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F264"/>
+  <dimension ref="A1:F265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5724,6 +5724,26 @@
         <v>927</v>
       </c>
     </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="C265" t="n">
+        <v>2013.2</v>
+      </c>
+      <c r="D265" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="E265" t="n">
+        <v>894</v>
+      </c>
+      <c r="F265" t="n">
+        <v>937</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F265"/>
+  <dimension ref="A1:F266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5744,6 +5744,26 @@
         <v>937</v>
       </c>
     </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C266" t="n">
+        <v>2028.55</v>
+      </c>
+      <c r="D266" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E266" t="n">
+        <v>908</v>
+      </c>
+      <c r="F266" t="n">
+        <v>942</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F266"/>
+  <dimension ref="A1:F267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5764,6 +5764,26 @@
         <v>942</v>
       </c>
     </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2021.6</v>
+      </c>
+      <c r="D267" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E267" t="n">
+        <v>902</v>
+      </c>
+      <c r="F267" t="n">
+        <v>925</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F267"/>
+  <dimension ref="A1:F268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5784,6 +5784,26 @@
         <v>925</v>
       </c>
     </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C268" t="n">
+        <v>2022.95</v>
+      </c>
+      <c r="D268" t="n">
+        <v>22.26</v>
+      </c>
+      <c r="E268" t="n">
+        <v>906</v>
+      </c>
+      <c r="F268" t="n">
+        <v>938</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F268"/>
+  <dimension ref="A1:F269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5804,6 +5804,26 @@
         <v>938</v>
       </c>
     </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="C269" t="n">
+        <v>2024.65</v>
+      </c>
+      <c r="D269" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="E269" t="n">
+        <v>911</v>
+      </c>
+      <c r="F269" t="n">
+        <v>971</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F269"/>
+  <dimension ref="A1:F270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5824,6 +5824,26 @@
         <v>971</v>
       </c>
     </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="C270" t="n">
+        <v>2023.75</v>
+      </c>
+      <c r="D270" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F270"/>
+  <dimension ref="A1:F271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5844,6 +5844,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="C271" t="n">
+        <v>2018.45</v>
+      </c>
+      <c r="D271" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="E271" t="n">
+        <v>907</v>
+      </c>
+      <c r="F271" t="n">
+        <v>946</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F271"/>
+  <dimension ref="A1:F272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5864,6 +5864,26 @@
         <v>946</v>
       </c>
     </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C272" t="n">
+        <v>2022.5</v>
+      </c>
+      <c r="D272" t="n">
+        <v>23</v>
+      </c>
+      <c r="E272" t="n">
+        <v>923</v>
+      </c>
+      <c r="F272" t="n">
+        <v>975</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F272"/>
+  <dimension ref="A1:F273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5884,6 +5884,26 @@
         <v>975</v>
       </c>
     </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2043.05</v>
+      </c>
+      <c r="D273" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="E273" t="n">
+        <v>925</v>
+      </c>
+      <c r="F273" t="n">
+        <v>980</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F273"/>
+  <dimension ref="A1:F274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5904,6 +5904,26 @@
         <v>980</v>
       </c>
     </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2053.25</v>
+      </c>
+      <c r="D274" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="E274" t="n">
+        <v>924</v>
+      </c>
+      <c r="F274" t="n">
+        <v>972</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F274"/>
+  <dimension ref="A1:F275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5924,6 +5924,26 @@
         <v>972</v>
       </c>
     </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C275" t="n">
+        <v>2045.85</v>
+      </c>
+      <c r="D275" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="E275" t="n">
+        <v>907</v>
+      </c>
+      <c r="F275" t="n">
+        <v>952</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F275"/>
+  <dimension ref="A1:F276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5944,6 +5944,26 @@
         <v>952</v>
       </c>
     </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" s="2" t="n">
+        <v>45324</v>
+      </c>
+      <c r="C276" t="n">
+        <v>2034.15</v>
+      </c>
+      <c r="D276" t="n">
+        <v>23.23</v>
+      </c>
+      <c r="E276" t="n">
+        <v>905</v>
+      </c>
+      <c r="F276" t="n">
+        <v>954</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F276"/>
+  <dimension ref="A1:F277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5964,6 +5964,26 @@
         <v>954</v>
       </c>
     </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C277" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D277" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E277" t="n">
+        <v>900</v>
+      </c>
+      <c r="F277" t="n">
+        <v>945</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F277"/>
+  <dimension ref="A1:F278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5984,6 +5984,26 @@
         <v>945</v>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" s="2" t="n">
+        <v>45328</v>
+      </c>
+      <c r="C278" t="n">
+        <v>2030.8</v>
+      </c>
+      <c r="D278" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="E278" t="n">
+        <v>907</v>
+      </c>
+      <c r="F278" t="n">
+        <v>951</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F278"/>
+  <dimension ref="A1:F279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6004,6 +6004,26 @@
         <v>951</v>
       </c>
     </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C279" t="n">
+        <v>2041.6</v>
+      </c>
+      <c r="D279" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="E279" t="n">
+        <v>890</v>
+      </c>
+      <c r="F279" t="n">
+        <v>934</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F279"/>
+  <dimension ref="A1:F280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6024,6 +6024,26 @@
         <v>934</v>
       </c>
     </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C280" t="n">
+        <v>2028.65</v>
+      </c>
+      <c r="D280" t="n">
+        <v>22.35</v>
+      </c>
+      <c r="E280" t="n">
+        <v>878</v>
+      </c>
+      <c r="F280" t="n">
+        <v>881</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F280"/>
+  <dimension ref="A1:F281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6044,6 +6044,26 @@
         <v>881</v>
       </c>
     </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C281" t="n">
+        <v>2023.5</v>
+      </c>
+      <c r="D281" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="E281" t="n">
+        <v>879</v>
+      </c>
+      <c r="F281" t="n">
+        <v>875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F281"/>
+  <dimension ref="A1:F282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6064,6 +6064,26 @@
         <v>875</v>
       </c>
     </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C282" t="n">
+        <v>2015.2</v>
+      </c>
+      <c r="D282" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="E282" t="n">
+        <v>886</v>
+      </c>
+      <c r="F282" t="n">
+        <v>897</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F282"/>
+  <dimension ref="A1:F283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6084,6 +6084,26 @@
         <v>897</v>
       </c>
     </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1996.1</v>
+      </c>
+      <c r="D283" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="E283" t="n">
+        <v>882</v>
+      </c>
+      <c r="F283" t="n">
+        <v>876</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F283"/>
+  <dimension ref="A1:F284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6104,6 +6104,26 @@
         <v>876</v>
       </c>
     </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1985.1</v>
+      </c>
+      <c r="D284" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="E284" t="n">
+        <v>887</v>
+      </c>
+      <c r="F284" t="n">
+        <v>900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F284"/>
+  <dimension ref="A1:F286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6124,6 +6124,46 @@
         <v>900</v>
       </c>
     </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C285" t="n">
+        <v>2004.05</v>
+      </c>
+      <c r="D285" t="n">
+        <v>22.625</v>
+      </c>
+      <c r="E285" t="n">
+        <v>896</v>
+      </c>
+      <c r="F285" t="n">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1997.9</v>
+      </c>
+      <c r="D286" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="E286" t="n">
+        <v>895</v>
+      </c>
+      <c r="F286" t="n">
+        <v>945</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F286"/>
+  <dimension ref="A1:F287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6164,6 +6164,26 @@
         <v>945</v>
       </c>
     </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C287" t="n">
+        <v>2017.05</v>
+      </c>
+      <c r="D287" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="E287" t="n">
+        <v>905</v>
+      </c>
+      <c r="F287" t="n">
+        <v>956</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F287"/>
+  <dimension ref="A1:F288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6184,6 +6184,26 @@
         <v>956</v>
       </c>
     </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C288" t="n">
+        <v>2029.1</v>
+      </c>
+      <c r="D288" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="E288" t="n">
+        <v>909</v>
+      </c>
+      <c r="F288" t="n">
+        <v>984</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F288"/>
+  <dimension ref="A1:F289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6204,6 +6204,26 @@
         <v>984</v>
       </c>
     </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" s="2" t="n">
+        <v>45343</v>
+      </c>
+      <c r="C289" t="n">
+        <v>2026.75</v>
+      </c>
+      <c r="D289" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="E289" t="n">
+        <v>902</v>
+      </c>
+      <c r="F289" t="n">
+        <v>973</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F289"/>
+  <dimension ref="A1:F290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6224,6 +6224,26 @@
         <v>973</v>
       </c>
     </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C290" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D290" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="E290" t="n">
+        <v>898</v>
+      </c>
+      <c r="F290" t="n">
+        <v>951</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F290"/>
+  <dimension ref="A1:F291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6244,6 +6244,26 @@
         <v>951</v>
       </c>
     </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C291" t="n">
+        <v>2027.45</v>
+      </c>
+      <c r="D291" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="E291" t="n">
+        <v>904</v>
+      </c>
+      <c r="F291" t="n">
+        <v>973</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F291"/>
+  <dimension ref="A1:F292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6264,6 +6264,26 @@
         <v>973</v>
       </c>
     </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C292" t="n">
+        <v>2027.2</v>
+      </c>
+      <c r="D292" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="E292" t="n">
+        <v>886</v>
+      </c>
+      <c r="F292" t="n">
+        <v>962</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F292"/>
+  <dimension ref="A1:F293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6284,6 +6284,26 @@
         <v>962</v>
       </c>
     </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C293" t="n">
+        <v>2035.05</v>
+      </c>
+      <c r="D293" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="E293" t="n">
+        <v>893</v>
+      </c>
+      <c r="F293" t="n">
+        <v>966</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F293"/>
+  <dimension ref="A1:F294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6304,6 +6304,26 @@
         <v>966</v>
       </c>
     </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C294" t="n">
+        <v>2032.45</v>
+      </c>
+      <c r="D294" t="n">
+        <v>22.34</v>
+      </c>
+      <c r="E294" t="n">
+        <v>884</v>
+      </c>
+      <c r="F294" t="n">
+        <v>918</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F294"/>
+  <dimension ref="A1:F295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6324,6 +6324,26 @@
         <v>918</v>
       </c>
     </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C295" t="n">
+        <v>2048.05</v>
+      </c>
+      <c r="D295" t="n">
+        <v>22.34</v>
+      </c>
+      <c r="E295" t="n">
+        <v>887</v>
+      </c>
+      <c r="F295" t="n">
+        <v>952</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F295"/>
+  <dimension ref="A1:F296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6344,6 +6344,26 @@
         <v>952</v>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C296" t="n">
+        <v>2049.8</v>
+      </c>
+      <c r="D296" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="E296" t="n">
+        <v>872</v>
+      </c>
+      <c r="F296" t="n">
+        <v>935</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F296"/>
+  <dimension ref="A1:F297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6364,6 +6364,26 @@
         <v>935</v>
       </c>
     </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C297" t="n">
+        <v>2098.05</v>
+      </c>
+      <c r="D297" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E297" t="n">
+        <v>889</v>
+      </c>
+      <c r="F297" t="n">
+        <v>948</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F297"/>
+  <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6384,6 +6384,26 @@
         <v>948</v>
       </c>
     </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C298" t="n">
+        <v>2134.4</v>
+      </c>
+      <c r="D298" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="E298" t="n">
+        <v>885</v>
+      </c>
+      <c r="F298" t="n">
+        <v>941</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F298"/>
+  <dimension ref="A1:F299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6404,6 +6404,26 @@
         <v>941</v>
       </c>
     </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C299" t="n">
+        <v>2142.85</v>
+      </c>
+      <c r="D299" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="E299" t="n">
+        <v>894</v>
+      </c>
+      <c r="F299" t="n">
+        <v>1013</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F299"/>
+  <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6424,6 +6424,26 @@
         <v>1013</v>
       </c>
     </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C300" t="n">
+        <v>2153.45</v>
+      </c>
+      <c r="D300" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="E300" t="n">
+        <v>917</v>
+      </c>
+      <c r="F300" t="n">
+        <v>1026</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F300"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6444,6 +6444,26 @@
         <v>1026</v>
       </c>
     </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C301" t="n">
+        <v>2171.2</v>
+      </c>
+      <c r="D301" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0</v>
+      </c>
+      <c r="F301" t="n">
+        <v>1043</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6464,6 +6464,26 @@
         <v>1043</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C302" t="n">
+        <v>2180.45</v>
+      </c>
+      <c r="D302" t="n">
+        <v>24.35</v>
+      </c>
+      <c r="E302" t="n">
+        <v>932</v>
+      </c>
+      <c r="F302" t="n">
+        <v>1028</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F302"/>
+  <dimension ref="A1:F303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6484,6 +6484,26 @@
         <v>1028</v>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C303" t="n">
+        <v>2161.25</v>
+      </c>
+      <c r="D303" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="E303" t="n">
+        <v>915</v>
+      </c>
+      <c r="F303" t="n">
+        <v>1022</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F303"/>
+  <dimension ref="A1:F304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6504,6 +6504,26 @@
         <v>1022</v>
       </c>
     </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C304" t="n">
+        <v>2168.4</v>
+      </c>
+      <c r="D304" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E304" t="n">
+        <v>931</v>
+      </c>
+      <c r="F304" t="n">
+        <v>1067</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F304"/>
+  <dimension ref="A1:F305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6524,6 +6524,26 @@
         <v>1067</v>
       </c>
     </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C305" t="n">
+        <v>2160.8</v>
+      </c>
+      <c r="D305" t="n">
+        <v>24.97</v>
+      </c>
+      <c r="E305" t="n">
+        <v>929</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1079</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F305"/>
+  <dimension ref="A1:F306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6544,6 +6544,26 @@
         <v>1079</v>
       </c>
     </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C306" t="n">
+        <v>2163.45</v>
+      </c>
+      <c r="D306" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="E306" t="n">
+        <v>945</v>
+      </c>
+      <c r="F306" t="n">
+        <v>1078</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F306"/>
+  <dimension ref="A1:F319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5489,19 +5489,19 @@
         <v>251</v>
       </c>
       <c r="B253" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="C253" t="n">
-        <v>2067.55</v>
+        <v>2042.1</v>
       </c>
       <c r="D253" t="n">
-        <v>23.945</v>
+        <v>23.28</v>
       </c>
       <c r="E253" t="n">
-        <v>988</v>
+        <v>970</v>
       </c>
       <c r="F253" t="n">
-        <v>1101</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="254">
@@ -5509,19 +5509,19 @@
         <v>252</v>
       </c>
       <c r="B254" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="C254" t="n">
-        <v>2042.1</v>
+        <v>2039.55</v>
       </c>
       <c r="D254" t="n">
-        <v>23.28</v>
+        <v>22.96</v>
       </c>
       <c r="E254" t="n">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="F254" t="n">
-        <v>1073</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="255">
@@ -5529,19 +5529,19 @@
         <v>253</v>
       </c>
       <c r="B255" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="C255" t="n">
-        <v>2039.55</v>
+        <v>2056.35</v>
       </c>
       <c r="D255" t="n">
-        <v>22.96</v>
+        <v>22.98</v>
       </c>
       <c r="E255" t="n">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="F255" t="n">
-        <v>1056</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="256">
@@ -5549,19 +5549,19 @@
         <v>254</v>
       </c>
       <c r="B256" s="2" t="n">
-        <v>45296</v>
+        <v>45299</v>
       </c>
       <c r="C256" t="n">
-        <v>2056.35</v>
+        <v>2025.1</v>
       </c>
       <c r="D256" t="n">
-        <v>22.98</v>
+        <v>22.85</v>
       </c>
       <c r="E256" t="n">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="F256" t="n">
-        <v>1040</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="257">
@@ -5569,19 +5569,19 @@
         <v>255</v>
       </c>
       <c r="B257" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="C257" t="n">
-        <v>2025.1</v>
+        <v>2034.9</v>
       </c>
       <c r="D257" t="n">
-        <v>22.84</v>
+        <v>23.13</v>
       </c>
       <c r="E257" t="n">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="F257" t="n">
-        <v>1003</v>
+        <v>985</v>
       </c>
     </row>
     <row r="258">
@@ -5589,19 +5589,19 @@
         <v>256</v>
       </c>
       <c r="B258" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="C258" t="n">
-        <v>2034.9</v>
+        <v>2026.8</v>
       </c>
       <c r="D258" t="n">
-        <v>23.13</v>
+        <v>22.97</v>
       </c>
       <c r="E258" t="n">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="F258" t="n">
-        <v>985</v>
+        <v>997</v>
       </c>
     </row>
     <row r="259">
@@ -5609,19 +5609,19 @@
         <v>257</v>
       </c>
       <c r="B259" s="2" t="n">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="C259" t="n">
-        <v>2026.8</v>
+        <v>2029.15</v>
       </c>
       <c r="D259" t="n">
-        <v>22.97</v>
+        <v>23.03</v>
       </c>
       <c r="E259" t="n">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="F259" t="n">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="260">
@@ -5629,19 +5629,19 @@
         <v>258</v>
       </c>
       <c r="B260" s="2" t="n">
-        <v>45302</v>
+        <v>45303</v>
       </c>
       <c r="C260" t="n">
-        <v>2029.15</v>
+        <v>2055.65</v>
       </c>
       <c r="D260" t="n">
-        <v>23.03</v>
+        <v>23.06</v>
       </c>
       <c r="E260" t="n">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="F260" t="n">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="261">
@@ -5649,19 +5649,19 @@
         <v>259</v>
       </c>
       <c r="B261" s="2" t="n">
-        <v>45303</v>
+        <v>45306</v>
       </c>
       <c r="C261" t="n">
-        <v>2055.65</v>
+        <v>2049.9</v>
       </c>
       <c r="D261" t="n">
-        <v>23.06</v>
+        <v>23.21</v>
       </c>
       <c r="E261" t="n">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="F261" t="n">
-        <v>996</v>
+        <v>963</v>
       </c>
     </row>
     <row r="262">
@@ -5669,19 +5669,19 @@
         <v>260</v>
       </c>
       <c r="B262" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
       <c r="C262" t="n">
-        <v>2049.9</v>
+        <v>2038.15</v>
       </c>
       <c r="D262" t="n">
-        <v>23.21</v>
+        <v>23.05</v>
       </c>
       <c r="E262" t="n">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="F262" t="n">
-        <v>963</v>
+        <v>944</v>
       </c>
     </row>
     <row r="263">
@@ -5689,19 +5689,19 @@
         <v>261</v>
       </c>
       <c r="B263" s="2" t="n">
-        <v>45307</v>
+        <v>45308</v>
       </c>
       <c r="C263" t="n">
-        <v>2038.15</v>
+        <v>2011.75</v>
       </c>
       <c r="D263" t="n">
-        <v>23.05</v>
+        <v>22.81</v>
       </c>
       <c r="E263" t="n">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="F263" t="n">
-        <v>944</v>
+        <v>927</v>
       </c>
     </row>
     <row r="264">
@@ -5709,19 +5709,19 @@
         <v>262</v>
       </c>
       <c r="B264" s="2" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="C264" t="n">
-        <v>2011.75</v>
+        <v>2013.2</v>
       </c>
       <c r="D264" t="n">
-        <v>22.81</v>
+        <v>22.61</v>
       </c>
       <c r="E264" t="n">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="F264" t="n">
-        <v>927</v>
+        <v>937</v>
       </c>
     </row>
     <row r="265">
@@ -5729,19 +5729,19 @@
         <v>263</v>
       </c>
       <c r="B265" s="2" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="C265" t="n">
-        <v>2013.2</v>
+        <v>2028.55</v>
       </c>
       <c r="D265" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="E265" t="n">
-        <v>894</v>
+        <v>908</v>
       </c>
       <c r="F265" t="n">
-        <v>937</v>
+        <v>942</v>
       </c>
     </row>
     <row r="266">
@@ -5749,19 +5749,19 @@
         <v>264</v>
       </c>
       <c r="B266" s="2" t="n">
-        <v>45310</v>
+        <v>45313</v>
       </c>
       <c r="C266" t="n">
-        <v>2028.55</v>
+        <v>2021.6</v>
       </c>
       <c r="D266" t="n">
-        <v>22.8</v>
+        <v>22.2</v>
       </c>
       <c r="E266" t="n">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="F266" t="n">
-        <v>942</v>
+        <v>925</v>
       </c>
     </row>
     <row r="267">
@@ -5769,19 +5769,19 @@
         <v>265</v>
       </c>
       <c r="B267" s="2" t="n">
-        <v>45313</v>
+        <v>45314</v>
       </c>
       <c r="C267" t="n">
-        <v>2021.6</v>
+        <v>2022.95</v>
       </c>
       <c r="D267" t="n">
-        <v>22.2</v>
+        <v>22.26</v>
       </c>
       <c r="E267" t="n">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="F267" t="n">
-        <v>925</v>
+        <v>938</v>
       </c>
     </row>
     <row r="268">
@@ -5789,19 +5789,19 @@
         <v>266</v>
       </c>
       <c r="B268" s="2" t="n">
-        <v>45314</v>
+        <v>45315</v>
       </c>
       <c r="C268" t="n">
-        <v>2022.95</v>
+        <v>2024.65</v>
       </c>
       <c r="D268" t="n">
-        <v>22.26</v>
+        <v>22.77</v>
       </c>
       <c r="E268" t="n">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="F268" t="n">
-        <v>938</v>
+        <v>971</v>
       </c>
     </row>
     <row r="269">
@@ -5809,19 +5809,19 @@
         <v>267</v>
       </c>
       <c r="B269" s="2" t="n">
-        <v>45315</v>
+        <v>45316</v>
       </c>
       <c r="C269" t="n">
-        <v>2024.65</v>
+        <v>2023.75</v>
       </c>
       <c r="D269" t="n">
-        <v>22.77</v>
+        <v>22.88</v>
       </c>
       <c r="E269" t="n">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="F269" t="n">
-        <v>971</v>
+        <v>955</v>
       </c>
     </row>
     <row r="270">
@@ -5829,19 +5829,19 @@
         <v>268</v>
       </c>
       <c r="B270" s="2" t="n">
-        <v>45316</v>
+        <v>45317</v>
       </c>
       <c r="C270" t="n">
-        <v>2023.75</v>
+        <v>2018.45</v>
       </c>
       <c r="D270" t="n">
-        <v>22.88</v>
+        <v>22.92</v>
       </c>
       <c r="E270" t="n">
-        <v>0</v>
+        <v>907</v>
       </c>
       <c r="F270" t="n">
-        <v>0</v>
+        <v>946</v>
       </c>
     </row>
     <row r="271">
@@ -5849,19 +5849,19 @@
         <v>269</v>
       </c>
       <c r="B271" s="2" t="n">
-        <v>45317</v>
+        <v>45320</v>
       </c>
       <c r="C271" t="n">
-        <v>2018.45</v>
+        <v>2022.5</v>
       </c>
       <c r="D271" t="n">
-        <v>22.92</v>
+        <v>23.01</v>
       </c>
       <c r="E271" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="F271" t="n">
-        <v>946</v>
+        <v>975</v>
       </c>
     </row>
     <row r="272">
@@ -5869,19 +5869,19 @@
         <v>270</v>
       </c>
       <c r="B272" s="2" t="n">
-        <v>45320</v>
+        <v>45321</v>
       </c>
       <c r="C272" t="n">
-        <v>2022.5</v>
+        <v>2043.05</v>
       </c>
       <c r="D272" t="n">
-        <v>23</v>
+        <v>23.08</v>
       </c>
       <c r="E272" t="n">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="F272" t="n">
-        <v>975</v>
+        <v>980</v>
       </c>
     </row>
     <row r="273">
@@ -5889,19 +5889,19 @@
         <v>271</v>
       </c>
       <c r="B273" s="2" t="n">
-        <v>45321</v>
+        <v>45322</v>
       </c>
       <c r="C273" t="n">
-        <v>2043.05</v>
+        <v>2053.25</v>
       </c>
       <c r="D273" t="n">
-        <v>23.08</v>
+        <v>23.09</v>
       </c>
       <c r="E273" t="n">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F273" t="n">
-        <v>980</v>
+        <v>972</v>
       </c>
     </row>
     <row r="274">
@@ -5909,19 +5909,19 @@
         <v>272</v>
       </c>
       <c r="B274" s="2" t="n">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="C274" t="n">
-        <v>2053.25</v>
+        <v>2045.85</v>
       </c>
       <c r="D274" t="n">
-        <v>23.09</v>
+        <v>22.67</v>
       </c>
       <c r="E274" t="n">
-        <v>924</v>
+        <v>907</v>
       </c>
       <c r="F274" t="n">
-        <v>972</v>
+        <v>952</v>
       </c>
     </row>
     <row r="275">
@@ -5929,19 +5929,19 @@
         <v>273</v>
       </c>
       <c r="B275" s="2" t="n">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="C275" t="n">
-        <v>2045.85</v>
+        <v>2034.15</v>
       </c>
       <c r="D275" t="n">
-        <v>22.67</v>
+        <v>23.23</v>
       </c>
       <c r="E275" t="n">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F275" t="n">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="276">
@@ -5949,19 +5949,19 @@
         <v>274</v>
       </c>
       <c r="B276" s="2" t="n">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="C276" t="n">
-        <v>2034.15</v>
+        <v>2018</v>
       </c>
       <c r="D276" t="n">
-        <v>23.23</v>
+        <v>22.51</v>
       </c>
       <c r="E276" t="n">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="F276" t="n">
-        <v>954</v>
+        <v>945</v>
       </c>
     </row>
     <row r="277">
@@ -5969,19 +5969,19 @@
         <v>275</v>
       </c>
       <c r="B277" s="2" t="n">
-        <v>45327</v>
+        <v>45328</v>
       </c>
       <c r="C277" t="n">
-        <v>2018</v>
+        <v>2030.8</v>
       </c>
       <c r="D277" t="n">
-        <v>22.5</v>
+        <v>22.31</v>
       </c>
       <c r="E277" t="n">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="F277" t="n">
-        <v>945</v>
+        <v>951</v>
       </c>
     </row>
     <row r="278">
@@ -5989,19 +5989,19 @@
         <v>276</v>
       </c>
       <c r="B278" s="2" t="n">
-        <v>45328</v>
+        <v>45329</v>
       </c>
       <c r="C278" t="n">
-        <v>2030.8</v>
+        <v>2041.6</v>
       </c>
       <c r="D278" t="n">
-        <v>22.31</v>
+        <v>22.29</v>
       </c>
       <c r="E278" t="n">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="F278" t="n">
-        <v>951</v>
+        <v>934</v>
       </c>
     </row>
     <row r="279">
@@ -6009,19 +6009,19 @@
         <v>277</v>
       </c>
       <c r="B279" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="C279" t="n">
-        <v>2041.6</v>
+        <v>2028.65</v>
       </c>
       <c r="D279" t="n">
-        <v>22.29</v>
+        <v>22.35</v>
       </c>
       <c r="E279" t="n">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="F279" t="n">
-        <v>934</v>
+        <v>881</v>
       </c>
     </row>
     <row r="280">
@@ -6029,19 +6029,19 @@
         <v>278</v>
       </c>
       <c r="B280" s="2" t="n">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="C280" t="n">
-        <v>2028.65</v>
+        <v>2023.5</v>
       </c>
       <c r="D280" t="n">
-        <v>22.35</v>
+        <v>22.66</v>
       </c>
       <c r="E280" t="n">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F280" t="n">
-        <v>881</v>
+        <v>875</v>
       </c>
     </row>
     <row r="281">
@@ -6049,19 +6049,19 @@
         <v>279</v>
       </c>
       <c r="B281" s="2" t="n">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="C281" t="n">
-        <v>2023.5</v>
+        <v>2015.2</v>
       </c>
       <c r="D281" t="n">
-        <v>22.66</v>
+        <v>22.92</v>
       </c>
       <c r="E281" t="n">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="F281" t="n">
-        <v>875</v>
+        <v>897</v>
       </c>
     </row>
     <row r="282">
@@ -6069,19 +6069,19 @@
         <v>280</v>
       </c>
       <c r="B282" s="2" t="n">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="C282" t="n">
-        <v>2015.2</v>
+        <v>1996.1</v>
       </c>
       <c r="D282" t="n">
-        <v>22.92</v>
+        <v>22.87</v>
       </c>
       <c r="E282" t="n">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="F282" t="n">
-        <v>897</v>
+        <v>876</v>
       </c>
     </row>
     <row r="283">
@@ -6089,19 +6089,19 @@
         <v>281</v>
       </c>
       <c r="B283" s="2" t="n">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="C283" t="n">
-        <v>1996.1</v>
+        <v>1985.1</v>
       </c>
       <c r="D283" t="n">
-        <v>22.87</v>
+        <v>22.09</v>
       </c>
       <c r="E283" t="n">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="F283" t="n">
-        <v>876</v>
+        <v>900</v>
       </c>
     </row>
     <row r="284">
@@ -6109,19 +6109,19 @@
         <v>282</v>
       </c>
       <c r="B284" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="C284" t="n">
-        <v>1985.1</v>
+        <v>2004.05</v>
       </c>
       <c r="D284" t="n">
-        <v>22.08</v>
+        <v>22.63</v>
       </c>
       <c r="E284" t="n">
-        <v>887</v>
+        <v>896</v>
       </c>
       <c r="F284" t="n">
-        <v>900</v>
+        <v>962</v>
       </c>
     </row>
     <row r="285">
@@ -6129,19 +6129,19 @@
         <v>283</v>
       </c>
       <c r="B285" s="2" t="n">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="C285" t="n">
-        <v>2004.05</v>
+        <v>1997.9</v>
       </c>
       <c r="D285" t="n">
-        <v>22.625</v>
+        <v>23.01</v>
       </c>
       <c r="E285" t="n">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F285" t="n">
-        <v>962</v>
+        <v>945</v>
       </c>
     </row>
     <row r="286">
@@ -6149,19 +6149,19 @@
         <v>284</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>45338</v>
+        <v>45341</v>
       </c>
       <c r="C286" t="n">
-        <v>1997.9</v>
+        <v>2017.05</v>
       </c>
       <c r="D286" t="n">
-        <v>23.01</v>
+        <v>23.09</v>
       </c>
       <c r="E286" t="n">
-        <v>895</v>
+        <v>905</v>
       </c>
       <c r="F286" t="n">
-        <v>945</v>
+        <v>956</v>
       </c>
     </row>
     <row r="287">
@@ -6169,19 +6169,19 @@
         <v>285</v>
       </c>
       <c r="B287" s="2" t="n">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="C287" t="n">
-        <v>2017.05</v>
+        <v>2029.1</v>
       </c>
       <c r="D287" t="n">
-        <v>23.08</v>
+        <v>23.06</v>
       </c>
       <c r="E287" t="n">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="F287" t="n">
-        <v>956</v>
+        <v>984</v>
       </c>
     </row>
     <row r="288">
@@ -6189,19 +6189,19 @@
         <v>286</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>45342</v>
+        <v>45343</v>
       </c>
       <c r="C288" t="n">
-        <v>2029.1</v>
+        <v>2026.75</v>
       </c>
       <c r="D288" t="n">
-        <v>23.06</v>
+        <v>23.08</v>
       </c>
       <c r="E288" t="n">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="F288" t="n">
-        <v>984</v>
+        <v>973</v>
       </c>
     </row>
     <row r="289">
@@ -6209,19 +6209,19 @@
         <v>287</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>45343</v>
+        <v>45344</v>
       </c>
       <c r="C289" t="n">
-        <v>2026.75</v>
+        <v>2024</v>
       </c>
       <c r="D289" t="n">
-        <v>23.08</v>
+        <v>23.07</v>
       </c>
       <c r="E289" t="n">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="F289" t="n">
-        <v>973</v>
+        <v>951</v>
       </c>
     </row>
     <row r="290">
@@ -6229,19 +6229,19 @@
         <v>288</v>
       </c>
       <c r="B290" s="2" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="C290" t="n">
-        <v>2024</v>
+        <v>2027.45</v>
       </c>
       <c r="D290" t="n">
-        <v>23.07</v>
+        <v>22.72</v>
       </c>
       <c r="E290" t="n">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="F290" t="n">
-        <v>951</v>
+        <v>973</v>
       </c>
     </row>
     <row r="291">
@@ -6249,19 +6249,19 @@
         <v>289</v>
       </c>
       <c r="B291" s="2" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="C291" t="n">
-        <v>2027.45</v>
+        <v>2027.2</v>
       </c>
       <c r="D291" t="n">
-        <v>22.72</v>
+        <v>22.51</v>
       </c>
       <c r="E291" t="n">
-        <v>904</v>
+        <v>886</v>
       </c>
       <c r="F291" t="n">
-        <v>973</v>
+        <v>962</v>
       </c>
     </row>
     <row r="292">
@@ -6269,19 +6269,19 @@
         <v>290</v>
       </c>
       <c r="B292" s="2" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="C292" t="n">
-        <v>2027.2</v>
+        <v>2035.05</v>
       </c>
       <c r="D292" t="n">
-        <v>22.51</v>
+        <v>22.67</v>
       </c>
       <c r="E292" t="n">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="F292" t="n">
-        <v>962</v>
+        <v>966</v>
       </c>
     </row>
     <row r="293">
@@ -6289,19 +6289,19 @@
         <v>291</v>
       </c>
       <c r="B293" s="2" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="C293" t="n">
-        <v>2035.05</v>
+        <v>2032.45</v>
       </c>
       <c r="D293" t="n">
-        <v>22.67</v>
+        <v>22.35</v>
       </c>
       <c r="E293" t="n">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="F293" t="n">
-        <v>966</v>
+        <v>918</v>
       </c>
     </row>
     <row r="294">
@@ -6309,19 +6309,19 @@
         <v>292</v>
       </c>
       <c r="B294" s="2" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="C294" t="n">
-        <v>2032.45</v>
+        <v>2048.05</v>
       </c>
       <c r="D294" t="n">
         <v>22.34</v>
       </c>
       <c r="E294" t="n">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="F294" t="n">
-        <v>918</v>
+        <v>952</v>
       </c>
     </row>
     <row r="295">
@@ -6329,19 +6329,19 @@
         <v>293</v>
       </c>
       <c r="B295" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="C295" t="n">
-        <v>2048.05</v>
+        <v>2049.8</v>
       </c>
       <c r="D295" t="n">
-        <v>22.34</v>
+        <v>22.72</v>
       </c>
       <c r="E295" t="n">
-        <v>887</v>
+        <v>872</v>
       </c>
       <c r="F295" t="n">
-        <v>952</v>
+        <v>935</v>
       </c>
     </row>
     <row r="296">
@@ -6349,19 +6349,19 @@
         <v>294</v>
       </c>
       <c r="B296" s="2" t="n">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="C296" t="n">
-        <v>2049.8</v>
+        <v>2098.05</v>
       </c>
       <c r="D296" t="n">
-        <v>22.72</v>
+        <v>23.1</v>
       </c>
       <c r="E296" t="n">
-        <v>872</v>
+        <v>889</v>
       </c>
       <c r="F296" t="n">
-        <v>935</v>
+        <v>948</v>
       </c>
     </row>
     <row r="297">
@@ -6369,19 +6369,19 @@
         <v>295</v>
       </c>
       <c r="B297" s="2" t="n">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="C297" t="n">
-        <v>2098.05</v>
+        <v>2134.4</v>
       </c>
       <c r="D297" t="n">
-        <v>23.1</v>
+        <v>23.93</v>
       </c>
       <c r="E297" t="n">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="F297" t="n">
-        <v>948</v>
+        <v>941</v>
       </c>
     </row>
     <row r="298">
@@ -6389,19 +6389,19 @@
         <v>296</v>
       </c>
       <c r="B298" s="2" t="n">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="C298" t="n">
-        <v>2134.4</v>
+        <v>2142.85</v>
       </c>
       <c r="D298" t="n">
-        <v>23.93</v>
+        <v>23.8</v>
       </c>
       <c r="E298" t="n">
-        <v>885</v>
+        <v>894</v>
       </c>
       <c r="F298" t="n">
-        <v>941</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="299">
@@ -6409,19 +6409,19 @@
         <v>297</v>
       </c>
       <c r="B299" s="2" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="C299" t="n">
-        <v>2142.85</v>
+        <v>2153.45</v>
       </c>
       <c r="D299" t="n">
-        <v>23.8</v>
+        <v>24.16</v>
       </c>
       <c r="E299" t="n">
-        <v>894</v>
+        <v>917</v>
       </c>
       <c r="F299" t="n">
-        <v>1013</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="300">
@@ -6429,19 +6429,19 @@
         <v>298</v>
       </c>
       <c r="B300" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="C300" t="n">
-        <v>2153.45</v>
+        <v>2171.2</v>
       </c>
       <c r="D300" t="n">
-        <v>24.16</v>
+        <v>24.5</v>
       </c>
       <c r="E300" t="n">
         <v>917</v>
       </c>
       <c r="F300" t="n">
-        <v>1026</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="301">
@@ -6449,19 +6449,19 @@
         <v>299</v>
       </c>
       <c r="B301" s="2" t="n">
-        <v>45359</v>
+        <v>45362</v>
       </c>
       <c r="C301" t="n">
-        <v>2171.2</v>
+        <v>2180.45</v>
       </c>
       <c r="D301" t="n">
-        <v>24.5</v>
+        <v>24.36</v>
       </c>
       <c r="E301" t="n">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="F301" t="n">
-        <v>1043</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="302">
@@ -6472,16 +6472,16 @@
         <v>45363</v>
       </c>
       <c r="C302" t="n">
-        <v>2180.45</v>
+        <v>2161.25</v>
       </c>
       <c r="D302" t="n">
-        <v>24.35</v>
+        <v>24.38</v>
       </c>
       <c r="E302" t="n">
-        <v>932</v>
+        <v>915</v>
       </c>
       <c r="F302" t="n">
-        <v>1028</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="303">
@@ -6492,16 +6492,16 @@
         <v>45364</v>
       </c>
       <c r="C303" t="n">
-        <v>2161.25</v>
+        <v>2168.4</v>
       </c>
       <c r="D303" t="n">
-        <v>24.38</v>
+        <v>24.3</v>
       </c>
       <c r="E303" t="n">
-        <v>915</v>
+        <v>931</v>
       </c>
       <c r="F303" t="n">
-        <v>1022</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="304">
@@ -6509,19 +6509,19 @@
         <v>302</v>
       </c>
       <c r="B304" s="2" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="C304" t="n">
-        <v>2168.4</v>
+        <v>2160.8</v>
       </c>
       <c r="D304" t="n">
-        <v>24.3</v>
+        <v>24.97</v>
       </c>
       <c r="E304" t="n">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F304" t="n">
-        <v>1067</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="305">
@@ -6529,19 +6529,19 @@
         <v>303</v>
       </c>
       <c r="B305" s="2" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="C305" t="n">
-        <v>2160.8</v>
+        <v>2163.45</v>
       </c>
       <c r="D305" t="n">
-        <v>24.97</v>
+        <v>25.22</v>
       </c>
       <c r="E305" t="n">
-        <v>929</v>
+        <v>945</v>
       </c>
       <c r="F305" t="n">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="306">
@@ -6549,19 +6549,279 @@
         <v>304</v>
       </c>
       <c r="B306" s="2" t="n">
-        <v>45366</v>
+        <v>45369</v>
       </c>
       <c r="C306" t="n">
-        <v>2163.45</v>
+        <v>2158.15</v>
       </c>
       <c r="D306" t="n">
-        <v>25.22</v>
+        <v>25.17</v>
       </c>
       <c r="E306" t="n">
-        <v>945</v>
+        <v>920</v>
       </c>
       <c r="F306" t="n">
-        <v>1078</v>
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C307" t="n">
+        <v>2154.9</v>
+      </c>
+      <c r="D307" t="n">
+        <v>24.93</v>
+      </c>
+      <c r="E307" t="n">
+        <v>896</v>
+      </c>
+      <c r="F307" t="n">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C308" t="n">
+        <v>2157.45</v>
+      </c>
+      <c r="D308" t="n">
+        <v>24.85</v>
+      </c>
+      <c r="E308" t="n">
+        <v>900</v>
+      </c>
+      <c r="F308" t="n">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C309" t="n">
+        <v>2170.5</v>
+      </c>
+      <c r="D309" t="n">
+        <v>25.43</v>
+      </c>
+      <c r="E309" t="n">
+        <v>910</v>
+      </c>
+      <c r="F309" t="n">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C310" t="n">
+        <v>2171.6</v>
+      </c>
+      <c r="D310" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="E310" t="n">
+        <v>903</v>
+      </c>
+      <c r="F310" t="n">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C311" t="n">
+        <v>2176.7</v>
+      </c>
+      <c r="D311" t="n">
+        <v>24.67</v>
+      </c>
+      <c r="E311" t="n">
+        <v>911</v>
+      </c>
+      <c r="F311" t="n">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C312" t="n">
+        <v>2179.8</v>
+      </c>
+      <c r="D312" t="n">
+        <v>24.83</v>
+      </c>
+      <c r="E312" t="n">
+        <v>906</v>
+      </c>
+      <c r="F312" t="n">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C313" t="n">
+        <v>2192.7</v>
+      </c>
+      <c r="D313" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="E313" t="n">
+        <v>896</v>
+      </c>
+      <c r="F313" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C314" t="n">
+        <v>2214.35</v>
+      </c>
+      <c r="D314" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="E314" t="n">
+        <v>907</v>
+      </c>
+      <c r="F314" t="n">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="C315" t="n">
+        <v>2264.5</v>
+      </c>
+      <c r="D315" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="E315" t="n">
+        <v>925</v>
+      </c>
+      <c r="F315" t="n">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="C316" t="n">
+        <v>2280.15</v>
+      </c>
+      <c r="D316" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="E316" t="n">
+        <v>929</v>
+      </c>
+      <c r="F316" t="n">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C317" t="n">
+        <v>2293.5</v>
+      </c>
+      <c r="D317" t="n">
+        <v>27</v>
+      </c>
+      <c r="E317" t="n">
+        <v>935</v>
+      </c>
+      <c r="F317" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C318" t="n">
+        <v>2298.55</v>
+      </c>
+      <c r="D318" t="n">
+        <v>26.78</v>
+      </c>
+      <c r="E318" t="n">
+        <v>923</v>
+      </c>
+      <c r="F318" t="n">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C319" t="n">
+        <v>2320.25</v>
+      </c>
+      <c r="D319" t="n">
+        <v>27.83</v>
+      </c>
+      <c r="E319" t="n">
+        <v>946</v>
+      </c>
+      <c r="F319" t="n">
+        <v>1037</v>
       </c>
     </row>
   </sheetData>

--- a/LME/parser_beta/data/kitko_db.xlsx
+++ b/LME/parser_beta/data/kitko_db.xlsx
@@ -1,40 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="kitco_metall" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="kitco_metall" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Palladium</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +72,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -424,6407 +389,6391 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F319"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Gold</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Platinum</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Palladium</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>44929</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1843.25</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>24.295</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>1082</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1795</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>44930</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1857.3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>24.29</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1080</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1736</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>44931</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1834</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>23.41</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>1062</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1783</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>44932</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1852.2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>23.455</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>1073</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1784</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>44935</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1878.85</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>23.85</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>1092</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>1793</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>44936</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1878.65</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>23.515</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>1084</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1802</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>44937</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1872.35</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>23.87</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>1100</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1764</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>44938</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>1882.55</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>23.7</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>1082</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>1777</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>44939</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1907.15</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>23.675</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>1057</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>1739</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>44942</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>1917</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>24.17</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>1059</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>1755</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>44943</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>1913.8</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>24.1</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>1053</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>1728</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>44944</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1920.7</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>24.185</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>1068</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>1778</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>44945</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>1918.6</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>23.445</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>1025</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>1683</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>44946</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1924.9</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>23.87</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>1024</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>1731</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>44949</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>1914.85</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>23.675</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>1037</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>1708</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>44950</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>1920.75</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>23.71</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>1048</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>1704</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>44951</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>1930.8</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>23.43</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>1039</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>1732</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="2">
         <v>44952</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>1932.45</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>23.71</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>1032</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>1697</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="2">
         <v>44953</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>1923.05</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>23.725</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>1010</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>1642</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="2">
         <v>44956</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>1924.1</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>23.635</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>1013</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>1630</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="2">
         <v>44957</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>1923.9</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>22.995</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>1004</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>1618</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="2">
         <v>44958</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>1925.9</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>23.495</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>1008</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>1686</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="2">
         <v>44959</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>1921.65</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>24.435</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>1032</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>1680</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="2">
         <v>44960</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>1875.35</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>23.49</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>1005</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>1625</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="2">
         <v>44963</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>1873.25</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>22.38</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>980</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>1572</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="2">
         <v>44964</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1870.7</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>22.205</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>970</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>1636</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="2">
         <v>44965</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>1872.65</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>22.45</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>985</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>1660</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="2">
         <v>44966</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>1879.1</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>22.465</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>972</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>1647</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="2">
         <v>44967</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1859.7</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>22.115</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>966</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>1553</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="2">
         <v>44970</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1856.05</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>21.985</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>944</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>1555</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="2">
         <v>44971</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1863.7</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>21.71</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>952</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>1580</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="2">
         <v>44972</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>1831.2</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>21.47</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>926</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>1448</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="2">
         <v>44973</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>1828.95</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>21.565</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>912</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>1468</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="2">
         <v>44974</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>1833.95</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>21.215</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>913</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>1481</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="2">
         <v>44977</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>1845.8</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>21.71</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>936</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>1515</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="2">
         <v>44978</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>1836.85</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>21.775</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>934</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>1525</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B38" s="2">
         <v>44979</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>1835.75</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>21.86</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>956</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>1513</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="2" t="n">
+      <c r="B39" s="2">
         <v>44980</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1826.05</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>21.52</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>957</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>1462</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="2" t="n">
+      <c r="B40" s="2">
         <v>44981</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>1810.95</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>21.09</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>928</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>1394</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="n">
+      <c r="B41" s="2">
         <v>44984</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>1818.65</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>20.73</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>950</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>1465</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="2">
         <v>44985</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>1824.6</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>20.525</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>951</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>1413</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="n">
+      <c r="B43" s="2">
         <v>44986</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>1841.25</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>20.995</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>960</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>1416</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B44" s="2">
         <v>44987</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>1836.2</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>20.8</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>953</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>1421</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="n">
+      <c r="B45" s="2">
         <v>44988</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>1841.15</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>21.09</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>978</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>1451</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B46" s="2">
         <v>44991</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>1849.05</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>21.085</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>965</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>1420</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="2" t="n">
+      <c r="B47" s="2">
         <v>44992</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>1826.55</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>20.91</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>957</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>1420</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="2" t="n">
+      <c r="B48" s="2">
         <v>44993</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>1816.3</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>20.105</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>944</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>1407</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="2" t="n">
+      <c r="B49" s="2">
         <v>44994</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>1831.4</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>20.12</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>953</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>1361</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="2" t="n">
+      <c r="B50" s="2">
         <v>44995</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>1861.25</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>20.09</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>953</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>1389</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="2" t="n">
+      <c r="B51" s="2">
         <v>44998</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>1911.3</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>21.095</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>988</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>1432</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="2" t="n">
+      <c r="B52" s="2">
         <v>44999</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>1907.55</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>21.64</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>985</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>1495</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="2" t="n">
+      <c r="B53" s="2">
         <v>45000</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>1923.4</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>22.095</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>965</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>1437</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="2" t="n">
+      <c r="B54" s="2">
         <v>45001</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>1922.75</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>22.01</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>964</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>1437</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="2" t="n">
+      <c r="B55" s="2">
         <v>45002</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>1962.1</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>21.885</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>979</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>1389</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="2" t="n">
+      <c r="B56" s="2">
         <v>45005</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>1969.35</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>22.495</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>985</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>1398</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="2" t="n">
+      <c r="B57" s="2">
         <v>45006</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>1952.5</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>22.465</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>983</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>1406</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="2" t="n">
+      <c r="B58" s="2">
         <v>45007</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>1949.35</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>22.345</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>985</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>1428</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="2" t="n">
+      <c r="B59" s="2">
         <v>45008</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>1977.95</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>22.9</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>989</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>1435</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="2" t="n">
+      <c r="B60" s="2">
         <v>45009</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>1993.8</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>23.17</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>976</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>1418</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="2" t="n">
+      <c r="B61" s="2">
         <v>45012</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>1946.25</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>22.89</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>976</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>1406</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="2" t="n">
+      <c r="B62" s="2">
         <v>45013</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>1962.85</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>23.045</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>966</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>1416</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="2" t="n">
+      <c r="B63" s="2">
         <v>45014</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>1965</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>23.255</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>962</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>1431</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="2" t="n">
+      <c r="B64" s="2">
         <v>45015</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>1965.8</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>23.71</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>977</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>1495</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="2" t="n">
+      <c r="B65" s="2">
         <v>45016</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>1979.7</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>23.885</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>981</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>1490</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="2" t="n">
+      <c r="B66" s="2">
         <v>45019</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>1983.3</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>23.925</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>990</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>1482</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="2" t="n">
+      <c r="B67" s="2">
         <v>45020</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>2009.6</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>24.015</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>1011</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>1482</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="2" t="n">
+      <c r="B68" s="2">
         <v>45021</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>2030.85</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>24.74</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>1016</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>1467</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="2" t="n">
+      <c r="B69" s="2">
         <v>45022</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>2001.9</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>24.935</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>999</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>1445</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="2" t="n">
+      <c r="B70" s="2">
         <v>45027</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>2002.7</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>25.055</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>1001</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>1432</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="2" t="n">
+      <c r="B71" s="2">
         <v>45028</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>2008.2</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>25.145</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>1020</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>1452</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="2" t="n">
+      <c r="B72" s="2">
         <v>45029</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>2048.45</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>25.62</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>1036</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>1482</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="2" t="n">
+      <c r="B73" s="2">
         <v>45030</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>2019.4</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>26.025</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>1043</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>1484</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="2" t="n">
+      <c r="B74" s="2">
         <v>45033</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>1995.55</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>25.39</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>1055</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>1520</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="2" t="n">
+      <c r="B75" s="2">
         <v>45034</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>1999.4</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>25.09</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>1073</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>1628</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="2" t="n">
+      <c r="B76" s="2">
         <v>45035</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>1990.55</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>24.75</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>1075</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>1609</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="2" t="n">
+      <c r="B77" s="2">
         <v>45036</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>2007.15</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>25.4</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>1094</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>1618</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="2" t="n">
+      <c r="B78" s="2">
         <v>45037</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>1973.65</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>25.155</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>1128</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>1628</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="2" t="n">
+      <c r="B79" s="2">
         <v>45040</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>1978.2</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>25.03</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>1091</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>1545</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="2" t="n">
+      <c r="B80" s="2">
         <v>45041</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>1987.4</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>24.895</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>1080</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>1494</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="2" t="n">
+      <c r="B81" s="2">
         <v>45042</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>2003</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>24.85</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>1093</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>1509</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="2" t="n">
+      <c r="B82" s="2">
         <v>45043</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>1985.65</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>25.145</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>1085</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>1496</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="2" t="n">
+      <c r="B83" s="2">
         <v>45044</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>1982.55</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>24.765</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>1074</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>1497</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="2" t="n">
+      <c r="B84" s="2">
         <v>45048</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>1995.4</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>24.77</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>1049</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>1453</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="2" t="n">
+      <c r="B85" s="2">
         <v>45049</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>2014.3</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>25.25</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>1060</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>1441</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="2" t="n">
+      <c r="B86" s="2">
         <v>45050</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>2044.7</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>25.625</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>1053</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>1426</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="2" t="n">
+      <c r="B87" s="2">
         <v>45051</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>2000.95</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>25.84</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>1044</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>1455</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="2" t="n">
+      <c r="B88" s="2">
         <v>45055</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>2030.2</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>25.565</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>1085</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>1570</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="2" t="n">
+      <c r="B89" s="2">
         <v>45056</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>2037.15</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>25.52</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>1123</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>1620</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="2" t="n">
+      <c r="B90" s="2">
         <v>45057</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>2015.95</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>24.885</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>1119</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>1607</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="2" t="n">
+      <c r="B91" s="2">
         <v>45058</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>2019.9</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>23.855</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>1081</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>1546</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="2" t="n">
+      <c r="B92" s="2">
         <v>45061</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>2019.9</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>23.89</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>1061</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>1534</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="2" t="n">
+      <c r="B93" s="2">
         <v>45062</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>2007.45</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>23.785</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>1070</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>1521</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="2" t="n">
+      <c r="B94" s="2">
         <v>45063</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>1974.4</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>23.685</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>1075</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>1490</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="2" t="n">
+      <c r="B95" s="2">
         <v>45064</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>1960.3</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>23.52</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>1067</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>1464</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" s="2" t="n">
+      <c r="B96" s="2">
         <v>45065</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>1961.6</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>23.66</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>1071</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>1518</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" s="2" t="n">
+      <c r="B97" s="2">
         <v>45068</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>1970.3</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>23.85</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>1074</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>1513</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="2" t="n">
+      <c r="B98" s="2">
         <v>45069</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>1969.2</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>23.16</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>1066</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>1460</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="2" t="n">
+      <c r="B99" s="2">
         <v>45070</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>1969.65</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>23.415</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>1042</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>1425</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="2" t="n">
+      <c r="B100" s="2">
         <v>45071</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>1948.25</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>23.005</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>1023</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>1414</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="2" t="n">
+      <c r="B101" s="2">
         <v>45072</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>1947.9</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>23.145</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>1025</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>1442</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" s="2" t="n">
+      <c r="B102" s="2">
         <v>45076</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>1952.45</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>23.255</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>1027</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>1417</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" s="2" t="n">
+      <c r="B103" s="2">
         <v>45077</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>1964.4</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>23.255</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>1003</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103">
         <v>1390</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" s="2" t="n">
+      <c r="B104" s="2">
         <v>45078</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>1974.35</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>23.49</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>1004</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104">
         <v>1372</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" s="2" t="n">
+      <c r="B105" s="2">
         <v>45079</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>1963.25</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>23.885</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>1007</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105">
         <v>1419</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" s="2" t="n">
+      <c r="B106" s="2">
         <v>45082</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>1959.65</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>23.475</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>1017</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106">
         <v>1410</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" s="2" t="n">
+      <c r="B107" s="2">
         <v>45083</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>1957.25</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>23.645</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>1028</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107">
         <v>1407</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" s="2" t="n">
+      <c r="B108" s="2">
         <v>45084</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>1967.35</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>23.585</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>1035</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108">
         <v>1411</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" s="2" t="n">
+      <c r="B109" s="2">
         <v>45085</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>1966.4</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>23.67</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>1020</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109">
         <v>1381</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" s="2" t="n">
+      <c r="B110" s="2">
         <v>45086</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>1960.3</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>24.315</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>1001</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110">
         <v>1324</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" s="2" t="n">
+      <c r="B111" s="2">
         <v>45089</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>1952.9</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>24.21</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111">
         <v>993</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111">
         <v>1330</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" s="2" t="n">
+      <c r="B112" s="2">
         <v>45090</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>1954.4</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>24.19</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112">
         <v>992</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F112">
         <v>1372</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" s="2" t="n">
+      <c r="B113" s="2">
         <v>45091</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>1955.8</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>23.825</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>978</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113">
         <v>1395</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" s="2" t="n">
+      <c r="B114" s="2">
         <v>45092</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>1952.35</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>23.405</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>979</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F114">
         <v>1368</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" s="2" t="n">
+      <c r="B115" s="2">
         <v>45093</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>1959.75</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>23.99</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115">
         <v>987</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115">
         <v>1398</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" s="2" t="n">
+      <c r="B116" s="2">
         <v>45096</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>1951.15</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>23.95</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>983</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F116">
         <v>1393</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" s="2" t="n">
+      <c r="B117" s="2">
         <v>45097</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>1930.45</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>23.77</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>964</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F117">
         <v>1398</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" s="2" t="n">
+      <c r="B118" s="2">
         <v>45098</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>1925.65</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>23.075</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118">
         <v>949</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118">
         <v>1343</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" s="2" t="n">
+      <c r="B119" s="2">
         <v>45099</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>1920.05</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>22.62</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>938</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F119">
         <v>1319</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" s="2" t="n">
+      <c r="B120" s="2">
         <v>45100</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>1930.7</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>22.34</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120">
         <v>924</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F120">
         <v>1279</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" s="2" t="n">
+      <c r="B121" s="2">
         <v>45103</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>1922.9</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>22.8</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121">
         <v>923</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121">
         <v>1322</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" s="2" t="n">
+      <c r="B122" s="2">
         <v>45104</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>1918.9</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>22.835</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122">
         <v>925</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F122">
         <v>1315</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" s="2" t="n">
+      <c r="B123" s="2">
         <v>45105</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>1908.4</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>22.61</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123">
         <v>910</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F123">
         <v>1225</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" s="2" t="n">
+      <c r="B124" s="2">
         <v>45106</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>1899.6</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>22.83</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124">
         <v>900</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F124">
         <v>1223</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" s="2" t="n">
+      <c r="B125" s="2">
         <v>45107</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>1912.25</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>22.47</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125">
         <v>897</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F125">
         <v>1254</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" s="2" t="n">
+      <c r="B126" s="2">
         <v>45110</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>1928.75</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>22.775</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126">
         <v>911</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F126">
         <v>1233</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" s="2" t="n">
+      <c r="B127" s="2">
         <v>45111</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>1927.75</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>23.005</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127">
         <v>918</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F127">
         <v>1241</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" s="2" t="n">
+      <c r="B128" s="2">
         <v>45112</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>1924.65</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>22.81</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128">
         <v>917</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F128">
         <v>1246</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" s="2" t="n">
+      <c r="B129" s="2">
         <v>45113</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>1908.8</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>23.17</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E129">
         <v>906</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F129">
         <v>1249</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" s="2" t="n">
+      <c r="B130" s="2">
         <v>45114</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>1922.3</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>22.715</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E130">
         <v>907</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F130">
         <v>1239</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" s="2" t="n">
+      <c r="B131" s="2">
         <v>45117</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>1922.8</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>23.04</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131">
         <v>912</v>
       </c>
-      <c r="F131" t="n">
+      <c r="F131">
         <v>1200</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" s="2" t="n">
+      <c r="B132" s="2">
         <v>45118</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>1933.95</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>23.135</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132">
         <v>927</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F132">
         <v>1236</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" s="2" t="n">
+      <c r="B133" s="2">
         <v>45119</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>1953.3</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>23.16</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133">
         <v>944</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F133">
         <v>1279</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" s="2" t="n">
+      <c r="B134" s="2">
         <v>45120</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>1958.05</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>24.26</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E134">
         <v>969</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F134">
         <v>1280</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" s="2" t="n">
+      <c r="B135" s="2">
         <v>45121</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>1953.7</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>24.77</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135">
         <v>977</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F135">
         <v>1267</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" s="2" t="n">
+      <c r="B136" s="2">
         <v>45124</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>1949.6</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>24.81</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E136">
         <v>971</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F136">
         <v>1270</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    <row r="137" spans="1:6">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" s="2" t="n">
+      <c r="B137" s="2">
         <v>45125</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>1975</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>24.885</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E137">
         <v>983</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F137">
         <v>1318</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    <row r="138" spans="1:6">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" s="2" t="n">
+      <c r="B138" s="2">
         <v>45126</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>1975.35</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>25.015</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E138">
         <v>985</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F138">
         <v>1309</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    <row r="139" spans="1:6">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" s="2" t="n">
+      <c r="B139" s="2">
         <v>45127</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>1976.1</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>25.175</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E139">
         <v>970</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F139">
         <v>1297</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    <row r="140" spans="1:6">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" s="2" t="n">
+      <c r="B140" s="2">
         <v>45128</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>1960.6</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>24.73</v>
       </c>
-      <c r="E140" t="n">
+      <c r="E140">
         <v>961</v>
       </c>
-      <c r="F140" t="n">
+      <c r="F140">
         <v>1298</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    <row r="141" spans="1:6">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" s="2" t="n">
+      <c r="B141" s="2">
         <v>45131</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>1960</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>24.59</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E141">
         <v>962</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F141">
         <v>1287</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    <row r="142" spans="1:6">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" s="2" t="n">
+      <c r="B142" s="2">
         <v>45132</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>1958.7</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>24.555</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E142">
         <v>967</v>
       </c>
-      <c r="F142" t="n">
+      <c r="F142">
         <v>1290</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    <row r="143" spans="1:6">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" s="2" t="n">
+      <c r="B143" s="2">
         <v>45133</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>1966.3</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>24.67</v>
       </c>
-      <c r="E143" t="n">
+      <c r="E143">
         <v>960</v>
       </c>
-      <c r="F143" t="n">
+      <c r="F143">
         <v>1254</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    <row r="144" spans="1:6">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" s="2" t="n">
+      <c r="B144" s="2">
         <v>45134</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>1945.35</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>25.01</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E144">
         <v>958</v>
       </c>
-      <c r="F144" t="n">
+      <c r="F144">
         <v>1246</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    <row r="145" spans="1:6">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" s="2" t="n">
+      <c r="B145" s="2">
         <v>45135</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>1954.25</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>24.225</v>
       </c>
-      <c r="E145" t="n">
+      <c r="E145">
         <v>933</v>
       </c>
-      <c r="F145" t="n">
+      <c r="F145">
         <v>1241</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    <row r="146" spans="1:6">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" s="2" t="n">
+      <c r="B146" s="2">
         <v>45138</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>1970.65</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>24.355</v>
       </c>
-      <c r="E146" t="n">
+      <c r="E146">
         <v>949</v>
       </c>
-      <c r="F146" t="n">
+      <c r="F146">
         <v>1274</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    <row r="147" spans="1:6">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" s="2" t="n">
+      <c r="B147" s="2">
         <v>45139</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>1947.2</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>24.515</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E147">
         <v>930</v>
       </c>
-      <c r="F147" t="n">
+      <c r="F147">
         <v>1238</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    <row r="148" spans="1:6">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" s="2" t="n">
+      <c r="B148" s="2">
         <v>45140</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>1944.2</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>24.41</v>
       </c>
-      <c r="E148" t="n">
+      <c r="E148">
         <v>929</v>
       </c>
-      <c r="F148" t="n">
+      <c r="F148">
         <v>1244</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    <row r="149" spans="1:6">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" s="2" t="n">
+      <c r="B149" s="2">
         <v>45141</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>1935.65</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>23.555</v>
       </c>
-      <c r="E149" t="n">
+      <c r="E149">
         <v>921</v>
       </c>
-      <c r="F149" t="n">
+      <c r="F149">
         <v>1250</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    <row r="150" spans="1:6">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" s="2" t="n">
+      <c r="B150" s="2">
         <v>45142</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>1942.45</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>23.45</v>
       </c>
-      <c r="E150" t="n">
+      <c r="E150">
         <v>919</v>
       </c>
-      <c r="F150" t="n">
+      <c r="F150">
         <v>1258</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    <row r="151" spans="1:6">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" s="2" t="n">
+      <c r="B151" s="2">
         <v>45145</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>1931.7</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>23.395</v>
       </c>
-      <c r="E151" t="n">
+      <c r="E151">
         <v>930</v>
       </c>
-      <c r="F151" t="n">
+      <c r="F151">
         <v>1261</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    <row r="152" spans="1:6">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" s="2" t="n">
+      <c r="B152" s="2">
         <v>45146</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>1926.4</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>23.04</v>
       </c>
-      <c r="E152" t="n">
+      <c r="E152">
         <v>906</v>
       </c>
-      <c r="F152" t="n">
+      <c r="F152">
         <v>1214</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    <row r="153" spans="1:6">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" s="2" t="n">
+      <c r="B153" s="2">
         <v>45147</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>1922.75</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>22.705</v>
       </c>
-      <c r="E153" t="n">
+      <c r="E153">
         <v>894</v>
       </c>
-      <c r="F153" t="n">
+      <c r="F153">
         <v>1222</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    <row r="154" spans="1:6">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" s="2" t="n">
+      <c r="B154" s="2">
         <v>45148</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>1920.9</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>22.8</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E154">
         <v>901</v>
       </c>
-      <c r="F154" t="n">
+      <c r="F154">
         <v>1269</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" s="2" t="n">
+      <c r="B155" s="2">
         <v>45149</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>1915.8</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>22.69</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E155">
         <v>911</v>
       </c>
-      <c r="F155" t="n">
+      <c r="F155">
         <v>1324</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" s="2" t="n">
+      <c r="B156" s="2">
         <v>45152</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>1903.75</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>22.725</v>
       </c>
-      <c r="E156" t="n">
+      <c r="E156">
         <v>902</v>
       </c>
-      <c r="F156" t="n">
+      <c r="F156">
         <v>1275</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    <row r="157" spans="1:6">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" s="2" t="n">
+      <c r="B157" s="2">
         <v>45153</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>1903.85</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>22.41</v>
       </c>
-      <c r="E157" t="n">
+      <c r="E157">
         <v>890</v>
       </c>
-      <c r="F157" t="n">
+      <c r="F157">
         <v>1246</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    <row r="158" spans="1:6">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" s="2" t="n">
+      <c r="B158" s="2">
         <v>45154</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>1904.2</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>22.695</v>
       </c>
-      <c r="E158" t="n">
+      <c r="E158">
         <v>887</v>
       </c>
-      <c r="F158" t="n">
+      <c r="F158">
         <v>1218</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    <row r="159" spans="1:6">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" s="2" t="n">
+      <c r="B159" s="2">
         <v>45155</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>1896.35</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>22.705</v>
       </c>
-      <c r="E159" t="n">
+      <c r="E159">
         <v>910</v>
       </c>
-      <c r="F159" t="n">
+      <c r="F159">
         <v>1233</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    <row r="160" spans="1:6">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" s="2" t="n">
+      <c r="B160" s="2">
         <v>45156</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>1893.7</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>22.79</v>
       </c>
-      <c r="E160" t="n">
+      <c r="E160">
         <v>904</v>
       </c>
-      <c r="F160" t="n">
+      <c r="F160">
         <v>1229</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    <row r="161" spans="1:6">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" s="2" t="n">
+      <c r="B161" s="2">
         <v>45159</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>1889.85</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>22.88</v>
       </c>
-      <c r="E161" t="n">
+      <c r="E161">
         <v>911</v>
       </c>
-      <c r="F161" t="n">
+      <c r="F161">
         <v>1240</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    <row r="162" spans="1:6">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" s="2" t="n">
+      <c r="B162" s="2">
         <v>45160</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>1892.75</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>23.39</v>
       </c>
-      <c r="E162" t="n">
+      <c r="E162">
         <v>928</v>
       </c>
-      <c r="F162" t="n">
+      <c r="F162">
         <v>1289</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    <row r="163" spans="1:6">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" s="2" t="n">
+      <c r="B163" s="2">
         <v>45161</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>1916.65</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>23.75</v>
       </c>
-      <c r="E163" t="n">
+      <c r="E163">
         <v>929</v>
       </c>
-      <c r="F163" t="n">
+      <c r="F163">
         <v>1282</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    <row r="164" spans="1:6">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" s="2" t="n">
+      <c r="B164" s="2">
         <v>45162</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>1917.05</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>24.185</v>
       </c>
-      <c r="E164" t="n">
+      <c r="E164">
         <v>933</v>
       </c>
-      <c r="F164" t="n">
+      <c r="F164">
         <v>1244</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    <row r="165" spans="1:6">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" s="2" t="n">
+      <c r="B165" s="2">
         <v>45163</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>1915.5</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>24.185</v>
       </c>
-      <c r="E165" t="n">
+      <c r="E165">
         <v>949</v>
       </c>
-      <c r="F165" t="n">
+      <c r="F165">
         <v>1233</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    <row r="166" spans="1:6">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" s="2" t="n">
+      <c r="B166" s="2">
         <v>45167</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>1930</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>24.22</v>
       </c>
-      <c r="E166" t="n">
+      <c r="E166">
         <v>979</v>
       </c>
-      <c r="F166" t="n">
+      <c r="F166">
         <v>1224</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    <row r="167" spans="1:6">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" s="2" t="n">
+      <c r="B167" s="2">
         <v>45168</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>1947.55</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>24.62</v>
       </c>
-      <c r="E167" t="n">
+      <c r="E167">
         <v>984</v>
       </c>
-      <c r="F167" t="n">
+      <c r="F167">
         <v>1237</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    <row r="168" spans="1:6">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" s="2" t="n">
+      <c r="B168" s="2">
         <v>45169</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>1942.3</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>24.535</v>
       </c>
-      <c r="E168" t="n">
+      <c r="E168">
         <v>980</v>
       </c>
-      <c r="F168" t="n">
+      <c r="F168">
         <v>1225</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    <row r="169" spans="1:6">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" s="2" t="n">
+      <c r="B169" s="2">
         <v>45170</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>1940.55</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>24.645</v>
       </c>
-      <c r="E169" t="n">
+      <c r="E169">
         <v>983</v>
       </c>
-      <c r="F169" t="n">
+      <c r="F169">
         <v>1227</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    <row r="170" spans="1:6">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" s="2" t="n">
+      <c r="B170" s="2">
         <v>45173</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>1937.2</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>24.035</v>
       </c>
-      <c r="E170" t="n">
+      <c r="E170">
         <v>960</v>
       </c>
-      <c r="F170" t="n">
+      <c r="F170">
         <v>1231</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    <row r="171" spans="1:6">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" s="2" t="n">
+      <c r="B171" s="2">
         <v>45174</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>1926.1</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>23.545</v>
       </c>
-      <c r="E171" t="n">
+      <c r="E171">
         <v>945</v>
       </c>
-      <c r="F171" t="n">
+      <c r="F171">
         <v>1205</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    <row r="172" spans="1:6">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" s="2" t="n">
+      <c r="B172" s="2">
         <v>45175</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>1922.05</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>23.475</v>
       </c>
-      <c r="E172" t="n">
+      <c r="E172">
         <v>915</v>
       </c>
-      <c r="F172" t="n">
+      <c r="F172">
         <v>1201</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    <row r="173" spans="1:6">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" s="2" t="n">
+      <c r="B173" s="2">
         <v>45176</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>1918.35</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>23.01</v>
       </c>
-      <c r="E173" t="n">
+      <c r="E173">
         <v>904</v>
       </c>
-      <c r="F173" t="n">
+      <c r="F173">
         <v>1207</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    <row r="174" spans="1:6">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" s="2" t="n">
+      <c r="B174" s="2">
         <v>45177</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>1927.8</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>23.01</v>
       </c>
-      <c r="E174" t="n">
+      <c r="E174">
         <v>900</v>
       </c>
-      <c r="F174" t="n">
+      <c r="F174">
         <v>1207</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    <row r="175" spans="1:6">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" s="2" t="n">
+      <c r="B175" s="2">
         <v>45180</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>1924.95</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>23.105</v>
       </c>
-      <c r="E175" t="n">
+      <c r="E175">
         <v>903</v>
       </c>
-      <c r="F175" t="n">
+      <c r="F175">
         <v>1215</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    <row r="176" spans="1:6">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" s="2" t="n">
+      <c r="B176" s="2">
         <v>45181</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>1908.55</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>22.9</v>
       </c>
-      <c r="E176" t="n">
+      <c r="E176">
         <v>900</v>
       </c>
-      <c r="F176" t="n">
+      <c r="F176">
         <v>1212</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    <row r="177" spans="1:6">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" s="2" t="n">
+      <c r="B177" s="2">
         <v>45182</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>1913.8</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>22.905</v>
       </c>
-      <c r="E177" t="n">
+      <c r="E177">
         <v>901</v>
       </c>
-      <c r="F177" t="n">
+      <c r="F177">
         <v>1234</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    <row r="178" spans="1:6">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" s="2" t="n">
+      <c r="B178" s="2">
         <v>45183</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>1901.75</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>22.64</v>
       </c>
-      <c r="E178" t="n">
+      <c r="E178">
         <v>903</v>
       </c>
-      <c r="F178" t="n">
+      <c r="F178">
         <v>1259</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    <row r="179" spans="1:6">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" s="2" t="n">
+      <c r="B179" s="2">
         <v>45184</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>1927.7</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>23.06</v>
       </c>
-      <c r="E179" t="n">
+      <c r="E179">
         <v>927</v>
       </c>
-      <c r="F179" t="n">
+      <c r="F179">
         <v>1270</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    <row r="180" spans="1:6">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" s="2" t="n">
+      <c r="B180" s="2">
         <v>45187</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>1923.5</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>23.195</v>
       </c>
-      <c r="E180" t="n">
+      <c r="E180">
         <v>935</v>
       </c>
-      <c r="F180" t="n">
+      <c r="F180">
         <v>1247</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    <row r="181" spans="1:6">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" s="2" t="n">
+      <c r="B181" s="2">
         <v>45188</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>1934.9</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>23.33</v>
       </c>
-      <c r="E181" t="n">
+      <c r="E181">
         <v>948</v>
       </c>
-      <c r="F181" t="n">
+      <c r="F181">
         <v>1272</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    <row r="182" spans="1:6">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" s="2" t="n">
+      <c r="B182" s="2">
         <v>45189</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>1943.35</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>23.275</v>
       </c>
-      <c r="E182" t="n">
+      <c r="E182">
         <v>943</v>
       </c>
-      <c r="F182" t="n">
+      <c r="F182">
         <v>1292</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    <row r="183" spans="1:6">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" s="2" t="n">
+      <c r="B183" s="2">
         <v>45190</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>1915</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>23.24</v>
       </c>
-      <c r="E183" t="n">
+      <c r="E183">
         <v>917</v>
       </c>
-      <c r="F183" t="n">
+      <c r="F183">
         <v>1242</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    <row r="184" spans="1:6">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" s="2" t="n">
+      <c r="B184" s="2">
         <v>45191</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>1927.35</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>23.65</v>
       </c>
-      <c r="E184" t="n">
+      <c r="E184">
         <v>940</v>
       </c>
-      <c r="F184" t="n">
+      <c r="F184">
         <v>1275</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    <row r="185" spans="1:6">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" s="2" t="n">
+      <c r="B185" s="2">
         <v>45194</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>1924.85</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>23.56</v>
       </c>
-      <c r="E185" t="n">
+      <c r="E185">
         <v>919</v>
       </c>
-      <c r="F185" t="n">
+      <c r="F185">
         <v>1241</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    <row r="186" spans="1:6">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" s="2" t="n">
+      <c r="B186" s="2">
         <v>45195</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>1907.05</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>23.015</v>
       </c>
-      <c r="E186" t="n">
+      <c r="E186">
         <v>906</v>
       </c>
-      <c r="F186" t="n">
+      <c r="F186">
         <v>1213</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    <row r="187" spans="1:6">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" s="2" t="n">
+      <c r="B187" s="2">
         <v>45196</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>1887.3</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>22.79</v>
       </c>
-      <c r="E187" t="n">
+      <c r="E187">
         <v>905</v>
       </c>
-      <c r="F187" t="n">
+      <c r="F187">
         <v>1241</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    <row r="188" spans="1:6">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" s="2" t="n">
+      <c r="B188" s="2">
         <v>45197</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>1873.55</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>22.55</v>
       </c>
-      <c r="E188" t="n">
+      <c r="E188">
         <v>901</v>
       </c>
-      <c r="F188" t="n">
+      <c r="F188">
         <v>1245</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    <row r="189" spans="1:6">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" s="2" t="n">
+      <c r="B189" s="2">
         <v>45198</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>1870.5</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>23.075</v>
       </c>
-      <c r="E189" t="n">
+      <c r="E189">
         <v>923</v>
       </c>
-      <c r="F189" t="n">
+      <c r="F189">
         <v>1289</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    <row r="190" spans="1:6">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" s="2" t="n">
+      <c r="B190" s="2">
         <v>45201</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>1833.05</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>21.62</v>
       </c>
-      <c r="E190" t="n">
+      <c r="E190">
         <v>901</v>
       </c>
-      <c r="F190" t="n">
+      <c r="F190">
         <v>1214</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    <row r="191" spans="1:6">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" s="2" t="n">
+      <c r="B191" s="2">
         <v>45202</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>1822.45</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>21.055</v>
       </c>
-      <c r="E191" t="n">
+      <c r="E191">
         <v>881</v>
       </c>
-      <c r="F191" t="n">
+      <c r="F191">
         <v>1183</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    <row r="192" spans="1:6">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" s="2" t="n">
+      <c r="B192" s="2">
         <v>45203</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>1818.95</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>21.105</v>
       </c>
-      <c r="E192" t="n">
+      <c r="E192">
         <v>874</v>
       </c>
-      <c r="F192" t="n">
+      <c r="F192">
         <v>1177</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    <row r="193" spans="1:6">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" s="2" t="n">
+      <c r="B193" s="2">
         <v>45204</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>1819.45</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>21.13</v>
       </c>
-      <c r="E193" t="n">
+      <c r="E193">
         <v>864</v>
       </c>
-      <c r="F193" t="n">
+      <c r="F193">
         <v>1157</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    <row r="194" spans="1:6">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" s="2" t="n">
+      <c r="B194" s="2">
         <v>45205</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>1819.6</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>21.115</v>
       </c>
-      <c r="E194" t="n">
+      <c r="E194">
         <v>858</v>
       </c>
-      <c r="F194" t="n">
+      <c r="F194">
         <v>1146</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    <row r="195" spans="1:6">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" s="2" t="n">
+      <c r="B195" s="2">
         <v>45208</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>1845.5</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>21.65</v>
       </c>
-      <c r="E195" t="n">
+      <c r="E195">
         <v>880</v>
       </c>
-      <c r="F195" t="n">
+      <c r="F195">
         <v>1132</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    <row r="196" spans="1:6">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" s="2" t="n">
+      <c r="B196" s="2">
         <v>45209</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>1857</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>21.715</v>
       </c>
-      <c r="E196" t="n">
+      <c r="E196">
         <v>886</v>
       </c>
-      <c r="F196" t="n">
+      <c r="F196">
         <v>1129</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    <row r="197" spans="1:6">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" s="2" t="n">
+      <c r="B197" s="2">
         <v>45210</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>1871.25</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>22.07</v>
       </c>
-      <c r="E197" t="n">
+      <c r="E197">
         <v>880</v>
       </c>
-      <c r="F197" t="n">
+      <c r="F197">
         <v>1162</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    <row r="198" spans="1:6">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" s="2" t="n">
+      <c r="B198" s="2">
         <v>45211</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>1874</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>22.14</v>
       </c>
-      <c r="E198" t="n">
+      <c r="E198">
         <v>883</v>
       </c>
-      <c r="F198" t="n">
+      <c r="F198">
         <v>1164</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    <row r="199" spans="1:6">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" s="2" t="n">
+      <c r="B199" s="2">
         <v>45212</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>1909.2</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>22.08</v>
       </c>
-      <c r="E199" t="n">
+      <c r="E199">
         <v>881</v>
       </c>
-      <c r="F199" t="n">
+      <c r="F199">
         <v>1141</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    <row r="200" spans="1:6">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" s="2" t="n">
+      <c r="B200" s="2">
         <v>45215</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>1918.05</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>22.595</v>
       </c>
-      <c r="E200" t="n">
+      <c r="E200">
         <v>883</v>
       </c>
-      <c r="F200" t="n">
+      <c r="F200">
         <v>1135</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    <row r="201" spans="1:6">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" s="2" t="n">
+      <c r="B201" s="2">
         <v>45216</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>1928.2</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>22.68</v>
       </c>
-      <c r="E201" t="n">
+      <c r="E201">
         <v>895</v>
       </c>
-      <c r="F201" t="n">
+      <c r="F201">
         <v>1135</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    <row r="202" spans="1:6">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" s="2" t="n">
+      <c r="B202" s="2">
         <v>45217</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>1955.7</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>23.21</v>
       </c>
-      <c r="E202" t="n">
+      <c r="E202">
         <v>898</v>
       </c>
-      <c r="F202" t="n">
+      <c r="F202">
         <v>1130</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    <row r="203" spans="1:6">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" s="2" t="n">
+      <c r="B203" s="2">
         <v>45218</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>1953.55</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>22.885</v>
       </c>
-      <c r="E203" t="n">
+      <c r="E203">
         <v>888</v>
       </c>
-      <c r="F203" t="n">
+      <c r="F203">
         <v>1107</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    <row r="204" spans="1:6">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" s="2" t="n">
+      <c r="B204" s="2">
         <v>45219</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>1988.5</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>23.215</v>
       </c>
-      <c r="E204" t="n">
+      <c r="E204">
         <v>895</v>
       </c>
-      <c r="F204" t="n">
+      <c r="F204">
         <v>1101</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    <row r="205" spans="1:6">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" s="2" t="n">
+      <c r="B205" s="2">
         <v>45222</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>1973</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>23.185</v>
       </c>
-      <c r="E205" t="n">
+      <c r="E205">
         <v>898</v>
       </c>
-      <c r="F205" t="n">
+      <c r="F205">
         <v>1113</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    <row r="206" spans="1:6">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" s="2" t="n">
+      <c r="B206" s="2">
         <v>45223</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>1963.65</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>22.74</v>
       </c>
-      <c r="E206" t="n">
+      <c r="E206">
         <v>887</v>
       </c>
-      <c r="F206" t="n">
+      <c r="F206">
         <v>1120</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    <row r="207" spans="1:6">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" s="2" t="n">
+      <c r="B207" s="2">
         <v>45224</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>1983.3</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>22.81</v>
       </c>
-      <c r="E207" t="n">
+      <c r="E207">
         <v>896</v>
       </c>
-      <c r="F207" t="n">
+      <c r="F207">
         <v>1136</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    <row r="208" spans="1:6">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" s="2" t="n">
+      <c r="B208" s="2">
         <v>45225</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>1975</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>22.97</v>
       </c>
-      <c r="E208" t="n">
+      <c r="E208">
         <v>912</v>
       </c>
-      <c r="F208" t="n">
+      <c r="F208">
         <v>1123</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    <row r="209" spans="1:6">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" s="2" t="n">
+      <c r="B209" s="2">
         <v>45226</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>1982.9</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>22.755</v>
       </c>
-      <c r="E209" t="n">
+      <c r="E209">
         <v>903</v>
       </c>
-      <c r="F209" t="n">
+      <c r="F209">
         <v>1139</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    <row r="210" spans="1:6">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" s="2" t="n">
+      <c r="B210" s="2">
         <v>45229</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>1997.6</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>23.15</v>
       </c>
-      <c r="E210" t="n">
+      <c r="E210">
         <v>927</v>
       </c>
-      <c r="F210" t="n">
+      <c r="F210">
         <v>1146</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    <row r="211" spans="1:6">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" s="2" t="n">
+      <c r="B211" s="2">
         <v>45230</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>1996.9</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>23.2</v>
       </c>
-      <c r="E211" t="n">
+      <c r="E211">
         <v>940</v>
       </c>
-      <c r="F211" t="n">
+      <c r="F211">
         <v>1136</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    <row r="212" spans="1:6">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" s="2" t="n">
+      <c r="B212" s="2">
         <v>45231</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>1986.35</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>22.67</v>
       </c>
-      <c r="E212" t="n">
+      <c r="E212">
         <v>929</v>
       </c>
-      <c r="F212" t="n">
+      <c r="F212">
         <v>1129</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    <row r="213" spans="1:6">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" s="2" t="n">
+      <c r="B213" s="2">
         <v>45232</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>1983.6</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>23.035</v>
       </c>
-      <c r="E213" t="n">
+      <c r="E213">
         <v>921</v>
       </c>
-      <c r="F213" t="n">
+      <c r="F213">
         <v>1117</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    <row r="214" spans="1:6">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" s="2" t="n">
+      <c r="B214" s="2">
         <v>45233</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>1994.45</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>22.64</v>
       </c>
-      <c r="E214" t="n">
+      <c r="E214">
         <v>931</v>
       </c>
-      <c r="F214" t="n">
+      <c r="F214">
         <v>1110</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    <row r="215" spans="1:6">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" s="2" t="n">
+      <c r="B215" s="2">
         <v>45236</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>1984.6</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>23.21</v>
       </c>
-      <c r="E215" t="n">
+      <c r="E215">
         <v>927</v>
       </c>
-      <c r="F215" t="n">
+      <c r="F215">
         <v>1123</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" s="2" t="n">
+      <c r="B216" s="2">
         <v>45237</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>1960.7</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>22.535</v>
       </c>
-      <c r="E216" t="n">
+      <c r="E216">
         <v>899</v>
       </c>
-      <c r="F216" t="n">
+      <c r="F216">
         <v>1070</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" s="2" t="n">
+      <c r="B217" s="2">
         <v>45238</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>1959.35</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>22.44</v>
       </c>
-      <c r="E217" t="n">
+      <c r="E217">
         <v>880</v>
       </c>
-      <c r="F217" t="n">
+      <c r="F217">
         <v>1016</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    <row r="218" spans="1:6">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" s="2" t="n">
+      <c r="B218" s="2">
         <v>45239</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>1957.45</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>22.55</v>
       </c>
-      <c r="E218" t="n">
+      <c r="E218">
         <v>868</v>
       </c>
-      <c r="F218" t="n">
+      <c r="F218">
         <v>1025</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    <row r="219" spans="1:6">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" s="2" t="n">
+      <c r="B219" s="2">
         <v>45240</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>1941.65</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>22.495</v>
       </c>
-      <c r="E219" t="n">
+      <c r="E219">
         <v>853</v>
       </c>
-      <c r="F219" t="n">
+      <c r="F219">
         <v>970</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    <row r="220" spans="1:6">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" s="2" t="n">
+      <c r="B220" s="2">
         <v>45243</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>1931.15</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>22.075</v>
       </c>
-      <c r="E220" t="n">
+      <c r="E220">
         <v>850</v>
       </c>
-      <c r="F220" t="n">
+      <c r="F220">
         <v>963</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" s="2" t="n">
+      <c r="B221" s="2">
         <v>45244</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>1969.05</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>22.35</v>
       </c>
-      <c r="E221" t="n">
+      <c r="E221">
         <v>877</v>
       </c>
-      <c r="F221" t="n">
+      <c r="F221">
         <v>1000</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    <row r="222" spans="1:6">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" s="2" t="n">
+      <c r="B222" s="2">
         <v>45245</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>1958.2</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>23.41</v>
       </c>
-      <c r="E222" t="n">
+      <c r="E222">
         <v>897</v>
       </c>
-      <c r="F222" t="n">
+      <c r="F222">
         <v>1021</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    <row r="223" spans="1:6">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" s="2" t="n">
+      <c r="B223" s="2">
         <v>45246</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>1980.1</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>23.67</v>
       </c>
-      <c r="E223" t="n">
+      <c r="E223">
         <v>900</v>
       </c>
-      <c r="F223" t="n">
+      <c r="F223">
         <v>1031</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    <row r="224" spans="1:6">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" s="2" t="n">
+      <c r="B224" s="2">
         <v>45247</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>1981.05</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>23.995</v>
       </c>
-      <c r="E224" t="n">
+      <c r="E224">
         <v>901</v>
       </c>
-      <c r="F224" t="n">
+      <c r="F224">
         <v>1040</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    <row r="225" spans="1:6">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" s="2" t="n">
+      <c r="B225" s="2">
         <v>45250</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>1968.7</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>23.385</v>
       </c>
-      <c r="E225" t="n">
+      <c r="E225">
         <v>899</v>
       </c>
-      <c r="F225" t="n">
+      <c r="F225">
         <v>1073</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    <row r="226" spans="1:6">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" s="2" t="n">
+      <c r="B226" s="2">
         <v>45251</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>2006.6</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>23.53</v>
       </c>
-      <c r="E226" t="n">
+      <c r="E226">
         <v>931</v>
       </c>
-      <c r="F226" t="n">
+      <c r="F226">
         <v>1075</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    <row r="227" spans="1:6">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" s="2" t="n">
+      <c r="B227" s="2">
         <v>45252</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>1997.55</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>23.835</v>
       </c>
-      <c r="E227" t="n">
+      <c r="E227">
         <v>931</v>
       </c>
-      <c r="F227" t="n">
+      <c r="F227">
         <v>1066</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    <row r="228" spans="1:6">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" s="2" t="n">
+      <c r="B228" s="2">
         <v>45253</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>1992.85</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>23.655</v>
       </c>
-      <c r="E228" t="n">
+      <c r="E228">
         <v>921</v>
       </c>
-      <c r="F228" t="n">
+      <c r="F228">
         <v>1057</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    <row r="229" spans="1:6">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" s="2" t="n">
+      <c r="B229" s="2">
         <v>45254</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>2000.85</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>23.705</v>
       </c>
-      <c r="E229" t="n">
+      <c r="E229">
         <v>916</v>
       </c>
-      <c r="F229" t="n">
+      <c r="F229">
         <v>1048</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    <row r="230" spans="1:6">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" s="2" t="n">
+      <c r="B230" s="2">
         <v>45257</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>2013.7</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>24.755</v>
       </c>
-      <c r="E230" t="n">
+      <c r="E230">
         <v>924</v>
       </c>
-      <c r="F230" t="n">
+      <c r="F230">
         <v>1064</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    <row r="231" spans="1:6">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" s="2" t="n">
+      <c r="B231" s="2">
         <v>45258</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>2025.65</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>24.65</v>
       </c>
-      <c r="E231" t="n">
+      <c r="E231">
         <v>928</v>
       </c>
-      <c r="F231" t="n">
+      <c r="F231">
         <v>1059</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    <row r="232" spans="1:6">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" s="2" t="n">
+      <c r="B232" s="2">
         <v>45259</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>2046.95</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>24.965</v>
       </c>
-      <c r="E232" t="n">
+      <c r="E232">
         <v>932</v>
       </c>
-      <c r="F232" t="n">
+      <c r="F232">
         <v>1024</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    <row r="233" spans="1:6">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" s="2" t="n">
+      <c r="B233" s="2">
         <v>45260</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>2035.45</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>25.02</v>
       </c>
-      <c r="E233" t="n">
+      <c r="E233">
         <v>937</v>
       </c>
-      <c r="F233" t="n">
+      <c r="F233">
         <v>1025</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    <row r="234" spans="1:6">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" s="2" t="n">
+      <c r="B234" s="2">
         <v>45261</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>2045.4</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>25.16</v>
       </c>
-      <c r="E234" t="n">
+      <c r="E234">
         <v>929</v>
       </c>
-      <c r="F234" t="n">
+      <c r="F234">
         <v>1009</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    <row r="235" spans="1:6">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" s="2" t="n">
+      <c r="B235" s="2">
         <v>45264</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>2049.05</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>25.165</v>
       </c>
-      <c r="E235" t="n">
+      <c r="E235">
         <v>930</v>
       </c>
-      <c r="F235" t="n">
+      <c r="F235">
         <v>972</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    <row r="236" spans="1:6">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" s="2" t="n">
+      <c r="B236" s="2">
         <v>45265</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>2023.35</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>24.27</v>
       </c>
-      <c r="E236" t="n">
+      <c r="E236">
         <v>908</v>
       </c>
-      <c r="F236" t="n">
+      <c r="F236">
         <v>965</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    <row r="237" spans="1:6">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" s="2" t="n">
+      <c r="B237" s="2">
         <v>45266</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>2026.4</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>24.095</v>
       </c>
-      <c r="E237" t="n">
+      <c r="E237">
         <v>905</v>
       </c>
-      <c r="F237" t="n">
+      <c r="F237">
         <v>957</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    <row r="238" spans="1:6">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" s="2" t="n">
+      <c r="B238" s="2">
         <v>45267</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>2026.9</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>23.91</v>
       </c>
-      <c r="E238" t="n">
+      <c r="E238">
         <v>909</v>
       </c>
-      <c r="F238" t="n">
+      <c r="F238">
         <v>976</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    <row r="239" spans="1:6">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" s="2" t="n">
+      <c r="B239" s="2">
         <v>45268</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>2008.1</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>23.79</v>
       </c>
-      <c r="E239" t="n">
+      <c r="E239">
         <v>917</v>
       </c>
-      <c r="F239" t="n">
+      <c r="F239">
         <v>975</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    <row r="240" spans="1:6">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" s="2" t="n">
+      <c r="B240" s="2">
         <v>45271</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>1986.65</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>22.92</v>
       </c>
-      <c r="E240" t="n">
+      <c r="E240">
         <v>926</v>
       </c>
-      <c r="F240" t="n">
+      <c r="F240">
         <v>958</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    <row r="241" spans="1:6">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" s="2" t="n">
+      <c r="B241" s="2">
         <v>45272</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>1980.85</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>22.955</v>
       </c>
-      <c r="E241" t="n">
+      <c r="E241">
         <v>921</v>
       </c>
-      <c r="F241" t="n">
+      <c r="F241">
         <v>980</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    <row r="242" spans="1:6">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" s="2" t="n">
+      <c r="B242" s="2">
         <v>45273</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>1982.5</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>22.725</v>
       </c>
-      <c r="E242" t="n">
+      <c r="E242">
         <v>923</v>
       </c>
-      <c r="F242" t="n">
+      <c r="F242">
         <v>979</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    <row r="243" spans="1:6">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" s="2" t="n">
+      <c r="B243" s="2">
         <v>45274</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>2046.1</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>23.99</v>
       </c>
-      <c r="E243" t="n">
+      <c r="E243">
         <v>944</v>
       </c>
-      <c r="F243" t="n">
+      <c r="F243">
         <v>1032</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    <row r="244" spans="1:6">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" s="2" t="n">
+      <c r="B244" s="2">
         <v>45275</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>2032.3</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>24.19</v>
       </c>
-      <c r="E244" t="n">
+      <c r="E244">
         <v>946</v>
       </c>
-      <c r="F244" t="n">
+      <c r="F244">
         <v>1130</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    <row r="245" spans="1:6">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" s="2" t="n">
+      <c r="B245" s="2">
         <v>45278</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>2023.95</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>23.935</v>
       </c>
-      <c r="E245" t="n">
+      <c r="E245">
         <v>958</v>
       </c>
-      <c r="F245" t="n">
+      <c r="F245">
         <v>1182</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    <row r="246" spans="1:6">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" s="2" t="n">
+      <c r="B246" s="2">
         <v>45279</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>2041.35</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>23.91</v>
       </c>
-      <c r="E246" t="n">
+      <c r="E246">
         <v>950</v>
       </c>
-      <c r="F246" t="n">
+      <c r="F246">
         <v>1201</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    <row r="247" spans="1:6">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" s="2" t="n">
+      <c r="B247" s="2">
         <v>45280</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>2035.55</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>23.97</v>
       </c>
-      <c r="E247" t="n">
+      <c r="E247">
         <v>964</v>
       </c>
-      <c r="F247" t="n">
+      <c r="F247">
         <v>1221</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    <row r="248" spans="1:6">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" s="2" t="n">
+      <c r="B248" s="2">
         <v>45281</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>2041.7</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>24.185</v>
       </c>
-      <c r="E248" t="n">
+      <c r="E248">
         <v>958</v>
       </c>
-      <c r="F248" t="n">
+      <c r="F248">
         <v>1208</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    <row r="249" spans="1:6">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" s="2" t="n">
+      <c r="B249" s="2">
         <v>45282</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>0</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>24.46</v>
       </c>
-      <c r="E249" t="n">
+      <c r="E249">
         <v>0</v>
       </c>
-      <c r="F249" t="n">
+      <c r="F249">
         <v>0</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    <row r="250" spans="1:6">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" s="2" t="n">
+      <c r="B250" s="2">
         <v>45287</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>2069.4</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>24.04</v>
       </c>
-      <c r="E250" t="n">
+      <c r="E250">
         <v>976</v>
       </c>
-      <c r="F250" t="n">
+      <c r="F250">
         <v>1174</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    <row r="251" spans="1:6">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" s="2" t="n">
+      <c r="B251" s="2">
         <v>45288</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>2078.4</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>24.255</v>
       </c>
-      <c r="E251" t="n">
+      <c r="E251">
         <v>1000</v>
       </c>
-      <c r="F251" t="n">
+      <c r="F251">
         <v>1136</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    <row r="252" spans="1:6">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" s="2" t="n">
+      <c r="B252" s="2">
         <v>45289</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>0</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>23.79</v>
       </c>
-      <c r="E252" t="n">
+      <c r="E252">
         <v>0</v>
       </c>
-      <c r="F252" t="n">
+      <c r="F252">
         <v>0</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    <row r="253" spans="1:6">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" s="2" t="n">
+      <c r="B253" s="2">
         <v>45294</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>2042.1</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>23.28</v>
       </c>
-      <c r="E253" t="n">
+      <c r="E253">
         <v>970</v>
       </c>
-      <c r="F253" t="n">
+      <c r="F253">
         <v>1073</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    <row r="254" spans="1:6">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" s="2" t="n">
+      <c r="B254" s="2">
         <v>45295</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>2039.55</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>22.96</v>
       </c>
-      <c r="E254" t="n">
+      <c r="E254">
         <v>967</v>
       </c>
-      <c r="F254" t="n">
+      <c r="F254">
         <v>1056</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    <row r="255" spans="1:6">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" s="2" t="n">
+      <c r="B255" s="2">
         <v>45296</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>2056.35</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>22.98</v>
       </c>
-      <c r="E255" t="n">
+      <c r="E255">
         <v>956</v>
       </c>
-      <c r="F255" t="n">
+      <c r="F255">
         <v>1040</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    <row r="256" spans="1:6">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" s="2" t="n">
+      <c r="B256" s="2">
         <v>45299</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>2025.1</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>22.85</v>
       </c>
-      <c r="E256" t="n">
+      <c r="E256">
         <v>948</v>
       </c>
-      <c r="F256" t="n">
+      <c r="F256">
         <v>1003</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    <row r="257" spans="1:6">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" s="2" t="n">
+      <c r="B257" s="2">
         <v>45300</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>2034.9</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>23.13</v>
       </c>
-      <c r="E257" t="n">
+      <c r="E257">
         <v>940</v>
       </c>
-      <c r="F257" t="n">
+      <c r="F257">
         <v>985</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    <row r="258" spans="1:6">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" s="2" t="n">
+      <c r="B258" s="2">
         <v>45301</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>2026.8</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>22.97</v>
       </c>
-      <c r="E258" t="n">
+      <c r="E258">
         <v>930</v>
       </c>
-      <c r="F258" t="n">
+      <c r="F258">
         <v>997</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    <row r="259" spans="1:6">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" s="2" t="n">
+      <c r="B259" s="2">
         <v>45302</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>2029.15</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>23.03</v>
       </c>
-      <c r="E259" t="n">
+      <c r="E259">
         <v>924</v>
       </c>
-      <c r="F259" t="n">
+      <c r="F259">
         <v>1000</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    <row r="260" spans="1:6">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" s="2" t="n">
+      <c r="B260" s="2">
         <v>45303</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>2055.65</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>23.06</v>
       </c>
-      <c r="E260" t="n">
+      <c r="E260">
         <v>928</v>
       </c>
-      <c r="F260" t="n">
+      <c r="F260">
         <v>996</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    <row r="261" spans="1:6">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" s="2" t="n">
+      <c r="B261" s="2">
         <v>45306</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>2049.9</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>23.21</v>
       </c>
-      <c r="E261" t="n">
+      <c r="E261">
         <v>916</v>
       </c>
-      <c r="F261" t="n">
+      <c r="F261">
         <v>963</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    <row r="262" spans="1:6">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" s="2" t="n">
+      <c r="B262" s="2">
         <v>45307</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>2038.15</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>23.05</v>
       </c>
-      <c r="E262" t="n">
+      <c r="E262">
         <v>904</v>
       </c>
-      <c r="F262" t="n">
+      <c r="F262">
         <v>944</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    <row r="263" spans="1:6">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" s="2" t="n">
+      <c r="B263" s="2">
         <v>45308</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>2011.75</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>22.81</v>
       </c>
-      <c r="E263" t="n">
+      <c r="E263">
         <v>897</v>
       </c>
-      <c r="F263" t="n">
+      <c r="F263">
         <v>927</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    <row r="264" spans="1:6">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" s="2" t="n">
+      <c r="B264" s="2">
         <v>45309</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>2013.2</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>22.61</v>
       </c>
-      <c r="E264" t="n">
+      <c r="E264">
         <v>894</v>
       </c>
-      <c r="F264" t="n">
+      <c r="F264">
         <v>937</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    <row r="265" spans="1:6">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" s="2" t="n">
+      <c r="B265" s="2">
         <v>45310</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>2028.55</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>22.8</v>
       </c>
-      <c r="E265" t="n">
+      <c r="E265">
         <v>908</v>
       </c>
-      <c r="F265" t="n">
+      <c r="F265">
         <v>942</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    <row r="266" spans="1:6">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" s="2" t="n">
+      <c r="B266" s="2">
         <v>45313</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>2021.6</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>22.2</v>
       </c>
-      <c r="E266" t="n">
+      <c r="E266">
         <v>902</v>
       </c>
-      <c r="F266" t="n">
+      <c r="F266">
         <v>925</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    <row r="267" spans="1:6">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" s="2" t="n">
+      <c r="B267" s="2">
         <v>45314</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>2022.95</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>22.26</v>
       </c>
-      <c r="E267" t="n">
+      <c r="E267">
         <v>906</v>
       </c>
-      <c r="F267" t="n">
+      <c r="F267">
         <v>938</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    <row r="268" spans="1:6">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" s="2" t="n">
+      <c r="B268" s="2">
         <v>45315</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>2024.65</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>22.77</v>
       </c>
-      <c r="E268" t="n">
+      <c r="E268">
         <v>911</v>
       </c>
-      <c r="F268" t="n">
+      <c r="F268">
         <v>971</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    <row r="269" spans="1:6">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" s="2" t="n">
+      <c r="B269" s="2">
         <v>45316</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>2023.75</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>22.88</v>
       </c>
-      <c r="E269" t="n">
+      <c r="E269">
         <v>901</v>
       </c>
-      <c r="F269" t="n">
+      <c r="F269">
         <v>955</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    <row r="270" spans="1:6">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" s="2" t="n">
+      <c r="B270" s="2">
         <v>45317</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>2018.45</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>22.92</v>
       </c>
-      <c r="E270" t="n">
+      <c r="E270">
         <v>907</v>
       </c>
-      <c r="F270" t="n">
+      <c r="F270">
         <v>946</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    <row r="271" spans="1:6">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" s="2" t="n">
+      <c r="B271" s="2">
         <v>45320</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>2022.5</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>23.01</v>
       </c>
-      <c r="E271" t="n">
+      <c r="E271">
         <v>923</v>
       </c>
-      <c r="F271" t="n">
+      <c r="F271">
         <v>975</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    <row r="272" spans="1:6">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" s="2" t="n">
+      <c r="B272" s="2">
         <v>45321</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>2043.05</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>23.08</v>
       </c>
-      <c r="E272" t="n">
+      <c r="E272">
         <v>925</v>
       </c>
-      <c r="F272" t="n">
+      <c r="F272">
         <v>980</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    <row r="273" spans="1:6">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" s="2" t="n">
+      <c r="B273" s="2">
         <v>45322</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>2053.25</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>23.09</v>
       </c>
-      <c r="E273" t="n">
+      <c r="E273">
         <v>924</v>
       </c>
-      <c r="F273" t="n">
+      <c r="F273">
         <v>972</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    <row r="274" spans="1:6">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" s="2" t="n">
+      <c r="B274" s="2">
         <v>45323</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>2045.85</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>22.67</v>
       </c>
-      <c r="E274" t="n">
+      <c r="E274">
         <v>907</v>
       </c>
-      <c r="F274" t="n">
+      <c r="F274">
         <v>952</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    <row r="275" spans="1:6">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" s="2" t="n">
+      <c r="B275" s="2">
         <v>45324</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>2034.15</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>23.23</v>
       </c>
-      <c r="E275" t="n">
+      <c r="E275">
         <v>905</v>
       </c>
-      <c r="F275" t="n">
+      <c r="F275">
         <v>954</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    <row r="276" spans="1:6">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" s="2" t="n">
+      <c r="B276" s="2">
         <v>45327</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>2018</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>22.51</v>
       </c>
-      <c r="E276" t="n">
+      <c r="E276">
         <v>900</v>
       </c>
-      <c r="F276" t="n">
+      <c r="F276">
         <v>945</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    <row r="277" spans="1:6">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" s="2" t="n">
+      <c r="B277" s="2">
         <v>45328</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>2030.8</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>22.31</v>
       </c>
-      <c r="E277" t="n">
+      <c r="E277">
         <v>907</v>
       </c>
-      <c r="F277" t="n">
+      <c r="F277">
         <v>951</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    <row r="278" spans="1:6">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" s="2" t="n">
+      <c r="B278" s="2">
         <v>45329</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>2041.6</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>22.29</v>
       </c>
-      <c r="E278" t="n">
+      <c r="E278">
         <v>890</v>
       </c>
-      <c r="F278" t="n">
+      <c r="F278">
         <v>934</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    <row r="279" spans="1:6">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" s="2" t="n">
+      <c r="B279" s="2">
         <v>45330</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>2028.65</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>22.35</v>
       </c>
-      <c r="E279" t="n">
+      <c r="E279">
         <v>878</v>
       </c>
-      <c r="F279" t="n">
+      <c r="F279">
         <v>881</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    <row r="280" spans="1:6">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" s="2" t="n">
+      <c r="B280" s="2">
         <v>45331</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>2023.5</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>22.66</v>
       </c>
-      <c r="E280" t="n">
+      <c r="E280">
         <v>879</v>
       </c>
-      <c r="F280" t="n">
+      <c r="F280">
         <v>875</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    <row r="281" spans="1:6">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" s="2" t="n">
+      <c r="B281" s="2">
         <v>45334</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>2015.2</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>22.92</v>
       </c>
-      <c r="E281" t="n">
+      <c r="E281">
         <v>886</v>
       </c>
-      <c r="F281" t="n">
+      <c r="F281">
         <v>897</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    <row r="282" spans="1:6">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" s="2" t="n">
+      <c r="B282" s="2">
         <v>45335</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>1996.1</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>22.87</v>
       </c>
-      <c r="E282" t="n">
+      <c r="E282">
         <v>882</v>
       </c>
-      <c r="F282" t="n">
+      <c r="F282">
         <v>876</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    <row r="283" spans="1:6">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" s="2" t="n">
+      <c r="B283" s="2">
         <v>45336</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>1985.1</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>22.09</v>
       </c>
-      <c r="E283" t="n">
+      <c r="E283">
         <v>887</v>
       </c>
-      <c r="F283" t="n">
+      <c r="F283">
         <v>900</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    <row r="284" spans="1:6">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" s="2" t="n">
+      <c r="B284" s="2">
         <v>45337</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>2004.05</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>22.63</v>
       </c>
-      <c r="E284" t="n">
+      <c r="E284">
         <v>896</v>
       </c>
-      <c r="F284" t="n">
+      <c r="F284">
         <v>962</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    <row r="285" spans="1:6">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" s="2" t="n">
+      <c r="B285" s="2">
         <v>45338</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>1997.9</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>23.01</v>
       </c>
-      <c r="E285" t="n">
+      <c r="E285">
         <v>895</v>
       </c>
-      <c r="F285" t="n">
+      <c r="F285">
         <v>945</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    <row r="286" spans="1:6">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" s="2" t="n">
+      <c r="B286" s="2">
         <v>45341</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>2017.05</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>23.09</v>
       </c>
-      <c r="E286" t="n">
+      <c r="E286">
         <v>905</v>
       </c>
-      <c r="F286" t="n">
+      <c r="F286">
         <v>956</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    <row r="287" spans="1:6">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" s="2" t="n">
+      <c r="B287" s="2">
         <v>45342</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>2029.1</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>23.06</v>
       </c>
-      <c r="E287" t="n">
+      <c r="E287">
         <v>909</v>
       </c>
-      <c r="F287" t="n">
+      <c r="F287">
         <v>984</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    <row r="288" spans="1:6">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" s="2" t="n">
+      <c r="B288" s="2">
         <v>45343</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>2026.75</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>23.08</v>
       </c>
-      <c r="E288" t="n">
+      <c r="E288">
         <v>902</v>
       </c>
-      <c r="F288" t="n">
+      <c r="F288">
         <v>973</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    <row r="289" spans="1:6">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" s="2" t="n">
+      <c r="B289" s="2">
         <v>45344</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>2024</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>23.07</v>
       </c>
-      <c r="E289" t="n">
+      <c r="E289">
         <v>898</v>
       </c>
-      <c r="F289" t="n">
+      <c r="F289">
         <v>951</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    <row r="290" spans="1:6">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" s="2" t="n">
+      <c r="B290" s="2">
         <v>45345</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>2027.45</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>22.72</v>
       </c>
-      <c r="E290" t="n">
+      <c r="E290">
         <v>904</v>
       </c>
-      <c r="F290" t="n">
+      <c r="F290">
         <v>973</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    <row r="291" spans="1:6">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" s="2" t="n">
+      <c r="B291" s="2">
         <v>45348</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>2027.2</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>22.51</v>
       </c>
-      <c r="E291" t="n">
+      <c r="E291">
         <v>886</v>
       </c>
-      <c r="F291" t="n">
+      <c r="F291">
         <v>962</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    <row r="292" spans="1:6">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" s="2" t="n">
+      <c r="B292" s="2">
         <v>45349</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>2035.05</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>22.67</v>
       </c>
-      <c r="E292" t="n">
+      <c r="E292">
         <v>893</v>
       </c>
-      <c r="F292" t="n">
+      <c r="F292">
         <v>966</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    <row r="293" spans="1:6">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" s="2" t="n">
+      <c r="B293" s="2">
         <v>45350</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>2032.45</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>22.35</v>
       </c>
-      <c r="E293" t="n">
+      <c r="E293">
         <v>884</v>
       </c>
-      <c r="F293" t="n">
+      <c r="F293">
         <v>918</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    <row r="294" spans="1:6">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" s="2" t="n">
+      <c r="B294" s="2">
         <v>45351</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>2048.05</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>22.34</v>
       </c>
-      <c r="E294" t="n">
+      <c r="E294">
         <v>887</v>
       </c>
-      <c r="F294" t="n">
+      <c r="F294">
         <v>952</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    <row r="295" spans="1:6">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" s="2" t="n">
+      <c r="B295" s="2">
         <v>45352</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>2049.8</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>22.72</v>
       </c>
-      <c r="E295" t="n">
+      <c r="E295">
         <v>872</v>
       </c>
-      <c r="F295" t="n">
+      <c r="F295">
         <v>935</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    <row r="296" spans="1:6">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" s="2" t="n">
+      <c r="B296" s="2">
         <v>45355</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>2098.05</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>23.1</v>
       </c>
-      <c r="E296" t="n">
+      <c r="E296">
         <v>889</v>
       </c>
-      <c r="F296" t="n">
+      <c r="F296">
         <v>948</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    <row r="297" spans="1:6">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" s="2" t="n">
+      <c r="B297" s="2">
         <v>45356</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>2134.4</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>23.93</v>
       </c>
-      <c r="E297" t="n">
+      <c r="E297">
         <v>885</v>
       </c>
-      <c r="F297" t="n">
+      <c r="F297">
         <v>941</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    <row r="298" spans="1:6">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" s="2" t="n">
+      <c r="B298" s="2">
         <v>45357</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>2142.85</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>23.8</v>
       </c>
-      <c r="E298" t="n">
+      <c r="E298">
         <v>894</v>
       </c>
-      <c r="F298" t="n">
+      <c r="F298">
         <v>1013</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    <row r="299" spans="1:6">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" s="2" t="n">
+      <c r="B299" s="2">
         <v>45358</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>2153.45</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>24.16</v>
       </c>
-      <c r="E299" t="n">
+      <c r="E299">
         <v>917</v>
       </c>
-      <c r="F299" t="n">
+      <c r="F299">
         <v>1026</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    <row r="300" spans="1:6">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" s="2" t="n">
+      <c r="B300" s="2">
         <v>45359</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>2171.2</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>24.5</v>
       </c>
-      <c r="E300" t="n">
+      <c r="E300">
         <v>917</v>
       </c>
-      <c r="F300" t="n">
+      <c r="F300">
         <v>1043</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    <row r="301" spans="1:6">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" s="2" t="n">
+      <c r="B301" s="2">
         <v>45362</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>2180.45</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>24.36</v>
       </c>
-      <c r="E301" t="n">
+      <c r="E301">
         <v>932</v>
       </c>
-      <c r="F301" t="n">
+      <c r="F301">
         <v>1028</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    <row r="302" spans="1:6">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" s="2" t="n">
+      <c r="B302" s="2">
         <v>45363</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>2161.25</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>24.38</v>
       </c>
-      <c r="E302" t="n">
+      <c r="E302">
         <v>915</v>
       </c>
-      <c r="F302" t="n">
+      <c r="F302">
         <v>1022</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    <row r="303" spans="1:6">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" s="2" t="n">
+      <c r="B303" s="2">
         <v>45364</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>2168.4</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>24.3</v>
       </c>
-      <c r="E303" t="n">
+      <c r="E303">
         <v>931</v>
       </c>
-      <c r="F303" t="n">
+      <c r="F303">
         <v>1067</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    <row r="304" spans="1:6">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" s="2" t="n">
+      <c r="B304" s="2">
         <v>45365</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>2160.8</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>24.97</v>
       </c>
-      <c r="E304" t="n">
+      <c r="E304">
         <v>929</v>
       </c>
-      <c r="F304" t="n">
+      <c r="F304">
         <v>1079</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
+    <row r="305" spans="1:6">
+      <c r="A305" s="1">
         <v>303</v>
       </c>
-      <c r="B305" s="2" t="n">
+      <c r="B305" s="2">
         <v>45366</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C305">
         <v>2163.45</v>
       </c>
-      <c r="D305" t="n">
+      <c r="D305">
         <v>25.22</v>
       </c>
-      <c r="E305" t="n">
+      <c r="E305">
         <v>945</v>
       </c>
-      <c r="F305" t="n">
+      <c r="F305">
         <v>1078</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
+    <row r="306" spans="1:6">
+      <c r="A306" s="1">
         <v>304</v>
       </c>
-      <c r="B306" s="2" t="n">
+      <c r="B306" s="2">
         <v>45369</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C306">
         <v>2158.15</v>
       </c>
-      <c r="D306" t="n">
+      <c r="D306">
         <v>25.17</v>
       </c>
-      <c r="E306" t="n">
+      <c r="E306">
         <v>920</v>
       </c>
-      <c r="F306" t="n">
+      <c r="F306">
         <v>1039</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
+    <row r="307" spans="1:6">
+      <c r="A307" s="1">
         <v>305</v>
       </c>
-      <c r="B307" s="2" t="n">
+      <c r="B307" s="2">
         <v>45370</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C307">
         <v>2154.9</v>
       </c>
-      <c r="D307" t="n">
+      <c r="D307">
         <v>24.93</v>
       </c>
-      <c r="E307" t="n">
+      <c r="E307">
         <v>896</v>
       </c>
-      <c r="F307" t="n">
+      <c r="F307">
         <v>986</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
+    <row r="308" spans="1:6">
+      <c r="A308" s="1">
         <v>306</v>
       </c>
-      <c r="B308" s="2" t="n">
+      <c r="B308" s="2">
         <v>45371</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C308">
         <v>2157.45</v>
       </c>
-      <c r="D308" t="n">
+      <c r="D308">
         <v>24.85</v>
       </c>
-      <c r="E308" t="n">
+      <c r="E308">
         <v>900</v>
       </c>
-      <c r="F308" t="n">
+      <c r="F308">
         <v>1007</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
+    <row r="309" spans="1:6">
+      <c r="A309" s="1">
         <v>307</v>
       </c>
-      <c r="B309" s="2" t="n">
+      <c r="B309" s="2">
         <v>45372</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C309">
         <v>2170.5</v>
       </c>
-      <c r="D309" t="n">
+      <c r="D309">
         <v>25.43</v>
       </c>
-      <c r="E309" t="n">
+      <c r="E309">
         <v>910</v>
       </c>
-      <c r="F309" t="n">
+      <c r="F309">
         <v>1009</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
+    <row r="310" spans="1:6">
+      <c r="A310" s="1">
         <v>308</v>
       </c>
-      <c r="B310" s="2" t="n">
+      <c r="B310" s="2">
         <v>45373</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C310">
         <v>2171.6</v>
       </c>
-      <c r="D310" t="n">
+      <c r="D310">
         <v>24.59</v>
       </c>
-      <c r="E310" t="n">
+      <c r="E310">
         <v>903</v>
       </c>
-      <c r="F310" t="n">
+      <c r="F310">
         <v>1007</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
+    <row r="311" spans="1:6">
+      <c r="A311" s="1">
         <v>309</v>
       </c>
-      <c r="B311" s="2" t="n">
+      <c r="B311" s="2">
         <v>45376</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C311">
         <v>2176.7</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D311">
         <v>24.67</v>
       </c>
-      <c r="E311" t="n">
+      <c r="E311">
         <v>911</v>
       </c>
-      <c r="F311" t="n">
+      <c r="F311">
         <v>1019</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
+    <row r="312" spans="1:6">
+      <c r="A312" s="1">
         <v>310</v>
       </c>
-      <c r="B312" s="2" t="n">
+      <c r="B312" s="2">
         <v>45377</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C312">
         <v>2179.8</v>
       </c>
-      <c r="D312" t="n">
+      <c r="D312">
         <v>24.83</v>
       </c>
-      <c r="E312" t="n">
+      <c r="E312">
         <v>906</v>
       </c>
-      <c r="F312" t="n">
+      <c r="F312">
         <v>1005</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
+    <row r="313" spans="1:6">
+      <c r="A313" s="1">
         <v>311</v>
       </c>
-      <c r="B313" s="2" t="n">
+      <c r="B313" s="2">
         <v>45378</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C313">
         <v>2192.7</v>
       </c>
-      <c r="D313" t="n">
+      <c r="D313">
         <v>24.51</v>
       </c>
-      <c r="E313" t="n">
+      <c r="E313">
         <v>896</v>
       </c>
-      <c r="F313" t="n">
+      <c r="F313">
         <v>973</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
+    <row r="314" spans="1:6">
+      <c r="A314" s="1">
         <v>312</v>
       </c>
-      <c r="B314" s="2" t="n">
+      <c r="B314" s="2">
         <v>45379</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C314">
         <v>2214.35</v>
       </c>
-      <c r="D314" t="n">
+      <c r="D314">
         <v>24.54</v>
       </c>
-      <c r="E314" t="n">
+      <c r="E314">
         <v>907</v>
       </c>
-      <c r="F314" t="n">
+      <c r="F314">
         <v>1017</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
+    <row r="315" spans="1:6">
+      <c r="A315" s="1">
         <v>313</v>
       </c>
-      <c r="B315" s="2" t="n">
+      <c r="B315" s="2">
         <v>45384</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C315">
         <v>2264.5</v>
       </c>
-      <c r="D315" t="n">
+      <c r="D315">
         <v>25.65</v>
       </c>
-      <c r="E315" t="n">
+      <c r="E315">
         <v>925</v>
       </c>
-      <c r="F315" t="n">
+      <c r="F315">
         <v>1016</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
+    <row r="316" spans="1:6">
+      <c r="A316" s="1">
         <v>314</v>
       </c>
-      <c r="B316" s="2" t="n">
+      <c r="B316" s="2">
         <v>45385</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C316">
         <v>2280.15</v>
       </c>
-      <c r="D316" t="n">
+      <c r="D316">
         <v>26.25</v>
       </c>
-      <c r="E316" t="n">
+      <c r="E316">
         <v>929</v>
       </c>
-      <c r="F316" t="n">
+      <c r="F316">
         <v>1011</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
+    <row r="317" spans="1:6">
+      <c r="A317" s="1">
         <v>315</v>
       </c>
-      <c r="B317" s="2" t="n">
+      <c r="B317" s="2">
         <v>45386</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C317">
         <v>2293.5</v>
       </c>
-      <c r="D317" t="n">
+      <c r="D317">
         <v>27</v>
       </c>
-      <c r="E317" t="n">
+      <c r="E317">
         <v>935</v>
       </c>
-      <c r="F317" t="n">
+      <c r="F317">
         <v>1024</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
+    <row r="318" spans="1:6">
+      <c r="A318" s="1">
         <v>316</v>
       </c>
-      <c r="B318" s="2" t="n">
+      <c r="B318" s="2">
         <v>45387</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C318">
         <v>2298.55</v>
       </c>
-      <c r="D318" t="n">
+      <c r="D318">
         <v>26.78</v>
       </c>
-      <c r="E318" t="n">
+      <c r="E318">
         <v>923</v>
       </c>
-      <c r="F318" t="n">
+      <c r="F318">
         <v>998</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
+    <row r="319" spans="1:6">
+      <c r="A319" s="1">
         <v>317</v>
       </c>
-      <c r="B319" s="2" t="n">
+      <c r="B319" s="2">
         <v>45390</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C319">
         <v>2320.25</v>
       </c>
-      <c r="D319" t="n">
+      <c r="D319">
         <v>27.83</v>
       </c>
-      <c r="E319" t="n">
+      <c r="E319">
         <v>946</v>
       </c>
-      <c r="F319" t="n">
+      <c r="F319">
         <v>1037</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>